--- a/excel_template/ConfigurationTemplate.xlsx
+++ b/excel_template/ConfigurationTemplate.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="942" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="942" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="hrs_config" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HRS_config" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Field_uncertainty" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Calibration_uncertainty" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Write" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Todo" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Calibration_uncertainty (2)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="temp_calc_sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Write" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Todo" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Calibration_uncertainty (2)" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -20,8 +21,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000\ %"/>
+    <numFmt numFmtId="166" formatCode="0.0\ %"/>
+    <numFmt numFmtId="167" formatCode="0.000\ %"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -382,35 +386,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -427,6 +407,26 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -466,7 +466,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -498,52 +498,61 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="18" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="2" fontId="1" fillId="13" borderId="18" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="9"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" pivotButton="0" quotePrefix="0" xfId="5"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="17" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" pivotButton="0" quotePrefix="0" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" pivotButton="0" quotePrefix="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" pivotButton="0" quotePrefix="0" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="9"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="8"/>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="12"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="11"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="13"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="13"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="13"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="13"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="13"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="19" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="10"/>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="12"/>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="11"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="11" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="11" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="10" fontId="1" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="12"/>
+    <xf numFmtId="10" fontId="1" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="11"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="13"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="13"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="13"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="13"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
@@ -642,15 +651,15 @@
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>1</col>
-      <colOff>311150</colOff>
-      <row>27</row>
-      <rowOff>162114</rowOff>
+      <colOff>120650</colOff>
+      <row>21</row>
+      <rowOff>151531</rowOff>
     </from>
     <to>
       <col>7</col>
-      <colOff>294560</colOff>
-      <row>41</row>
-      <rowOff>187170</rowOff>
+      <colOff>104060</colOff>
+      <row>35</row>
+      <rowOff>176024</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -668,8 +677,8 @@
       </blipFill>
       <spPr>
         <a:xfrm>
-          <a:off x="1073150" y="5347027"/>
-          <a:ext cx="7744214" cy="2692056"/>
+          <a:off x="919692" y="4114989"/>
+          <a:ext cx="8116701" cy="2617410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -1176,8 +1185,8 @@
   </sheetPr>
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1206,12 +1215,12 @@
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
-      <c r="B3" s="73" t="inlineStr">
+      <c r="B3" s="82" t="inlineStr">
         <is>
           <t>Correction:</t>
         </is>
       </c>
-      <c r="C3" s="74" t="n"/>
+      <c r="C3" s="83" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" thickTop="1">
       <c r="B4" s="15" t="inlineStr">
@@ -1227,12 +1236,12 @@
       <c r="K4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="47" t="inlineStr">
+      <c r="B5" s="42" t="inlineStr">
         <is>
           <t>Correct for vented hydrogen</t>
         </is>
       </c>
-      <c r="C5" s="48" t="inlineStr">
+      <c r="C5" s="43" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1241,18 +1250,18 @@
       <c r="K5" s="26" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="71" t="inlineStr">
+      <c r="B6" s="80" t="inlineStr">
         <is>
           <t>Uncertainty varying with flowrate:</t>
         </is>
       </c>
-      <c r="C6" s="72" t="n"/>
-      <c r="D6" s="51" t="inlineStr">
+      <c r="C6" s="81" t="n"/>
+      <c r="D6" s="44" t="inlineStr">
         <is>
           <t>if NO - set uncertainty: [u*std(x)]</t>
         </is>
       </c>
-      <c r="E6" s="33" t="inlineStr">
+      <c r="E6" s="32" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
@@ -1267,43 +1276,39 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="I6" s="57" t="inlineStr">
+      <c r="I6" s="49" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="J6" s="11" t="inlineStr">
+      <c r="J6" s="65" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="K6" s="57" t="n"/>
+      <c r="K6" s="69" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="49" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>Calibration correction factor</t>
         </is>
       </c>
-      <c r="C7" s="50" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D7" s="66" t="n">
+      <c r="D7" s="60" t="n">
         <v>0.003</v>
       </c>
-      <c r="E7" s="14" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="E7" s="57" t="n"/>
       <c r="G7" s="12" t="inlineStr">
         <is>
           <t>Dead volume</t>
         </is>
       </c>
-      <c r="H7" s="40" t="n">
+      <c r="H7" s="37" t="n">
         <v>0.0025</v>
       </c>
       <c r="I7" s="13" t="inlineStr">
@@ -1311,14 +1316,10 @@
           <t>m3</t>
         </is>
       </c>
-      <c r="J7" s="58" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K7" s="60" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="J7" s="66" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K7" s="70" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="16" t="inlineStr">
@@ -1326,25 +1327,21 @@
           <t xml:space="preserve">Calibration reference </t>
         </is>
       </c>
-      <c r="C8" s="35" t="inlineStr">
+      <c r="C8" s="48" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D8" s="66" t="n">
+      <c r="D8" s="61" t="n">
         <v>0.0022</v>
       </c>
-      <c r="E8" s="16" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="E8" s="58" t="n"/>
       <c r="G8" s="27" t="inlineStr">
         <is>
           <t>Vent+dispenser Hose</t>
         </is>
       </c>
-      <c r="H8" s="39" t="n">
+      <c r="H8" s="36" t="n">
         <v>0.0025</v>
       </c>
       <c r="I8" s="27" t="inlineStr">
@@ -1352,14 +1349,10 @@
           <t>m3</t>
         </is>
       </c>
-      <c r="J8" s="59" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="61" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="J8" s="67" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K8" s="71" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="14" t="inlineStr">
@@ -1367,24 +1360,20 @@
           <t>Calibration repeatability</t>
         </is>
       </c>
-      <c r="C9" s="55" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D9" s="66" t="n">
+      <c r="D9" s="60" t="n">
         <v>0.001</v>
       </c>
-      <c r="E9" s="14" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="E9" s="57" t="n"/>
       <c r="G9" s="28" t="n"/>
       <c r="H9" s="29" t="n"/>
       <c r="I9" s="30" t="n"/>
       <c r="J9" s="29" t="n"/>
-      <c r="K9" s="38" t="n"/>
+      <c r="K9" s="68" t="n"/>
       <c r="L9" s="26" t="n"/>
     </row>
     <row r="10">
@@ -1393,41 +1382,33 @@
           <t>Field repeatability</t>
         </is>
       </c>
-      <c r="C10" s="35" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D10" s="66" t="n">
+      <c r="D10" s="61" t="n">
         <v>0.0045</v>
       </c>
-      <c r="E10" s="16" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="E10" s="58" t="n"/>
       <c r="I10" s="26" t="n"/>
       <c r="K10" s="26" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="43" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>Field condition</t>
         </is>
       </c>
-      <c r="C11" s="55" t="inlineStr">
+      <c r="C11" s="14" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="D11" s="66" t="n">
+      <c r="D11" s="60" t="n">
         <v>0.005</v>
       </c>
-      <c r="E11" s="14" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="E11" s="57" t="n"/>
       <c r="G11" s="23" t="inlineStr">
         <is>
           <t>Table 3: Sensor accuracy</t>
@@ -1438,32 +1419,28 @@
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="I11" s="31" t="n"/>
+      <c r="I11" s="62" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="44" t="inlineStr">
+      <c r="B12" s="40" t="inlineStr">
         <is>
           <t>Misc</t>
         </is>
       </c>
-      <c r="C12" s="45" t="n"/>
-      <c r="D12" s="46" t="n"/>
-      <c r="E12" s="33" t="n"/>
+      <c r="C12" s="41" t="n"/>
+      <c r="D12" s="56" t="n"/>
+      <c r="E12" s="59" t="n"/>
       <c r="G12" s="24" t="inlineStr">
         <is>
           <t>Temperature sensor</t>
         </is>
       </c>
-      <c r="H12" s="65" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I12" s="62" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="H12" s="72" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I12" s="63" t="n"/>
       <c r="K12" s="20" t="n"/>
     </row>
     <row r="13">
@@ -1477,25 +1454,21 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="D13" s="36" t="inlineStr">
+      <c r="D13" s="34" t="inlineStr">
         <is>
           <t>Not implemented yet</t>
         </is>
       </c>
-      <c r="E13" s="34" t="n"/>
+      <c r="E13" s="33" t="n"/>
       <c r="G13" s="25" t="inlineStr">
         <is>
           <t>Pressure sensor</t>
         </is>
       </c>
-      <c r="H13" s="65" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I13" s="63" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="H13" s="73" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="64" t="n"/>
       <c r="K13" s="21" t="n"/>
     </row>
     <row r="14">
@@ -1509,12 +1482,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="D14" s="56" t="inlineStr">
+      <c r="D14" s="48" t="inlineStr">
         <is>
           <t>Not implemented yet</t>
         </is>
       </c>
       <c r="E14" s="26" t="n"/>
+      <c r="I14" s="26" t="n"/>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
@@ -1556,8 +1530,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D25"/>
+    <sheetView zoomScale="83" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1568,17 +1542,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customHeight="1">
-      <c r="A1" s="64" t="inlineStr">
+      <c r="A1" s="50" t="inlineStr">
         <is>
           <t>k=1</t>
         </is>
       </c>
-      <c r="B1" s="64" t="inlineStr">
+      <c r="B1" s="50" t="inlineStr">
         <is>
           <t># All uncertainty values given in relative uncertainty [%]</t>
         </is>
       </c>
-      <c r="C1" s="64" t="n"/>
+      <c r="C1" s="50" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -1601,257 +1575,257 @@
       <c r="B3" s="4" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="C3" s="70" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="D3" s="70" t="n">
-        <v>0.0031</v>
+      <c r="C3" s="78" t="n">
+        <v>0.1368473602229871</v>
+      </c>
+      <c r="D3" s="78" t="n">
+        <v>0.1368473602229871</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="C4" s="70" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="D4" s="70" t="n">
-        <v>0.0026</v>
+      <c r="C4" s="78" t="n">
+        <v>0.06702698462100209</v>
+      </c>
+      <c r="D4" s="78" t="n">
+        <v>0.06702698462100209</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C5" s="70" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="D5" s="70" t="n">
-        <v>0.0044</v>
+      <c r="C5" s="78" t="n">
+        <v>0.03472173131425242</v>
+      </c>
+      <c r="D5" s="78" t="n">
+        <v>0.03472173131425242</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6" s="70" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="D6" s="70" t="n">
-        <v>0.0014</v>
+      <c r="C6" s="78" t="n">
+        <v>0.0238827305915006</v>
+      </c>
+      <c r="D6" s="78" t="n">
+        <v>0.0238827305915006</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="C7" s="70" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="D7" s="70" t="n">
-        <v>0.0052</v>
+      <c r="C7" s="78" t="n">
+        <v>0.01841029301474827</v>
+      </c>
+      <c r="D7" s="78" t="n">
+        <v>0.01841029301474827</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="4" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="C8" s="70" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="D8" s="70" t="n">
-        <v>0.0023</v>
+      <c r="C8" s="78" t="n">
+        <v>0.01508448069639574</v>
+      </c>
+      <c r="D8" s="78" t="n">
+        <v>0.01508448069639574</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="70" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="D9" s="70" t="n">
-        <v>0.0013</v>
+      <c r="C9" s="78" t="n">
+        <v>0.01283198100724311</v>
+      </c>
+      <c r="D9" s="78" t="n">
+        <v>0.01283198100724311</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="C10" s="70" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="D10" s="70" t="n">
-        <v>0.0058</v>
+      <c r="C10" s="78" t="n">
+        <v>0.01119280282049042</v>
+      </c>
+      <c r="D10" s="78" t="n">
+        <v>0.01119280282049042</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="C11" s="70" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="D11" s="70" t="n">
-        <v>0.0043</v>
+      <c r="C11" s="78" t="n">
+        <v>0.009936950572737704</v>
+      </c>
+      <c r="D11" s="78" t="n">
+        <v>0.009936950572737704</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="C12" s="70" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="D12" s="70" t="n">
-        <v>0.0036</v>
+      <c r="C12" s="78" t="n">
+        <v>0.008936648950984958</v>
+      </c>
+      <c r="D12" s="78" t="n">
+        <v>0.008936648950984958</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="4" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="C13" s="70" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="D13" s="70" t="n">
-        <v>0.0066</v>
+      <c r="C13" s="78" t="n">
+        <v>0.008115232767432191</v>
+      </c>
+      <c r="D13" s="78" t="n">
+        <v>0.008115232767432191</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="C14" s="70" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="D14" s="70" t="n">
-        <v>0.0017</v>
+      <c r="C14" s="78" t="n">
+        <v>0.007423915084388509</v>
+      </c>
+      <c r="D14" s="78" t="n">
+        <v>0.007423915084388509</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="70" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="D15" s="70" t="n">
-        <v>0.0019</v>
+      <c r="C15" s="78" t="n">
+        <v>0.006830171276726632</v>
+      </c>
+      <c r="D15" s="78" t="n">
+        <v>0.006830171276726632</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="4" t="n">
         <v>2.166666666666667</v>
       </c>
-      <c r="C16" s="70" t="n">
-        <v>0.0066</v>
-      </c>
-      <c r="D16" s="70" t="n">
-        <v>0.0064</v>
+      <c r="C16" s="78" t="n">
+        <v>0.006311484296281531</v>
+      </c>
+      <c r="D16" s="78" t="n">
+        <v>0.006311484296281531</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="4" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="C17" s="70" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="D17" s="70" t="n">
-        <v>0.0061</v>
+      <c r="C17" s="78" t="n">
+        <v>0.005851770537221041</v>
+      </c>
+      <c r="D17" s="78" t="n">
+        <v>0.005851770537221041</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="C18" s="70" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="D18" s="70" t="n">
-        <v>0.0041</v>
+      <c r="C18" s="78" t="n">
+        <v>0.005439235355268238</v>
+      </c>
+      <c r="D18" s="78" t="n">
+        <v>0.005439235355268238</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="C19" s="70" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="D19" s="70" t="n">
-        <v>0.001</v>
+      <c r="C19" s="78" t="n">
+        <v>0.005065032767215433</v>
+      </c>
+      <c r="D19" s="78" t="n">
+        <v>0.005065032767215433</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="4" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="C20" s="70" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="D20" s="70" t="n">
-        <v>0.0041</v>
+      <c r="C20" s="78" t="n">
+        <v>0.004722398197668507</v>
+      </c>
+      <c r="D20" s="78" t="n">
+        <v>0.004722398197668507</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C21" s="70" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="D21" s="70" t="n">
-        <v>0.0034</v>
+      <c r="C21" s="78" t="n">
+        <v>0.004406070310209812</v>
+      </c>
+      <c r="D21" s="78" t="n">
+        <v>0.004406070310209812</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="4" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="C22" s="70" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="D22" s="70" t="n">
-        <v>0.0037</v>
+      <c r="C22" s="78" t="n">
+        <v>0.004111895418193841</v>
+      </c>
+      <c r="D22" s="78" t="n">
+        <v>0.004111895418193841</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="4" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="C23" s="70" t="n">
-        <v>0.0066</v>
-      </c>
-      <c r="D23" s="70" t="n">
-        <v>0.0053</v>
+      <c r="C23" s="78" t="n">
+        <v>0.003836550572304185</v>
+      </c>
+      <c r="D23" s="78" t="n">
+        <v>0.003836550572304185</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="4" t="n">
         <v>3.5</v>
       </c>
-      <c r="C24" s="70" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="D24" s="70" t="n">
-        <v>0.0021</v>
+      <c r="C24" s="78" t="n">
+        <v>0.003577345765951368</v>
+      </c>
+      <c r="D24" s="78" t="n">
+        <v>0.003577345765951368</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="4" t="n">
         <v>3.6</v>
       </c>
-      <c r="C25" s="70" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="D25" s="70" t="n">
-        <v>0.0041</v>
+      <c r="C25" s="78" t="n">
+        <v>0.003428637565499677</v>
+      </c>
+      <c r="D25" s="78" t="n">
+        <v>0.003428637565499677</v>
       </c>
     </row>
     <row r="27">
-      <c r="G27" s="41" t="n"/>
+      <c r="G27" s="38" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1864,10 +1838,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1880,20 +1854,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.15" customHeight="1" thickBot="1">
-      <c r="A1" s="64" t="inlineStr">
+      <c r="A1" s="50" t="inlineStr">
         <is>
           <t>k=1</t>
         </is>
       </c>
-      <c r="B1" s="64" t="inlineStr">
+      <c r="B1" s="50" t="inlineStr">
         <is>
           <t># All uncertainty values given in relative uncertainty [%]</t>
         </is>
       </c>
-      <c r="C1" s="64" t="n"/>
+      <c r="C1" s="50" t="n"/>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>#TODO: fjern minste ledd - kod inn bruk minste kalibrasjonspunkt</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="B2" s="67" t="inlineStr">
+      <c r="B2" s="51" t="inlineStr">
         <is>
           <t>Flowrate [kg/min]</t>
         </is>
@@ -1913,330 +1892,431 @@
           <t>Calibration Reference u(cal,ref) [%]</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t># Bruk nullpunkts</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" s="68" t="n">
+      <c r="B3" s="52" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="C3" s="70" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="D3" s="70" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="E3" s="70" t="n">
-        <v>0.0016</v>
+      <c r="C3" s="78" t="n">
+        <v>0.1368473602229871</v>
+      </c>
+      <c r="D3" s="78" t="n">
+        <v>0.1368473602229871</v>
+      </c>
+      <c r="E3" s="78" t="n">
+        <v>0.1368473602229871</v>
+      </c>
+      <c r="H3">
+        <f>(0.024)/60</f>
+        <v/>
+      </c>
+      <c r="I3" s="55">
+        <f>($H$3/B3)</f>
+        <v/>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="68" t="n">
+      <c r="B4" s="52" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="C4" s="70" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="D4" s="70" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="E4" s="70" t="n">
-        <v>0.0073</v>
+      <c r="C4" s="78" t="n">
+        <v>0.06702698462100209</v>
+      </c>
+      <c r="D4" s="78" t="n">
+        <v>0.06702698462100209</v>
+      </c>
+      <c r="E4" s="78" t="n">
+        <v>0.06702698462100209</v>
+      </c>
+      <c r="I4" s="55">
+        <f>($H$3/B4)</f>
+        <v/>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="68" t="n">
+      <c r="B5" s="52" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C5" s="70" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="D5" s="70" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="E5" s="70" t="n">
-        <v>0.0049</v>
+      <c r="C5" s="78" t="n">
+        <v>0.03472173131425242</v>
+      </c>
+      <c r="D5" s="78" t="n">
+        <v>0.03472173131425242</v>
+      </c>
+      <c r="E5" s="78" t="n">
+        <v>0.03472173131425242</v>
+      </c>
+      <c r="I5" s="55">
+        <f>($H$3/B5)</f>
+        <v/>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="68" t="n">
+      <c r="B6" s="52" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6" s="70" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="D6" s="70" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="E6" s="70" t="n">
-        <v>0.0051</v>
+      <c r="C6" s="78" t="n">
+        <v>0.0238827305915006</v>
+      </c>
+      <c r="D6" s="78" t="n">
+        <v>0.0238827305915006</v>
+      </c>
+      <c r="E6" s="78" t="n">
+        <v>0.0238827305915006</v>
+      </c>
+      <c r="I6" s="55">
+        <f>($H$3/B6)</f>
+        <v/>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="68" t="n">
+      <c r="B7" s="52" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="C7" s="70" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="D7" s="70" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="E7" s="70" t="n">
-        <v>0.0045</v>
+      <c r="C7" s="78" t="n">
+        <v>0.01841029301474827</v>
+      </c>
+      <c r="D7" s="78" t="n">
+        <v>0.01841029301474827</v>
+      </c>
+      <c r="E7" s="78" t="n">
+        <v>0.01841029301474827</v>
+      </c>
+      <c r="I7" s="55">
+        <f>($H$3/B7)</f>
+        <v/>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="68" t="n">
+      <c r="B8" s="52" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="C8" s="70" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="D8" s="70" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="E8" s="70" t="n">
-        <v>0.0018</v>
+      <c r="C8" s="78" t="n">
+        <v>0.01508448069639574</v>
+      </c>
+      <c r="D8" s="78" t="n">
+        <v>0.01508448069639574</v>
+      </c>
+      <c r="E8" s="78" t="n">
+        <v>0.01508448069639574</v>
+      </c>
+      <c r="I8" s="55">
+        <f>($H$3/B8)</f>
+        <v/>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="68" t="n">
+      <c r="B9" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="70" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="D9" s="70" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="E9" s="70" t="n">
-        <v>0.0029</v>
+      <c r="C9" s="78" t="n">
+        <v>0.01283198100724311</v>
+      </c>
+      <c r="D9" s="78" t="n">
+        <v>0.01283198100724311</v>
+      </c>
+      <c r="E9" s="78" t="n">
+        <v>0.01283198100724311</v>
+      </c>
+      <c r="I9" s="55">
+        <f>($H$3/B9)</f>
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="68" t="n">
+      <c r="B10" s="52" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="C10" s="70" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="D10" s="70" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="E10" s="70" t="n">
-        <v>0.0061</v>
+      <c r="C10" s="78" t="n">
+        <v>0.01119280282049042</v>
+      </c>
+      <c r="D10" s="78" t="n">
+        <v>0.01119280282049042</v>
+      </c>
+      <c r="E10" s="78" t="n">
+        <v>0.01119280282049042</v>
+      </c>
+      <c r="I10" s="55">
+        <f>($H$3/B10)</f>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="68" t="n">
+      <c r="B11" s="52" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="C11" s="70" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="D11" s="70" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="E11" s="70" t="n">
-        <v>0.0024</v>
+      <c r="C11" s="78" t="n">
+        <v>0.009936950572737704</v>
+      </c>
+      <c r="D11" s="78" t="n">
+        <v>0.009936950572737704</v>
+      </c>
+      <c r="E11" s="78" t="n">
+        <v>0.009936950572737704</v>
+      </c>
+      <c r="I11" s="55">
+        <f>($H$3/B11)</f>
+        <v/>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="68" t="n">
+      <c r="B12" s="52" t="n">
         <v>1.5</v>
       </c>
-      <c r="C12" s="70" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="D12" s="70" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="E12" s="70" t="n">
-        <v>0.0046</v>
+      <c r="C12" s="78" t="n">
+        <v>0.008936648950984958</v>
+      </c>
+      <c r="D12" s="78" t="n">
+        <v>0.008936648950984958</v>
+      </c>
+      <c r="E12" s="78" t="n">
+        <v>0.008936648950984958</v>
+      </c>
+      <c r="I12" s="55">
+        <f>($H$3/B12)</f>
+        <v/>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="68" t="n">
+      <c r="B13" s="52" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="C13" s="70" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="D13" s="70" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="E13" s="70" t="n">
-        <v>0.0055</v>
+      <c r="C13" s="78" t="n">
+        <v>0.008115232767432191</v>
+      </c>
+      <c r="D13" s="78" t="n">
+        <v>0.008115232767432191</v>
+      </c>
+      <c r="E13" s="78" t="n">
+        <v>0.008115232767432191</v>
+      </c>
+      <c r="I13" s="55">
+        <f>($H$3/B13)</f>
+        <v/>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="68" t="n">
+      <c r="B14" s="52" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="C14" s="70" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="D14" s="70" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="E14" s="70" t="n">
-        <v>0.0019</v>
+      <c r="C14" s="78" t="n">
+        <v>0.007423915084388509</v>
+      </c>
+      <c r="D14" s="78" t="n">
+        <v>0.007423915084388509</v>
+      </c>
+      <c r="E14" s="78" t="n">
+        <v>0.007423915084388509</v>
+      </c>
+      <c r="I14" s="55">
+        <f>($H$3/B14)</f>
+        <v/>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="68" t="n">
+      <c r="B15" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="70" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="D15" s="70" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="E15" s="70" t="n">
-        <v>0.0071</v>
+      <c r="C15" s="78" t="n">
+        <v>0.006830171276726632</v>
+      </c>
+      <c r="D15" s="78" t="n">
+        <v>0.006830171276726632</v>
+      </c>
+      <c r="E15" s="78" t="n">
+        <v>0.006830171276726632</v>
+      </c>
+      <c r="I15" s="55">
+        <f>($H$3/B15)</f>
+        <v/>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="68" t="n">
+      <c r="B16" s="52" t="n">
         <v>2.166666666666667</v>
       </c>
-      <c r="C16" s="70" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="D16" s="70" t="n">
-        <v>0.0052</v>
-      </c>
-      <c r="E16" s="70" t="n">
-        <v>0.0043</v>
+      <c r="C16" s="78" t="n">
+        <v>0.006311484296281531</v>
+      </c>
+      <c r="D16" s="78" t="n">
+        <v>0.006311484296281531</v>
+      </c>
+      <c r="E16" s="78" t="n">
+        <v>0.006311484296281531</v>
+      </c>
+      <c r="I16" s="55">
+        <f>($H$3/B16)</f>
+        <v/>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="68" t="n">
+      <c r="B17" s="52" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="C17" s="70" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="D17" s="70" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="E17" s="70" t="n">
-        <v>0.0044</v>
+      <c r="C17" s="78" t="n">
+        <v>0.005851770537221041</v>
+      </c>
+      <c r="D17" s="78" t="n">
+        <v>0.005851770537221041</v>
+      </c>
+      <c r="E17" s="78" t="n">
+        <v>0.005851770537221041</v>
+      </c>
+      <c r="I17" s="55">
+        <f>($H$3/B17)</f>
+        <v/>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="68" t="n">
+      <c r="B18" s="52" t="n">
         <v>2.5</v>
       </c>
-      <c r="C18" s="70" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="D18" s="70" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="E18" s="70" t="n">
-        <v>0.0016</v>
+      <c r="C18" s="78" t="n">
+        <v>0.005439235355268238</v>
+      </c>
+      <c r="D18" s="78" t="n">
+        <v>0.005439235355268238</v>
+      </c>
+      <c r="E18" s="78" t="n">
+        <v>0.005439235355268238</v>
+      </c>
+      <c r="I18" s="55">
+        <f>($H$3/B18)</f>
+        <v/>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="68" t="n">
+      <c r="B19" s="52" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="C19" s="70" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="D19" s="70" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="E19" s="70" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="F19" s="69" t="n"/>
+      <c r="C19" s="78" t="n">
+        <v>0.005065032767215433</v>
+      </c>
+      <c r="D19" s="78" t="n">
+        <v>0.005065032767215433</v>
+      </c>
+      <c r="E19" s="78" t="n">
+        <v>0.005065032767215433</v>
+      </c>
+      <c r="F19" s="53" t="n"/>
+      <c r="I19" s="55">
+        <f>($H$3/B19)</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" s="68" t="n">
+      <c r="B20" s="52" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="C20" s="70" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="D20" s="70" t="n">
-        <v>0.0073</v>
-      </c>
-      <c r="E20" s="70" t="n">
-        <v>0.0046</v>
+      <c r="C20" s="78" t="n">
+        <v>0.004722398197668507</v>
+      </c>
+      <c r="D20" s="78" t="n">
+        <v>0.004722398197668507</v>
+      </c>
+      <c r="E20" s="78" t="n">
+        <v>0.004722398197668507</v>
+      </c>
+      <c r="I20" s="55">
+        <f>($H$3/B20)</f>
+        <v/>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="68" t="n">
+      <c r="B21" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="C21" s="70" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="D21" s="70" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="E21" s="70" t="n">
-        <v>0.0028</v>
+      <c r="C21" s="78" t="n">
+        <v>0.004406070310209812</v>
+      </c>
+      <c r="D21" s="78" t="n">
+        <v>0.004406070310209812</v>
+      </c>
+      <c r="E21" s="78" t="n">
+        <v>0.004406070310209812</v>
+      </c>
+      <c r="I21" s="55">
+        <f>($H$3/B21)</f>
+        <v/>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="68" t="n">
+      <c r="B22" s="52" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="C22" s="70" t="n">
-        <v>0.0052</v>
-      </c>
-      <c r="D22" s="70" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="E22" s="70" t="n">
-        <v>0.0043</v>
+      <c r="C22" s="78" t="n">
+        <v>0.004111895418193841</v>
+      </c>
+      <c r="D22" s="78" t="n">
+        <v>0.004111895418193841</v>
+      </c>
+      <c r="E22" s="78" t="n">
+        <v>0.004111895418193841</v>
+      </c>
+      <c r="I22" s="55">
+        <f>($H$3/B22)</f>
+        <v/>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="68" t="n">
+      <c r="B23" s="52" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="C23" s="70" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="D23" s="70" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="E23" s="70" t="n">
-        <v>0.0024</v>
+      <c r="C23" s="78" t="n">
+        <v>0.003836550572304185</v>
+      </c>
+      <c r="D23" s="78" t="n">
+        <v>0.003836550572304185</v>
+      </c>
+      <c r="E23" s="78" t="n">
+        <v>0.003836550572304185</v>
+      </c>
+      <c r="I23" s="55">
+        <f>($H$3/B23)</f>
+        <v/>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="68" t="n">
+      <c r="B24" s="52" t="n">
         <v>3.5</v>
       </c>
-      <c r="C24" s="70" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="D24" s="70" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="E24" s="70" t="n">
-        <v>0.0046</v>
+      <c r="C24" s="78" t="n">
+        <v>0.003577345765951368</v>
+      </c>
+      <c r="D24" s="78" t="n">
+        <v>0.003577345765951368</v>
+      </c>
+      <c r="E24" s="78" t="n">
+        <v>0.003577345765951368</v>
+      </c>
+      <c r="I24" s="55">
+        <f>($H$3/B24)</f>
+        <v/>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="68" t="n">
+      <c r="B25" s="52" t="n">
         <v>3.6</v>
       </c>
-      <c r="C25" s="70" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="D25" s="70" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="E25" s="70" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="F25" s="42" t="n"/>
+      <c r="C25" s="78" t="n">
+        <v>0.003428637565499677</v>
+      </c>
+      <c r="D25" s="78" t="n">
+        <v>0.003428637565499677</v>
+      </c>
+      <c r="E25" s="78" t="n">
+        <v>0.003428637565499677</v>
+      </c>
+      <c r="F25" s="39" t="n"/>
+      <c r="I25" s="55">
+        <f>($H$3/B25)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2250,9 +2330,2196 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.140625" customWidth="1" min="1" max="1"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="77" t="inlineStr">
+        <is>
+          <t>Flowrate [kg/min]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>0.6 - 0.1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>NPS:</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>kg/min</t>
+        </is>
+      </c>
+      <c r="L1" s="77" t="inlineStr">
+        <is>
+          <t>Flowrate [kg/min]</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>0.6 - 0.1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>NPS:</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="B2" s="78">
+        <f>($G2/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C2" s="78">
+        <f>($G2/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D2" s="78">
+        <f>($G2/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E2" s="78">
+        <f>($G2/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F2" s="78">
+        <f>($G2/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G2" s="78" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H2" s="76">
+        <f>($I2/A2)</f>
+        <v/>
+      </c>
+      <c r="I2" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J2" s="74" t="n"/>
+      <c r="L2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M2" s="78">
+        <f>($T2/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N2" s="78">
+        <f>($T2/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O2" s="78">
+        <f>($T2/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P2" s="78">
+        <f>($T2/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q2" s="78">
+        <f>($T2/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R2" s="78" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="S2" s="76">
+        <f>($I2/L2)</f>
+        <v/>
+      </c>
+      <c r="T2" s="79">
+        <f>R2+S2</f>
+        <v/>
+      </c>
+      <c r="V2" s="75" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="B3" s="78">
+        <f>($G3/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C3" s="78">
+        <f>($G3/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D3" s="78">
+        <f>($G3/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E3" s="78">
+        <f>($G3/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F3" s="78">
+        <f>($G3/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G3" s="78">
+        <f>(0.6 - (A3 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H3" s="76">
+        <f>($I3/A3)</f>
+        <v/>
+      </c>
+      <c r="I3" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="M3" s="78">
+        <f>($T3/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N3" s="78">
+        <f>($T3/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O3" s="78">
+        <f>($T3/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P3" s="78">
+        <f>($T3/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q3" s="78">
+        <f>($T3/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R3" s="78">
+        <f>(0.6 - (L3 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S3" s="76">
+        <f>($I3/L3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="79">
+        <f>R3+S3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="B4" s="78">
+        <f>($G4/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C4" s="78">
+        <f>($G4/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D4" s="78">
+        <f>($G4/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E4" s="78">
+        <f>($G4/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F4" s="78">
+        <f>($G4/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G4" s="78">
+        <f>(0.6 - (A4 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H4" s="76">
+        <f>($I4/A4)</f>
+        <v/>
+      </c>
+      <c r="I4" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4" s="78">
+        <f>($T4/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N4" s="78">
+        <f>($T4/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O4" s="78">
+        <f>($T4/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P4" s="78">
+        <f>($T4/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q4" s="78">
+        <f>($T4/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R4" s="78">
+        <f>(0.6 - (L4 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S4" s="76">
+        <f>($I4/L4)</f>
+        <v/>
+      </c>
+      <c r="T4" s="79">
+        <f>R4+S4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="78">
+        <f>($G5/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C5" s="78">
+        <f>($G5/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D5" s="78">
+        <f>($G5/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E5" s="78">
+        <f>($G5/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F5" s="78">
+        <f>($G5/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G5" s="78">
+        <f>(0.6 - (A5 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H5" s="76">
+        <f>($I5/A5)</f>
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="78">
+        <f>($T5/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N5" s="78">
+        <f>($T5/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O5" s="78">
+        <f>($T5/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P5" s="78">
+        <f>($T5/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="78">
+        <f>($T5/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R5" s="78">
+        <f>(0.6 - (L5 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S5" s="76">
+        <f>($I5/L5)</f>
+        <v/>
+      </c>
+      <c r="T5" s="79">
+        <f>R5+S5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="B6" s="78">
+        <f>($G6/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="78">
+        <f>($G6/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="78">
+        <f>($G6/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="78">
+        <f>($G6/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="78">
+        <f>($G6/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="78">
+        <f>(0.6 - (A6 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H6" s="76">
+        <f>($I6/A6)</f>
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6" s="78">
+        <f>($T6/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N6" s="78">
+        <f>($T6/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O6" s="78">
+        <f>($T6/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P6" s="78">
+        <f>($T6/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="78">
+        <f>($T6/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R6" s="78">
+        <f>(0.6 - (L6 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S6" s="76">
+        <f>($I6/L6)</f>
+        <v/>
+      </c>
+      <c r="T6" s="79">
+        <f>R6+S6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="B7" s="78">
+        <f>($G7/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C7" s="78">
+        <f>($G7/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D7" s="78">
+        <f>($G7/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E7" s="78">
+        <f>($G7/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F7" s="78">
+        <f>($G7/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G7" s="78">
+        <f>(0.6 - (A7 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H7" s="76">
+        <f>($I7/A7)</f>
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M7" s="78">
+        <f>($T7/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N7" s="78">
+        <f>($T7/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O7" s="78">
+        <f>($T7/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P7" s="78">
+        <f>($T7/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="78">
+        <f>($T7/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R7" s="78">
+        <f>(0.6 - (L7 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S7" s="76">
+        <f>($I7/L7)</f>
+        <v/>
+      </c>
+      <c r="T7" s="79">
+        <f>R7+S7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="78">
+        <f>($G8/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C8" s="78">
+        <f>($G8/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D8" s="78">
+        <f>($G8/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E8" s="78">
+        <f>($G8/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F8" s="78">
+        <f>($G8/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G8" s="78">
+        <f>(0.6 - (A8 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H8" s="76">
+        <f>($I8/A8)</f>
+        <v/>
+      </c>
+      <c r="I8" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="78">
+        <f>($T8/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N8" s="78">
+        <f>($T8/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O8" s="78">
+        <f>($T8/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P8" s="78">
+        <f>($T8/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="78">
+        <f>($T8/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R8" s="78">
+        <f>(0.6 - (L8 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S8" s="76">
+        <f>($I8/L8)</f>
+        <v/>
+      </c>
+      <c r="T8" s="79">
+        <f>R8+S8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="B9" s="78">
+        <f>($G9/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C9" s="78">
+        <f>($G9/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D9" s="78">
+        <f>($G9/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E9" s="78">
+        <f>($G9/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F9" s="78">
+        <f>($G9/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G9" s="78">
+        <f>(0.6 - (A9 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H9" s="76">
+        <f>($I9/A9)</f>
+        <v/>
+      </c>
+      <c r="I9" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="M9" s="78">
+        <f>($T9/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N9" s="78">
+        <f>($T9/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O9" s="78">
+        <f>($T9/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P9" s="78">
+        <f>($T9/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q9" s="78">
+        <f>($T9/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R9" s="78">
+        <f>(0.6 - (L9 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S9" s="76">
+        <f>($I9/L9)</f>
+        <v/>
+      </c>
+      <c r="T9" s="79">
+        <f>R9+S9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="B10" s="78">
+        <f>($G10/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C10" s="78">
+        <f>($G10/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D10" s="78">
+        <f>($G10/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E10" s="78">
+        <f>($G10/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F10" s="78">
+        <f>($G10/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G10" s="78">
+        <f>(0.6 - (A10 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H10" s="76">
+        <f>($I10/A10)</f>
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="M10" s="78">
+        <f>($T10/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N10" s="78">
+        <f>($T10/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O10" s="78">
+        <f>($T10/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P10" s="78">
+        <f>($T10/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q10" s="78">
+        <f>($T10/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R10" s="78">
+        <f>(0.6 - (L10 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S10" s="76">
+        <f>($I10/L10)</f>
+        <v/>
+      </c>
+      <c r="T10" s="79">
+        <f>R10+S10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B11" s="78">
+        <f>($G11/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C11" s="78">
+        <f>($G11/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D11" s="78">
+        <f>($G11/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E11" s="78">
+        <f>($G11/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F11" s="78">
+        <f>($G11/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G11" s="78">
+        <f>(0.6 - (A11 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H11" s="76">
+        <f>($I11/A11)</f>
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="78">
+        <f>($T11/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N11" s="78">
+        <f>($T11/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O11" s="78">
+        <f>($T11/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P11" s="78">
+        <f>($T11/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q11" s="78">
+        <f>($T11/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R11" s="78">
+        <f>(0.6 - (L11 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S11" s="76">
+        <f>($I11/L11)</f>
+        <v/>
+      </c>
+      <c r="T11" s="79">
+        <f>R11+S11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="B12" s="78">
+        <f>($G12/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C12" s="78">
+        <f>($G12/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D12" s="78">
+        <f>($G12/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E12" s="78">
+        <f>($G12/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F12" s="78">
+        <f>($G12/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G12" s="78">
+        <f>(0.6 - (A12 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H12" s="76">
+        <f>($I12/A12)</f>
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="M12" s="78">
+        <f>($T12/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N12" s="78">
+        <f>($T12/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O12" s="78">
+        <f>($T12/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P12" s="78">
+        <f>($T12/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q12" s="78">
+        <f>($T12/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R12" s="78">
+        <f>(0.6 - (L12 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S12" s="76">
+        <f>($I12/L12)</f>
+        <v/>
+      </c>
+      <c r="T12" s="79">
+        <f>R12+S12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="B13" s="78">
+        <f>($G13/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C13" s="78">
+        <f>($G13/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D13" s="78">
+        <f>($G13/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E13" s="78">
+        <f>($G13/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F13" s="78">
+        <f>($G13/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G13" s="78">
+        <f>(0.6 - (A13 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H13" s="76">
+        <f>($I13/A13)</f>
+        <v/>
+      </c>
+      <c r="I13" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="M13" s="78">
+        <f>($T13/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N13" s="78">
+        <f>($T13/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O13" s="78">
+        <f>($T13/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P13" s="78">
+        <f>($T13/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q13" s="78">
+        <f>($T13/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R13" s="78">
+        <f>(0.6 - (L13 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S13" s="76">
+        <f>($I13/L13)</f>
+        <v/>
+      </c>
+      <c r="T13" s="79">
+        <f>R13+S13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="78">
+        <f>($G14/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C14" s="78">
+        <f>($G14/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D14" s="78">
+        <f>($G14/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E14" s="78">
+        <f>($G14/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F14" s="78">
+        <f>($G14/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G14" s="78">
+        <f>(0.6 - (A14 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H14" s="76">
+        <f>($I14/A14)</f>
+        <v/>
+      </c>
+      <c r="I14" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" s="78">
+        <f>($T14/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N14" s="78">
+        <f>($T14/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O14" s="78">
+        <f>($T14/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P14" s="78">
+        <f>($T14/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="78">
+        <f>($T14/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R14" s="78">
+        <f>(0.6 - (L14 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S14" s="76">
+        <f>($I14/L14)</f>
+        <v/>
+      </c>
+      <c r="T14" s="79">
+        <f>R14+S14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="B15" s="78">
+        <f>($G15/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C15" s="78">
+        <f>($G15/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D15" s="78">
+        <f>($G15/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E15" s="78">
+        <f>($G15/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F15" s="78">
+        <f>($G15/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G15" s="78">
+        <f>(0.6 - (A15 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H15" s="76">
+        <f>($I15/A15)</f>
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="M15" s="78">
+        <f>($T15/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N15" s="78">
+        <f>($T15/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O15" s="78">
+        <f>($T15/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P15" s="78">
+        <f>($T15/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="78">
+        <f>($T15/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R15" s="78">
+        <f>(0.6 - (L15 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S15" s="76">
+        <f>($I15/L15)</f>
+        <v/>
+      </c>
+      <c r="T15" s="79">
+        <f>R15+S15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="B16" s="78">
+        <f>($G16/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C16" s="78">
+        <f>($G16/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D16" s="78">
+        <f>($G16/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E16" s="78">
+        <f>($G16/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F16" s="78">
+        <f>($G16/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G16" s="78">
+        <f>(0.6 - (A16 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H16" s="76">
+        <f>($I16/A16)</f>
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="M16" s="78">
+        <f>($T16/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N16" s="78">
+        <f>($T16/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O16" s="78">
+        <f>($T16/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P16" s="78">
+        <f>($T16/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="78">
+        <f>($T16/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R16" s="78">
+        <f>(0.6 - (L16 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S16" s="76">
+        <f>($I16/L16)</f>
+        <v/>
+      </c>
+      <c r="T16" s="79">
+        <f>R16+S16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="78">
+        <f>($G17/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C17" s="78">
+        <f>($G17/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D17" s="78">
+        <f>($G17/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E17" s="78">
+        <f>($G17/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F17" s="78">
+        <f>($G17/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G17" s="78">
+        <f>(0.6 - (A17 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H17" s="76">
+        <f>($I17/A17)</f>
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M17" s="78">
+        <f>($T17/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N17" s="78">
+        <f>($T17/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O17" s="78">
+        <f>($T17/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P17" s="78">
+        <f>($T17/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="78">
+        <f>($T17/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R17" s="78">
+        <f>(0.6 - (L17 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S17" s="76">
+        <f>($I17/L17)</f>
+        <v/>
+      </c>
+      <c r="T17" s="79">
+        <f>R17+S17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="B18" s="78">
+        <f>($G18/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C18" s="78">
+        <f>($G18/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D18" s="78">
+        <f>($G18/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E18" s="78">
+        <f>($G18/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F18" s="78">
+        <f>($G18/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G18" s="78">
+        <f>(0.6 - (A18 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H18" s="76">
+        <f>($I18/A18)</f>
+        <v/>
+      </c>
+      <c r="I18" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="M18" s="78">
+        <f>($T18/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N18" s="78">
+        <f>($T18/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O18" s="78">
+        <f>($T18/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P18" s="78">
+        <f>($T18/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q18" s="78">
+        <f>($T18/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R18" s="78">
+        <f>(0.6 - (L18 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S18" s="76">
+        <f>($I18/L18)</f>
+        <v/>
+      </c>
+      <c r="T18" s="79">
+        <f>R18+S18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="B19" s="78">
+        <f>($G19/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C19" s="78">
+        <f>($G19/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D19" s="78">
+        <f>($G19/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E19" s="78">
+        <f>($G19/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F19" s="78">
+        <f>($G19/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G19" s="78">
+        <f>(0.6 - (A19 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H19" s="76">
+        <f>($I19/A19)</f>
+        <v/>
+      </c>
+      <c r="I19" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="M19" s="78">
+        <f>($T19/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N19" s="78">
+        <f>($T19/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O19" s="78">
+        <f>($T19/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P19" s="78">
+        <f>($T19/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="78">
+        <f>($T19/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R19" s="78">
+        <f>(0.6 - (L19 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S19" s="76">
+        <f>($I19/L19)</f>
+        <v/>
+      </c>
+      <c r="T19" s="79">
+        <f>R19+S19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="78">
+        <f>($G20/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C20" s="78">
+        <f>($G20/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D20" s="78">
+        <f>($G20/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E20" s="78">
+        <f>($G20/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F20" s="78">
+        <f>($G20/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G20" s="78">
+        <f>(0.6 - (A20 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H20" s="76">
+        <f>($I20/A20)</f>
+        <v/>
+      </c>
+      <c r="I20" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" s="78">
+        <f>($T20/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N20" s="78">
+        <f>($T20/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O20" s="78">
+        <f>($T20/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P20" s="78">
+        <f>($T20/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="78">
+        <f>($T20/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R20" s="78">
+        <f>(0.6 - (L20 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S20" s="76">
+        <f>($I20/L20)</f>
+        <v/>
+      </c>
+      <c r="T20" s="79">
+        <f>R20+S20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="B21" s="78">
+        <f>($G21/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C21" s="78">
+        <f>($G21/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D21" s="78">
+        <f>($G21/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E21" s="78">
+        <f>($G21/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F21" s="78">
+        <f>($G21/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G21" s="78">
+        <f>(0.6 - (A21 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H21" s="76">
+        <f>($I21/A21)</f>
+        <v/>
+      </c>
+      <c r="I21" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L21" s="4" t="n">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="M21" s="78">
+        <f>($T21/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N21" s="78">
+        <f>($T21/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O21" s="78">
+        <f>($T21/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P21" s="78">
+        <f>($T21/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="78">
+        <f>($T21/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R21" s="78">
+        <f>(0.6 - (L21 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S21" s="76">
+        <f>($I21/L21)</f>
+        <v/>
+      </c>
+      <c r="T21" s="79">
+        <f>R21+S21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="B22" s="78">
+        <f>($G22/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C22" s="78">
+        <f>($G22/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D22" s="78">
+        <f>($G22/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E22" s="78">
+        <f>($G22/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F22" s="78">
+        <f>($G22/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G22" s="78">
+        <f>(0.6 - (A22 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H22" s="76">
+        <f>($I22/A22)</f>
+        <v/>
+      </c>
+      <c r="I22" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="M22" s="78">
+        <f>($T22/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N22" s="78">
+        <f>($T22/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O22" s="78">
+        <f>($T22/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P22" s="78">
+        <f>($T22/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="78">
+        <f>($T22/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R22" s="78">
+        <f>(0.6 - (L22 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S22" s="76">
+        <f>($I22/L22)</f>
+        <v/>
+      </c>
+      <c r="T22" s="79">
+        <f>R22+S22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B23" s="78">
+        <f>($G23/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C23" s="78">
+        <f>($G23/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D23" s="78">
+        <f>($G23/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E23" s="78">
+        <f>($G23/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F23" s="78">
+        <f>($G23/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G23" s="78">
+        <f>(0.6 - (A23 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H23" s="76">
+        <f>($I23/A23)</f>
+        <v/>
+      </c>
+      <c r="I23" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M23" s="78">
+        <f>($T23/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N23" s="78">
+        <f>($T23/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O23" s="78">
+        <f>($T23/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P23" s="78">
+        <f>($T23/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="78">
+        <f>($T23/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R23" s="78">
+        <f>(0.6 - (L23 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S23" s="76">
+        <f>($I23/L23)</f>
+        <v/>
+      </c>
+      <c r="T23" s="79">
+        <f>R23+S23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="B24" s="78">
+        <f>($G24/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="C24" s="78">
+        <f>($G24/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="D24" s="78">
+        <f>($G24/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="E24" s="78">
+        <f>($G24/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="F24" s="78">
+        <f>($G24/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="G24" s="78">
+        <f>(0.6 - (A24 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="H24" s="76">
+        <f>($I24/A24)</f>
+        <v/>
+      </c>
+      <c r="I24" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M24" s="78">
+        <f>($T24/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="N24" s="78">
+        <f>($T24/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="O24" s="78">
+        <f>($T24/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="P24" s="78">
+        <f>($T24/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="78">
+        <f>($T24/5)*SQRT(5)</f>
+        <v/>
+      </c>
+      <c r="R24" s="78">
+        <f>(0.6 - (L24 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+        <v/>
+      </c>
+      <c r="S24" s="76">
+        <f>($I24/L24)</f>
+        <v/>
+      </c>
+      <c r="T24" s="79">
+        <f>R24+S24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="76" t="n"/>
+      <c r="C25" s="76" t="n"/>
+      <c r="D25" s="76" t="n"/>
+      <c r="E25" s="76" t="n"/>
+      <c r="F25" s="76" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Flowrate [kg/min]</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Field Repeatability u(field,rept) [%]</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Field Condition u(field,cond) [%]</t>
+        </is>
+      </c>
+      <c r="G42" s="54" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H42" s="54" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="I42" s="54" t="n">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="B43" s="54" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="C43" s="54" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="G43" s="54" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H43" s="54" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="I43" s="54" t="n">
+        <v>0.0073</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="B44" s="54" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="C44" s="54" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="G44" s="54" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="H44" s="54" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="I44" s="54" t="n">
+        <v>0.0049</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="B45" s="54" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="C45" s="54" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="G45" s="54" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="H45" s="54" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="I45" s="54" t="n">
+        <v>0.0051</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B46" s="54" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="C46" s="54" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="G46" s="54" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="H46" s="54" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="I46" s="54" t="n">
+        <v>0.0045</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="B47" s="54" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="C47" s="54" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="G47" s="54" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="H47" s="54" t="n">
+        <v>0.0043</v>
+      </c>
+      <c r="I47" s="54" t="n">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="B48" s="54" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="C48" s="54" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="G48" s="54" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="H48" s="54" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="I48" s="54" t="n">
+        <v>0.0029</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" s="54" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="C49" s="54" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="G49" s="54" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="H49" s="54" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="I49" s="54" t="n">
+        <v>0.0061</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="B50" s="54" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="C50" s="54" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="G50" s="54" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="H50" s="54" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="I50" s="54" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="B51" s="54" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="C51" s="54" t="n">
+        <v>0.0043</v>
+      </c>
+      <c r="G51" s="54" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="H51" s="54" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="I51" s="54" t="n">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B52" s="54" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="C52" s="54" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="G52" s="54" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="H52" s="54" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="I52" s="54" t="n">
+        <v>0.0055</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="B53" s="54" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="C53" s="54" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="G53" s="54" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="H53" s="54" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="I53" s="54" t="n">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="B54" s="54" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="C54" s="54" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="G54" s="54" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="H54" s="54" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="I54" s="54" t="n">
+        <v>0.0071</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" s="54" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C55" s="54" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="G55" s="54" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="H55" s="54" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="I55" s="54" t="n">
+        <v>0.0043</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="B56" s="54" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="C56" s="54" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="G56" s="54" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="H56" s="54" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="I56" s="54" t="n">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="B57" s="54" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="C57" s="54" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="G57" s="54" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="H57" s="54" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="I57" s="54" t="n">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B58" s="54" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="C58" s="54" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="G58" s="54" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="H58" s="54" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="I58" s="54" t="n">
+        <v>0.0055</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="B59" s="54" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="C59" s="54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G59" s="54" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="H59" s="54" t="n">
+        <v>0.0073</v>
+      </c>
+      <c r="I59" s="54" t="n">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="B60" s="54" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="C60" s="54" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="G60" s="54" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="H60" s="54" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="I60" s="54" t="n">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" s="54" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="C61" s="54" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="G61" s="54" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="H61" s="54" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="I61" s="54" t="n">
+        <v>0.0043</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="B62" s="54" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="C62" s="54" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="G62" s="54" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="H62" s="54" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="I62" s="54" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="B63" s="54" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="C63" s="54" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="G63" s="54" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="H63" s="54" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="I63" s="54" t="n">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B64" s="54" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="C64" s="54" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="G64" s="54" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="H64" s="54" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="I64" s="54" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="B65" s="54" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="C65" s="54" t="n">
+        <v>0.0041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2263,7 +4530,7 @@
   </cols>
   <sheetData>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="B2" s="53" t="inlineStr">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Previous filling values</t>
         </is>
@@ -2280,15 +4547,15 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
-      <c r="B3" s="52" t="inlineStr">
+      <c r="B3" s="45" t="inlineStr">
         <is>
           <t>DensityAA</t>
         </is>
       </c>
-      <c r="C3" s="54" t="n">
+      <c r="C3" s="47" t="n">
         <v>300</v>
       </c>
-      <c r="D3" s="32" t="inlineStr">
+      <c r="D3" s="31" t="inlineStr">
         <is>
           <t>kg/m3</t>
         </is>
@@ -2299,7 +4566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2308,7 +4575,7 @@
   <dimension ref="J2:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="J3" sqref="J3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2376,7 +4643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2981,7 +5248,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="37" t="n"/>
+      <c r="A26" s="35" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_template/ConfigurationTemplate.xlsx
+++ b/excel_template/ConfigurationTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="942" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="942" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="HRS_config" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,8 +11,9 @@
     <sheet name="Calibration_uncertainty" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="temp_calc_sheet" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Write" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Todo" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Calibration_uncertainty (2)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Ark1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Todo" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Calibration_uncertainty (2)" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -21,11 +22,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000\ %"/>
     <numFmt numFmtId="166" formatCode="0.0\ %"/>
     <numFmt numFmtId="167" formatCode="0.000\ %"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -450,7 +452,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
@@ -465,8 +467,9 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -557,8 +560,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="14"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="14"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Kontrollcelle" xfId="1" builtinId="23"/>
     <cellStyle name="Uthevingsfarge1" xfId="2" builtinId="29"/>
@@ -573,6 +578,7 @@
     <cellStyle name="20 % – uthevingsfarge 5" xfId="11" builtinId="46"/>
     <cellStyle name="40 % – uthevingsfarge 5" xfId="12" builtinId="47"/>
     <cellStyle name="Prosent" xfId="13" builtinId="5"/>
+    <cellStyle name="Komma" xfId="14" builtinId="3"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1185,21 +1191,21 @@
   </sheetPr>
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView showGridLines="0" zoomScale="97" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col width="38.28515625" customWidth="1" min="2" max="2"/>
+    <col width="38.265625" customWidth="1" min="2" max="2"/>
     <col width="29" customWidth="1" min="4" max="4"/>
-    <col width="2.7109375" customWidth="1" min="5" max="5"/>
-    <col width="12.85546875" customWidth="1" min="6" max="6"/>
-    <col width="22.140625" customWidth="1" min="7" max="7"/>
-    <col width="10.7109375" customWidth="1" min="8" max="8"/>
-    <col width="6.28515625" customWidth="1" min="9" max="9"/>
+    <col width="2.73046875" customWidth="1" min="5" max="5"/>
+    <col width="12.86328125" customWidth="1" min="6" max="6"/>
+    <col width="22.1328125" customWidth="1" min="7" max="7"/>
+    <col width="10.73046875" customWidth="1" min="8" max="8"/>
+    <col width="6.265625" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="2.7109375" customWidth="1" min="11" max="11"/>
+    <col width="2.73046875" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="2" ht="15.75" customHeight="1" thickBot="1">
@@ -1273,14 +1279,10 @@
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="I6" s="49" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="I6" s="49" t="n"/>
       <c r="J6" s="65" t="inlineStr">
         <is>
           <t>Uncertainty</t>
@@ -1531,14 +1533,14 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D3" sqref="D3:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col width="25.5703125" customWidth="1" min="2" max="2"/>
-    <col width="39.42578125" customWidth="1" min="3" max="3"/>
-    <col width="39.140625" customWidth="1" min="4" max="4"/>
+    <col width="25.59765625" customWidth="1" min="2" max="2"/>
+    <col width="39.3984375" customWidth="1" min="3" max="3"/>
+    <col width="39.1328125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customHeight="1">
@@ -1576,10 +1578,10 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C3" s="78" t="n">
-        <v>0.1368473602229871</v>
+        <v>0.0138636214604987</v>
       </c>
       <c r="D3" s="78" t="n">
-        <v>0.1368473602229871</v>
+        <v>0.0138636214604987</v>
       </c>
     </row>
     <row r="4">
@@ -1587,10 +1589,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C4" s="78" t="n">
-        <v>0.06702698462100209</v>
+        <v>0.007994790015007761</v>
       </c>
       <c r="D4" s="78" t="n">
-        <v>0.06702698462100209</v>
+        <v>0.007994790015007761</v>
       </c>
     </row>
     <row r="5">
@@ -1598,10 +1600,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C5" s="78" t="n">
-        <v>0.03472173131425242</v>
+        <v>0.005205634011255193</v>
       </c>
       <c r="D5" s="78" t="n">
-        <v>0.03472173131425242</v>
+        <v>0.005205634011255193</v>
       </c>
     </row>
     <row r="6">
@@ -1609,10 +1611,10 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="78" t="n">
-        <v>0.0238827305915006</v>
+        <v>0.004205332389502446</v>
       </c>
       <c r="D6" s="78" t="n">
-        <v>0.0238827305915006</v>
+        <v>0.004205332389502446</v>
       </c>
     </row>
     <row r="7">
@@ -1620,10 +1622,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C7" s="78" t="n">
-        <v>0.01841029301474827</v>
+        <v>0.003652244363249656</v>
       </c>
       <c r="D7" s="78" t="n">
-        <v>0.01841029301474827</v>
+        <v>0.003652244363249656</v>
       </c>
     </row>
     <row r="8">
@@ -1631,10 +1633,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C8" s="78" t="n">
-        <v>0.01508448069639574</v>
+        <v>0.003278041775196851</v>
       </c>
       <c r="D8" s="78" t="n">
-        <v>0.01508448069639574</v>
+        <v>0.003278041775196851</v>
       </c>
     </row>
     <row r="9">
@@ -1642,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="78" t="n">
-        <v>0.01283198100724311</v>
+        <v>0.002993281906244036</v>
       </c>
       <c r="D9" s="78" t="n">
-        <v>0.01283198100724311</v>
+        <v>0.002993281906244036</v>
       </c>
     </row>
     <row r="10">
@@ -1653,10 +1655,10 @@
         <v>1.166666666666667</v>
       </c>
       <c r="C10" s="78" t="n">
-        <v>0.01119280282049042</v>
+        <v>0.002759632162491217</v>
       </c>
       <c r="D10" s="78" t="n">
-        <v>0.01119280282049042</v>
+        <v>0.002759632162491217</v>
       </c>
     </row>
     <row r="11">
@@ -1664,10 +1666,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="C11" s="78" t="n">
-        <v>0.009936950572737704</v>
+        <v>0.002557926246988396</v>
       </c>
       <c r="D11" s="78" t="n">
-        <v>0.009936950572737704</v>
+        <v>0.002557926246988396</v>
       </c>
     </row>
     <row r="12">
@@ -1675,10 +1677,10 @@
         <v>1.5</v>
       </c>
       <c r="C12" s="78" t="n">
-        <v>0.008936648950984958</v>
+        <v>0.002377516216985572</v>
       </c>
       <c r="D12" s="78" t="n">
-        <v>0.008936648950984958</v>
+        <v>0.002377516216985572</v>
       </c>
     </row>
     <row r="13">
@@ -1686,10 +1688,10 @@
         <v>1.666666666666667</v>
       </c>
       <c r="C13" s="78" t="n">
-        <v>0.008115232767432191</v>
+        <v>0.002212013306832746</v>
       </c>
       <c r="D13" s="78" t="n">
-        <v>0.008115232767432191</v>
+        <v>0.002212013306832746</v>
       </c>
     </row>
     <row r="14">
@@ -1697,10 +1699,10 @@
         <v>1.833333333333333</v>
       </c>
       <c r="C14" s="78" t="n">
-        <v>0.007423915084388509</v>
+        <v>0.002057351938389012</v>
       </c>
       <c r="D14" s="78" t="n">
-        <v>0.007423915084388509</v>
+        <v>0.002057351938389012</v>
       </c>
     </row>
     <row r="15">
@@ -1708,10 +1710,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="78" t="n">
-        <v>0.006830171276726632</v>
+        <v>0.001910821726227093</v>
       </c>
       <c r="D15" s="78" t="n">
-        <v>0.006830171276726632</v>
+        <v>0.001910821726227093</v>
       </c>
     </row>
     <row r="16">
@@ -1719,10 +1721,10 @@
         <v>2.166666666666667</v>
       </c>
       <c r="C16" s="78" t="n">
-        <v>0.006311484296281531</v>
+        <v>0.001770546249666573</v>
       </c>
       <c r="D16" s="78" t="n">
-        <v>0.006311484296281531</v>
+        <v>0.001770546249666573</v>
       </c>
     </row>
     <row r="17">
@@ -1730,10 +1732,10 @@
         <v>2.333333333333333</v>
       </c>
       <c r="C17" s="78" t="n">
-        <v>0.005851770537221041</v>
+        <v>0.001635185208221437</v>
       </c>
       <c r="D17" s="78" t="n">
-        <v>0.005851770537221041</v>
+        <v>0.001635185208221437</v>
       </c>
     </row>
     <row r="18">
@@ -1741,10 +1743,10 @@
         <v>2.5</v>
       </c>
       <c r="C18" s="78" t="n">
-        <v>0.005439235355268238</v>
+        <v>0.001503755714868608</v>
       </c>
       <c r="D18" s="78" t="n">
-        <v>0.005439235355268238</v>
+        <v>0.001503755714868608</v>
       </c>
     </row>
     <row r="19">
@@ -1752,10 +1754,10 @@
         <v>2.666666666666667</v>
       </c>
       <c r="C19" s="78" t="n">
-        <v>0.005065032767215433</v>
+        <v>0.00137552060434078</v>
       </c>
       <c r="D19" s="78" t="n">
-        <v>0.005065032767215433</v>
+        <v>0.00137552060434078</v>
       </c>
     </row>
     <row r="20">
@@ -1763,10 +1765,10 @@
         <v>2.833333333333333</v>
       </c>
       <c r="C20" s="78" t="n">
-        <v>0.004722398197668507</v>
+        <v>0.001249916162021774</v>
       </c>
       <c r="D20" s="78" t="n">
-        <v>0.004722398197668507</v>
+        <v>0.001249916162021774</v>
       </c>
     </row>
     <row r="21">
@@ -1774,10 +1776,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="78" t="n">
-        <v>0.004406070310209812</v>
+        <v>0.001126503943210122</v>
       </c>
       <c r="D21" s="78" t="n">
-        <v>0.004406070310209812</v>
+        <v>0.001126503943210122</v>
       </c>
     </row>
     <row r="22">
@@ -1785,10 +1787,10 @@
         <v>3.166666666666667</v>
       </c>
       <c r="C22" s="78" t="n">
-        <v>0.004111895418193841</v>
+        <v>0.001004937807352029</v>
       </c>
       <c r="D22" s="78" t="n">
-        <v>0.004111895418193841</v>
+        <v>0.001004937807352029</v>
       </c>
     </row>
     <row r="23">
@@ -1796,10 +1798,10 @@
         <v>3.333333333333333</v>
       </c>
       <c r="C23" s="78" t="n">
-        <v>0.003836550572304185</v>
+        <v>0.0008849408420044625</v>
       </c>
       <c r="D23" s="78" t="n">
-        <v>0.003836550572304185</v>
+        <v>0.0008849408420044625</v>
       </c>
     </row>
     <row r="24">
@@ -1807,10 +1809,10 @@
         <v>3.5</v>
       </c>
       <c r="C24" s="78" t="n">
-        <v>0.003577345765951368</v>
+        <v>0.0007662888799516326</v>
       </c>
       <c r="D24" s="78" t="n">
-        <v>0.003577345765951368</v>
+        <v>0.0007662888799516326</v>
       </c>
     </row>
     <row r="25">
@@ -1818,10 +1820,10 @@
         <v>3.6</v>
       </c>
       <c r="C25" s="78" t="n">
-        <v>0.003428637565499677</v>
+        <v>0.0006956655929999346</v>
       </c>
       <c r="D25" s="78" t="n">
-        <v>0.003428637565499677</v>
+        <v>0.0006956655929999346</v>
       </c>
     </row>
     <row r="27">
@@ -1841,15 +1843,15 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="E3" sqref="E3:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col width="11.42578125" customWidth="1" min="1" max="1"/>
-    <col width="24.7109375" customWidth="1" min="2" max="2"/>
-    <col width="30.28515625" customWidth="1" min="3" max="3"/>
-    <col width="41.5703125" customWidth="1" min="4" max="4"/>
+    <col width="11.3984375" customWidth="1" min="1" max="1"/>
+    <col width="24.73046875" customWidth="1" min="2" max="2"/>
+    <col width="30.265625" customWidth="1" min="3" max="3"/>
+    <col width="41.59765625" customWidth="1" min="4" max="4"/>
     <col width="38" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -1903,13 +1905,13 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C3" s="78" t="n">
-        <v>0.1368473602229871</v>
+        <v>0.0138636214604987</v>
       </c>
       <c r="D3" s="78" t="n">
-        <v>0.1368473602229871</v>
+        <v>0.0138636214604987</v>
       </c>
       <c r="E3" s="78" t="n">
-        <v>0.1368473602229871</v>
+        <v>0.0138636214604987</v>
       </c>
       <c r="H3">
         <f>(0.024)/60</f>
@@ -1925,13 +1927,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="C4" s="78" t="n">
-        <v>0.06702698462100209</v>
+        <v>0.007994790015007761</v>
       </c>
       <c r="D4" s="78" t="n">
-        <v>0.06702698462100209</v>
+        <v>0.007994790015007761</v>
       </c>
       <c r="E4" s="78" t="n">
-        <v>0.06702698462100209</v>
+        <v>0.007994790015007761</v>
       </c>
       <c r="I4" s="55">
         <f>($H$3/B4)</f>
@@ -1943,13 +1945,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C5" s="78" t="n">
-        <v>0.03472173131425242</v>
+        <v>0.005205634011255193</v>
       </c>
       <c r="D5" s="78" t="n">
-        <v>0.03472173131425242</v>
+        <v>0.005205634011255193</v>
       </c>
       <c r="E5" s="78" t="n">
-        <v>0.03472173131425242</v>
+        <v>0.005205634011255193</v>
       </c>
       <c r="I5" s="55">
         <f>($H$3/B5)</f>
@@ -1961,13 +1963,13 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="78" t="n">
-        <v>0.0238827305915006</v>
+        <v>0.004205332389502446</v>
       </c>
       <c r="D6" s="78" t="n">
-        <v>0.0238827305915006</v>
+        <v>0.004205332389502446</v>
       </c>
       <c r="E6" s="78" t="n">
-        <v>0.0238827305915006</v>
+        <v>0.004205332389502446</v>
       </c>
       <c r="I6" s="55">
         <f>($H$3/B6)</f>
@@ -1979,13 +1981,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C7" s="78" t="n">
-        <v>0.01841029301474827</v>
+        <v>0.003652244363249656</v>
       </c>
       <c r="D7" s="78" t="n">
-        <v>0.01841029301474827</v>
+        <v>0.003652244363249656</v>
       </c>
       <c r="E7" s="78" t="n">
-        <v>0.01841029301474827</v>
+        <v>0.003652244363249656</v>
       </c>
       <c r="I7" s="55">
         <f>($H$3/B7)</f>
@@ -1997,13 +1999,13 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C8" s="78" t="n">
-        <v>0.01508448069639574</v>
+        <v>0.003278041775196851</v>
       </c>
       <c r="D8" s="78" t="n">
-        <v>0.01508448069639574</v>
+        <v>0.003278041775196851</v>
       </c>
       <c r="E8" s="78" t="n">
-        <v>0.01508448069639574</v>
+        <v>0.003278041775196851</v>
       </c>
       <c r="I8" s="55">
         <f>($H$3/B8)</f>
@@ -2015,13 +2017,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="78" t="n">
-        <v>0.01283198100724311</v>
+        <v>0.002993281906244036</v>
       </c>
       <c r="D9" s="78" t="n">
-        <v>0.01283198100724311</v>
+        <v>0.002993281906244036</v>
       </c>
       <c r="E9" s="78" t="n">
-        <v>0.01283198100724311</v>
+        <v>0.002993281906244036</v>
       </c>
       <c r="I9" s="55">
         <f>($H$3/B9)</f>
@@ -2033,13 +2035,13 @@
         <v>1.166666666666667</v>
       </c>
       <c r="C10" s="78" t="n">
-        <v>0.01119280282049042</v>
+        <v>0.002759632162491217</v>
       </c>
       <c r="D10" s="78" t="n">
-        <v>0.01119280282049042</v>
+        <v>0.002759632162491217</v>
       </c>
       <c r="E10" s="78" t="n">
-        <v>0.01119280282049042</v>
+        <v>0.002759632162491217</v>
       </c>
       <c r="I10" s="55">
         <f>($H$3/B10)</f>
@@ -2051,13 +2053,13 @@
         <v>1.333333333333333</v>
       </c>
       <c r="C11" s="78" t="n">
-        <v>0.009936950572737704</v>
+        <v>0.002557926246988396</v>
       </c>
       <c r="D11" s="78" t="n">
-        <v>0.009936950572737704</v>
+        <v>0.002557926246988396</v>
       </c>
       <c r="E11" s="78" t="n">
-        <v>0.009936950572737704</v>
+        <v>0.002557926246988396</v>
       </c>
       <c r="I11" s="55">
         <f>($H$3/B11)</f>
@@ -2069,13 +2071,13 @@
         <v>1.5</v>
       </c>
       <c r="C12" s="78" t="n">
-        <v>0.008936648950984958</v>
+        <v>0.002377516216985572</v>
       </c>
       <c r="D12" s="78" t="n">
-        <v>0.008936648950984958</v>
+        <v>0.002377516216985572</v>
       </c>
       <c r="E12" s="78" t="n">
-        <v>0.008936648950984958</v>
+        <v>0.002377516216985572</v>
       </c>
       <c r="I12" s="55">
         <f>($H$3/B12)</f>
@@ -2087,13 +2089,13 @@
         <v>1.666666666666667</v>
       </c>
       <c r="C13" s="78" t="n">
-        <v>0.008115232767432191</v>
+        <v>0.002212013306832746</v>
       </c>
       <c r="D13" s="78" t="n">
-        <v>0.008115232767432191</v>
+        <v>0.002212013306832746</v>
       </c>
       <c r="E13" s="78" t="n">
-        <v>0.008115232767432191</v>
+        <v>0.002212013306832746</v>
       </c>
       <c r="I13" s="55">
         <f>($H$3/B13)</f>
@@ -2105,13 +2107,13 @@
         <v>1.833333333333333</v>
       </c>
       <c r="C14" s="78" t="n">
-        <v>0.007423915084388509</v>
+        <v>0.002057351938389012</v>
       </c>
       <c r="D14" s="78" t="n">
-        <v>0.007423915084388509</v>
+        <v>0.002057351938389012</v>
       </c>
       <c r="E14" s="78" t="n">
-        <v>0.007423915084388509</v>
+        <v>0.002057351938389012</v>
       </c>
       <c r="I14" s="55">
         <f>($H$3/B14)</f>
@@ -2123,13 +2125,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="78" t="n">
-        <v>0.006830171276726632</v>
+        <v>0.001910821726227093</v>
       </c>
       <c r="D15" s="78" t="n">
-        <v>0.006830171276726632</v>
+        <v>0.001910821726227093</v>
       </c>
       <c r="E15" s="78" t="n">
-        <v>0.006830171276726632</v>
+        <v>0.001910821726227093</v>
       </c>
       <c r="I15" s="55">
         <f>($H$3/B15)</f>
@@ -2141,13 +2143,13 @@
         <v>2.166666666666667</v>
       </c>
       <c r="C16" s="78" t="n">
-        <v>0.006311484296281531</v>
+        <v>0.001770546249666573</v>
       </c>
       <c r="D16" s="78" t="n">
-        <v>0.006311484296281531</v>
+        <v>0.001770546249666573</v>
       </c>
       <c r="E16" s="78" t="n">
-        <v>0.006311484296281531</v>
+        <v>0.001770546249666573</v>
       </c>
       <c r="I16" s="55">
         <f>($H$3/B16)</f>
@@ -2159,13 +2161,13 @@
         <v>2.333333333333333</v>
       </c>
       <c r="C17" s="78" t="n">
-        <v>0.005851770537221041</v>
+        <v>0.001635185208221437</v>
       </c>
       <c r="D17" s="78" t="n">
-        <v>0.005851770537221041</v>
+        <v>0.001635185208221437</v>
       </c>
       <c r="E17" s="78" t="n">
-        <v>0.005851770537221041</v>
+        <v>0.001635185208221437</v>
       </c>
       <c r="I17" s="55">
         <f>($H$3/B17)</f>
@@ -2177,13 +2179,13 @@
         <v>2.5</v>
       </c>
       <c r="C18" s="78" t="n">
-        <v>0.005439235355268238</v>
+        <v>0.001503755714868608</v>
       </c>
       <c r="D18" s="78" t="n">
-        <v>0.005439235355268238</v>
+        <v>0.001503755714868608</v>
       </c>
       <c r="E18" s="78" t="n">
-        <v>0.005439235355268238</v>
+        <v>0.001503755714868608</v>
       </c>
       <c r="I18" s="55">
         <f>($H$3/B18)</f>
@@ -2195,13 +2197,13 @@
         <v>2.666666666666667</v>
       </c>
       <c r="C19" s="78" t="n">
-        <v>0.005065032767215433</v>
+        <v>0.00137552060434078</v>
       </c>
       <c r="D19" s="78" t="n">
-        <v>0.005065032767215433</v>
+        <v>0.00137552060434078</v>
       </c>
       <c r="E19" s="78" t="n">
-        <v>0.005065032767215433</v>
+        <v>0.00137552060434078</v>
       </c>
       <c r="F19" s="53" t="n"/>
       <c r="I19" s="55">
@@ -2214,13 +2216,13 @@
         <v>2.833333333333333</v>
       </c>
       <c r="C20" s="78" t="n">
-        <v>0.004722398197668507</v>
+        <v>0.001249916162021774</v>
       </c>
       <c r="D20" s="78" t="n">
-        <v>0.004722398197668507</v>
+        <v>0.001249916162021774</v>
       </c>
       <c r="E20" s="78" t="n">
-        <v>0.004722398197668507</v>
+        <v>0.001249916162021774</v>
       </c>
       <c r="I20" s="55">
         <f>($H$3/B20)</f>
@@ -2232,13 +2234,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="78" t="n">
-        <v>0.004406070310209812</v>
+        <v>0.001126503943210122</v>
       </c>
       <c r="D21" s="78" t="n">
-        <v>0.004406070310209812</v>
+        <v>0.001126503943210122</v>
       </c>
       <c r="E21" s="78" t="n">
-        <v>0.004406070310209812</v>
+        <v>0.001126503943210122</v>
       </c>
       <c r="I21" s="55">
         <f>($H$3/B21)</f>
@@ -2250,13 +2252,13 @@
         <v>3.166666666666667</v>
       </c>
       <c r="C22" s="78" t="n">
-        <v>0.004111895418193841</v>
+        <v>0.001004937807352029</v>
       </c>
       <c r="D22" s="78" t="n">
-        <v>0.004111895418193841</v>
+        <v>0.001004937807352029</v>
       </c>
       <c r="E22" s="78" t="n">
-        <v>0.004111895418193841</v>
+        <v>0.001004937807352029</v>
       </c>
       <c r="I22" s="55">
         <f>($H$3/B22)</f>
@@ -2268,13 +2270,13 @@
         <v>3.333333333333333</v>
       </c>
       <c r="C23" s="78" t="n">
-        <v>0.003836550572304185</v>
+        <v>0.0008849408420044625</v>
       </c>
       <c r="D23" s="78" t="n">
-        <v>0.003836550572304185</v>
+        <v>0.0008849408420044625</v>
       </c>
       <c r="E23" s="78" t="n">
-        <v>0.003836550572304185</v>
+        <v>0.0008849408420044625</v>
       </c>
       <c r="I23" s="55">
         <f>($H$3/B23)</f>
@@ -2286,13 +2288,13 @@
         <v>3.5</v>
       </c>
       <c r="C24" s="78" t="n">
-        <v>0.003577345765951368</v>
+        <v>0.0007662888799516326</v>
       </c>
       <c r="D24" s="78" t="n">
-        <v>0.003577345765951368</v>
+        <v>0.0007662888799516326</v>
       </c>
       <c r="E24" s="78" t="n">
-        <v>0.003577345765951368</v>
+        <v>0.0007662888799516326</v>
       </c>
       <c r="I24" s="55">
         <f>($H$3/B24)</f>
@@ -2304,13 +2306,13 @@
         <v>3.6</v>
       </c>
       <c r="C25" s="78" t="n">
-        <v>0.003428637565499677</v>
+        <v>0.0006956655929999346</v>
       </c>
       <c r="D25" s="78" t="n">
-        <v>0.003428637565499677</v>
+        <v>0.0006956655929999346</v>
       </c>
       <c r="E25" s="78" t="n">
-        <v>0.003428637565499677</v>
+        <v>0.0006956655929999346</v>
       </c>
       <c r="F25" s="39" t="n"/>
       <c r="I25" s="55">
@@ -2332,14 +2334,14 @@
   </sheetPr>
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView topLeftCell="G1" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col width="15.140625" customWidth="1" min="1" max="1"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="15.1328125" customWidth="1" min="1" max="1"/>
+    <col width="11.73046875" bestFit="1" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2358,6 +2360,9 @@
           <t>NPS:</t>
         </is>
       </c>
+      <c r="I1" t="n">
+        <v>0.002</v>
+      </c>
       <c r="J1" t="inlineStr">
         <is>
           <t>kg/min</t>
@@ -2421,7 +2426,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="J2" s="74" t="n"/>
       <c r="L2" s="4" t="n">
@@ -2493,7 +2498,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0.166666666666667</v>
@@ -2564,7 +2569,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0.3333333333333333</v>
@@ -2635,7 +2640,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0.5</v>
@@ -2706,7 +2711,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0.6666666666666666</v>
@@ -2777,7 +2782,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0.8333333333333334</v>
@@ -2848,7 +2853,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>1</v>
@@ -2919,7 +2924,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>1.166666666666667</v>
@@ -2990,7 +2995,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>1.333333333333333</v>
@@ -3061,7 +3066,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>1.5</v>
@@ -3132,7 +3137,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>1.666666666666667</v>
@@ -3203,7 +3208,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>1.833333333333333</v>
@@ -3274,7 +3279,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>2</v>
@@ -3345,7 +3350,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>2.166666666666667</v>
@@ -3416,7 +3421,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>2.333333333333333</v>
@@ -3487,7 +3492,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>2.5</v>
@@ -3558,7 +3563,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>2.666666666666667</v>
@@ -3629,7 +3634,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>2.833333333333333</v>
@@ -3700,7 +3705,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>3</v>
@@ -3771,7 +3776,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>3.166666666666667</v>
@@ -3842,7 +3847,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>3.333333333333333</v>
@@ -3913,7 +3918,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>3.5</v>
@@ -3984,7 +3989,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>3.6</v>
@@ -4523,10 +4528,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col width="29.140625" customWidth="1" min="2" max="2"/>
-    <col width="12.42578125" customWidth="1" min="3" max="3"/>
+    <col width="29.1328125" customWidth="1" min="2" max="2"/>
+    <col width="12.3984375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="2" ht="17.25" customHeight="1">
@@ -4567,6 +4572,349 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="105" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="17.06640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12.796875" customWidth="1" min="3" max="3"/>
+    <col width="16.796875" customWidth="1" min="4" max="4"/>
+    <col width="11.73046875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="13.73046875" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Contribution</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Vent volume</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="D3" s="74" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E3">
+        <f>(C3*D3)/100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dead volume</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="D4" s="74" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E4">
+        <f>(C4*D4)/100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pre_pres</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="D5" s="74" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
+        <f>(C5*D5)/100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>post_pres</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="D6" s="74" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E6">
+        <f>(C6*D6)/100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pre_temp</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>233.15</v>
+      </c>
+      <c r="D7" s="74" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <f>(C7*D7)/100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>post_temp</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>273.15</v>
+      </c>
+      <c r="D8" s="74" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E8">
+        <f>(C8*D8)/100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8.314</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pre_n_dv</t>
+        </is>
+      </c>
+      <c r="C10">
+        <f>(C5*C4)/(C9*C7)</f>
+        <v/>
+      </c>
+      <c r="D10" s="85">
+        <f>SQRT(((C4/(C9*C7))*E5)^2+((C5/(C9*C7))*E4)^2+((C5*C4/(C9*C7^2))*E7)^2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>post_n_dv</t>
+        </is>
+      </c>
+      <c r="C11">
+        <f>(C6*C4)/(C9*C8)</f>
+        <v/>
+      </c>
+      <c r="D11" s="85">
+        <f>SQRT((C4/(C9*C8)*E6)^2+((C6/(C9*C8))*E4)^2+(C6*C4/(C9*C8^2)*E8)^2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pre_n_vv</t>
+        </is>
+      </c>
+      <c r="C12">
+        <f>(C5*C3)/(C9*C7)</f>
+        <v/>
+      </c>
+      <c r="D12">
+        <f>SQRT(((C3/(C9*C7))*E5)^2+((C5/(C9*C7))*E3)^2+((C5*C3/(C9*C7^2))*E7)^2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>post_n_vv</t>
+        </is>
+      </c>
+      <c r="C13">
+        <f>(C6*C3)/(C9*C8)</f>
+        <v/>
+      </c>
+      <c r="D13">
+        <f>SQRT(((C3/(C9*C8))*E6)^2+((C6/(C9*C8))*E3)^2+((C6*C3/(C9*C8^2))*E8)^2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>molar m</t>
+        </is>
+      </c>
+      <c r="C14">
+        <f>2.01568*10^(-3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DV</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VV</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Unc dv</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Unc vv</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pre_density = </t>
+        </is>
+      </c>
+      <c r="B17">
+        <f>(C10*C14)/C4</f>
+        <v/>
+      </c>
+      <c r="C17">
+        <f>C12*C14/C3</f>
+        <v/>
+      </c>
+      <c r="D17">
+        <f>SQRT(((C14/C4)*D10)^2+(C14*C10/(C4^2)*E4)^2)</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>SQRT(((C14/C3)*D12)^2+(C14*C12/(C3^2)*E3)^2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Post density</t>
+        </is>
+      </c>
+      <c r="B18">
+        <f>C11*C14/C4</f>
+        <v/>
+      </c>
+      <c r="C18">
+        <f>C14*C13/C3</f>
+        <v/>
+      </c>
+      <c r="D18">
+        <f>SQRT(((C14/C4)*D11)^2+(C14*C11/(C4^2)*E4)^2)</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>SQRT(((C14/C3)*D13)^2+(C14*C13/(C3^2)*E3)^2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ABS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dead volume mass </t>
+        </is>
+      </c>
+      <c r="C21">
+        <f>C4*(B18-B17)</f>
+        <v/>
+      </c>
+      <c r="D21">
+        <f>SQRT(((B18-B17)*E3)^2+((C4*D17)^2)+(C4*D18)^2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Vented volume mass</t>
+        </is>
+      </c>
+      <c r="C22">
+        <f>C3*C18</f>
+        <v/>
+      </c>
+      <c r="D22">
+        <f>SQRT((C18*E3)^2+(C3*E18)^2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Total: 0.016061448044936127, massefeil: 0.0056000000000000025</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4578,7 +4926,7 @@
       <selection activeCell="J3" sqref="J3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2">
       <c r="J2" t="inlineStr">
@@ -4643,7 +4991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4655,14 +5003,14 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col width="23.28515625" customWidth="1" min="1" max="1"/>
-    <col width="24.7109375" customWidth="1" min="2" max="2"/>
-    <col width="14.140625" customWidth="1" min="3" max="3"/>
-    <col width="27.42578125" customWidth="1" min="4" max="4"/>
-    <col width="30.85546875" customWidth="1" min="5" max="5"/>
-    <col width="27.5703125" customWidth="1" min="6" max="6"/>
+    <col width="23.265625" customWidth="1" min="1" max="1"/>
+    <col width="24.73046875" customWidth="1" min="2" max="2"/>
+    <col width="14.1328125" customWidth="1" min="3" max="3"/>
+    <col width="27.3984375" customWidth="1" min="4" max="4"/>
+    <col width="30.86328125" customWidth="1" min="5" max="5"/>
+    <col width="27.59765625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.15" customHeight="1" thickBot="1"/>

--- a/excel_template/ConfigurationTemplate.xlsx
+++ b/excel_template/ConfigurationTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\OneDrive\Dokumenter\Masterprosjekt\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C83F92-7659-4110-999E-1DB533F8770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB0E284-3CCF-4AE5-88EB-A48494FC7403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="942" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="942" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRS_config" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
   <si>
     <t>Table 1: HRS configuration</t>
   </si>
@@ -258,22 +258,95 @@
     <t>kg/min per C</t>
   </si>
   <si>
-    <t>TODO?</t>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Flowrate</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Rel</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Absolutt</t>
+  </si>
+  <si>
+    <t>referanse</t>
+  </si>
+  <si>
+    <t>Relativ =</t>
+  </si>
+  <si>
+    <t>Field Repeatability</t>
+  </si>
+  <si>
+    <t>Field Condition</t>
+  </si>
+  <si>
+    <t>Calibration Deviation</t>
+  </si>
+  <si>
+    <t>Calibration Repeatability</t>
+  </si>
+  <si>
+    <t>Calibration Reference</t>
+  </si>
+  <si>
+    <t>Zero point stability</t>
+  </si>
+  <si>
+    <t>Expected CFM accuracy</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Total expected relative uncertainty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000\ %"/>
     <numFmt numFmtId="166" formatCode="0.0\ %"/>
     <numFmt numFmtId="167" formatCode="0.000\ %"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000\ %"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,14 +377,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +471,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -579,6 +682,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -595,91 +746,118 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="12" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="15" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="12" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="12" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="12" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="14" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="20 % – uthevingsfarge 1" xfId="3" builtinId="30"/>
@@ -696,7 +874,379 @@
     <cellStyle name="Uthevingsfarge5" xfId="8" builtinId="45"/>
     <cellStyle name="Uthevingsfarge6" xfId="7" builtinId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000\ %"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000\ %"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000\ %"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000\ %"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000\ %"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000\ %"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000\ %"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000\ %"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -714,15 +1264,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>814162</xdr:colOff>
+      <xdr:colOff>111895</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>86852</xdr:rowOff>
+      <xdr:rowOff>94924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>839322</xdr:colOff>
+      <xdr:colOff>136085</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>54096</xdr:rowOff>
+      <xdr:rowOff>62168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -745,8 +1295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="814162" y="2896727"/>
-          <a:ext cx="7902335" cy="2319919"/>
+          <a:off x="111895" y="2879777"/>
+          <a:ext cx="7910568" cy="2275845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -756,6 +1306,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2F90262-5273-4938-B217-C6286A356B03}" name="Tabell1" displayName="Tabell1" ref="S1:U24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="S1:U24" xr:uid="{D2F90262-5273-4938-B217-C6286A356B03}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{467591BE-A187-4B7C-A3D7-557A999C109B}" name="Expected CFM accuracy" dataDxfId="11" dataCellStyle="Prosent">
+      <calculatedColumnFormula>(0.6 - (L2 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{DB4A46EF-A0CD-4D25-B1AD-34B2AC4A1712}" name="Zero point stability" dataDxfId="10" dataCellStyle="Prosent">
+      <calculatedColumnFormula>($I2/L2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{43C6B5F6-DDA8-4DE7-B21C-01F9FE9B71AC}" name="Total" dataDxfId="9">
+      <calculatedColumnFormula>S2+T2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0331E1F-B419-485C-B04B-2D74FC747EAD}" name="Tabell2" displayName="Tabell2" ref="L1:Q24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" dataCellStyle="Prosent">
+  <autoFilter ref="L1:Q24" xr:uid="{C0331E1F-B419-485C-B04B-2D74FC747EAD}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AF4EF68D-BDDD-43BC-9EE7-2E7F825380C6}" name="Flowrate [kg/min]" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F72910B2-B49E-4C15-A3CA-7B840878D0BB}" name="Field Repeatability" dataDxfId="4" dataCellStyle="Prosent">
+      <calculatedColumnFormula>($U2/5)*SQRT(5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{55579260-F124-4160-B7E2-EA208B13C3EE}" name="Field Condition" dataDxfId="3" dataCellStyle="Prosent">
+      <calculatedColumnFormula>($U2/5)*SQRT(5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{21358EBB-760D-4417-9115-FB85C06F81A9}" name="Calibration Deviation" dataDxfId="2" dataCellStyle="Prosent">
+      <calculatedColumnFormula>($U2/5)*SQRT(5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4CEFEE3B-39FF-41AC-BC35-E959020BCFD3}" name="Calibration Repeatability" dataDxfId="1" dataCellStyle="Prosent">
+      <calculatedColumnFormula>($U2/5)*SQRT(5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3C7D3FA9-B6C4-4F73-9889-2C809A9AD0D9}" name="Calibration Reference" dataDxfId="0" dataCellStyle="Prosent">
+      <calculatedColumnFormula>($U2/5)*SQRT(5)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L19"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" zoomScale="59" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1086,7 +1690,7 @@
     <col min="2" max="2" width="38.265625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" customWidth="1"/>
+    <col min="6" max="6" width="4.53125" customWidth="1"/>
     <col min="7" max="7" width="22.1328125" customWidth="1"/>
     <col min="8" max="8" width="10.73046875" customWidth="1"/>
     <col min="9" max="9" width="6.265625" customWidth="1"/>
@@ -1095,253 +1699,335 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="2:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="44" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="48"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="39">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="G7" s="5" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="51">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="52">
         <v>0.02</v>
       </c>
-      <c r="K7" s="49"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="40">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="G8" s="17" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="57">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="58">
         <v>0.02</v>
       </c>
-      <c r="K8" s="50"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="39">
-        <v>1E-3</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="16"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="40">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="I10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="60">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="G11" s="13" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="65" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="67">
         <v>0.02</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="K12" s="10"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="40">
         <v>1</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="71">
         <v>0.02</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="K13" s="11"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="74">
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="40">
         <f>7.5*10^(-5)</f>
         <v>7.5000000000000007E-5</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G17" t="s">
+      <c r="F15" s="77"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G18" t="s">
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G19" t="s">
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39" t="s">
         <v>24</v>
       </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1360,7 +2046,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1371,280 +2057,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="2">
+      <c r="A3" s="39"/>
+      <c r="B3" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="26">
         <v>1.38636214604987E-2</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="26">
         <v>1.38636214604987E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="25">
         <v>0.16666666666666671</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="26">
         <v>7.9947900150077605E-3</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="26">
         <v>7.9947900150077605E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="26">
         <v>5.2056340112551927E-3</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="26">
         <v>5.2056340112551927E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="25">
         <v>0.5</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="26">
         <v>4.2053323895024459E-3</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="26">
         <v>4.2053323895024459E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="25">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="26">
         <v>3.6522443632496559E-3</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="26">
         <v>3.6522443632496559E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="25">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="26">
         <v>3.2780417751968509E-3</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="26">
         <v>3.2780417751968509E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="25">
         <v>1</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="26">
         <v>2.993281906244036E-3</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="26">
         <v>2.993281906244036E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="25">
         <v>1.166666666666667</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="26">
         <v>2.7596321624912168E-3</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="26">
         <v>2.7596321624912168E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="25">
         <v>1.333333333333333</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="26">
         <v>2.5579262469883962E-3</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="26">
         <v>2.5579262469883962E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="25">
         <v>1.5</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="26">
         <v>2.377516216985572E-3</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="26">
         <v>2.377516216985572E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="25">
         <v>1.666666666666667</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="26">
         <v>2.2120133068327459E-3</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="26">
         <v>2.2120133068327459E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="25">
         <v>1.833333333333333</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="26">
         <v>2.0573519383890121E-3</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="26">
         <v>2.0573519383890121E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="25">
         <v>2</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="26">
         <v>1.910821726227093E-3</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="26">
         <v>1.910821726227093E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="25">
         <v>2.166666666666667</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="26">
         <v>1.770546249666573E-3</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="26">
         <v>1.770546249666573E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="39"/>
+      <c r="B17" s="25">
         <v>2.333333333333333</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="26">
         <v>1.635185208221437E-3</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="26">
         <v>1.635185208221437E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="39"/>
+      <c r="B18" s="25">
         <v>2.5</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="26">
         <v>1.503755714868608E-3</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="26">
         <v>1.503755714868608E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="39"/>
+      <c r="B19" s="25">
         <v>2.666666666666667</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="26">
         <v>1.37552060434078E-3</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="26">
         <v>1.37552060434078E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="39"/>
+      <c r="B20" s="25">
         <v>2.833333333333333</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="26">
         <v>1.249916162021774E-3</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="26">
         <v>1.249916162021774E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="39"/>
+      <c r="B21" s="25">
         <v>3</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="26">
         <v>1.126503943210122E-3</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="26">
         <v>1.126503943210122E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="39"/>
+      <c r="B22" s="25">
         <v>3.166666666666667</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="26">
         <v>1.004937807352029E-3</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="26">
         <v>1.004937807352029E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="39"/>
+      <c r="B23" s="25">
         <v>3.333333333333333</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="26">
         <v>8.8494084200446254E-4</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="26">
         <v>8.8494084200446254E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="39"/>
+      <c r="B24" s="25">
         <v>3.5</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="26">
         <v>7.6628887995163256E-4</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="26">
         <v>7.6628887995163256E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="39"/>
+      <c r="B25" s="25">
         <v>3.6</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="26">
         <v>6.9566559299993457E-4</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="26">
         <v>6.9566559299993457E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G27" s="24"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1656,463 +2367,464 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="2" max="2" width="24.73046875" customWidth="1"/>
-    <col min="3" max="3" width="30.265625" customWidth="1"/>
-    <col min="4" max="4" width="41.59765625" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="24.73046875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="30.265625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="41.59765625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="38" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="11.3984375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="F1" t="s">
+      <c r="C1" s="78"/>
+      <c r="F1" s="39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="33">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="80">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="26">
         <v>1.38636214604987E-2</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="26">
         <v>1.38636214604987E-2</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="26">
         <v>1.38636214604987E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="39">
         <f>(0.024)/60</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="83">
         <f t="shared" ref="I3:I25" si="0">($H$3/B3)</f>
         <v>4.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="33">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="80">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="26">
         <v>7.9947900150077605E-3</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="26">
         <v>7.9947900150077605E-3</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="26">
         <v>7.9947900150077605E-3</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="83">
         <f t="shared" si="0"/>
         <v>2.3999999999999955E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="33">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="80">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="26">
         <v>5.2056340112551927E-3</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="26">
         <v>5.2056340112551927E-3</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="26">
         <v>5.2056340112551927E-3</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="83">
         <f t="shared" si="0"/>
         <v>1.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="33">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="80">
         <v>0.5</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="26">
         <v>4.2053323895024459E-3</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="26">
         <v>4.2053323895024459E-3</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="26">
         <v>4.2053323895024459E-3</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="83">
         <f t="shared" si="0"/>
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="33">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="80">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="26">
         <v>3.6522443632496559E-3</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="26">
         <v>3.6522443632496559E-3</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="26">
         <v>3.6522443632496559E-3</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="83">
         <f t="shared" si="0"/>
         <v>6.0000000000000006E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="33">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="80">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="26">
         <v>3.2780417751968509E-3</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="26">
         <v>3.2780417751968509E-3</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="26">
         <v>3.2780417751968509E-3</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="83">
         <f t="shared" si="0"/>
         <v>4.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="33">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="80">
         <v>1</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="26">
         <v>2.993281906244036E-3</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="26">
         <v>2.993281906244036E-3</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="26">
         <v>2.993281906244036E-3</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="83">
         <f t="shared" si="0"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="33">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="80">
         <v>1.166666666666667</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="26">
         <v>2.7596321624912168E-3</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="26">
         <v>2.7596321624912168E-3</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="26">
         <v>2.7596321624912168E-3</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="83">
         <f t="shared" si="0"/>
         <v>3.428571428571428E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="33">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="80">
         <v>1.333333333333333</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="26">
         <v>2.5579262469883962E-3</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="26">
         <v>2.5579262469883962E-3</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="26">
         <v>2.5579262469883962E-3</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="83">
         <f t="shared" si="0"/>
         <v>3.0000000000000008E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="33">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="80">
         <v>1.5</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="26">
         <v>2.377516216985572E-3</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="26">
         <v>2.377516216985572E-3</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="26">
         <v>2.377516216985572E-3</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="83">
         <f t="shared" si="0"/>
         <v>2.6666666666666668E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="33">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="80">
         <v>1.666666666666667</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="26">
         <v>2.2120133068327459E-3</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="26">
         <v>2.2120133068327459E-3</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="26">
         <v>2.2120133068327459E-3</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="83">
         <f t="shared" si="0"/>
         <v>2.3999999999999998E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="33">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="80">
         <v>1.833333333333333</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="26">
         <v>2.0573519383890121E-3</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="26">
         <v>2.0573519383890121E-3</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="26">
         <v>2.0573519383890121E-3</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="83">
         <f t="shared" si="0"/>
         <v>2.1818181818181824E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="33">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="80">
         <v>2</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="26">
         <v>1.910821726227093E-3</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="26">
         <v>1.910821726227093E-3</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="26">
         <v>1.910821726227093E-3</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="83">
         <f t="shared" si="0"/>
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="33">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="80">
         <v>2.166666666666667</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="26">
         <v>1.770546249666573E-3</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="26">
         <v>1.770546249666573E-3</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="26">
         <v>1.770546249666573E-3</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="83">
         <f t="shared" si="0"/>
         <v>1.8461538461538461E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="33">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="80">
         <v>2.333333333333333</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="26">
         <v>1.635185208221437E-3</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="26">
         <v>1.635185208221437E-3</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="26">
         <v>1.635185208221437E-3</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="83">
         <f t="shared" si="0"/>
         <v>1.7142857142857145E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="33">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="80">
         <v>2.5</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="26">
         <v>1.503755714868608E-3</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="26">
         <v>1.503755714868608E-3</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="26">
         <v>1.503755714868608E-3</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="83">
         <f t="shared" si="0"/>
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="33">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="80">
         <v>2.666666666666667</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="26">
         <v>1.37552060434078E-3</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="26">
         <v>1.37552060434078E-3</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="26">
         <v>1.37552060434078E-3</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="I19" s="36">
+      <c r="F19" s="81"/>
+      <c r="I19" s="83">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="33">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="80">
         <v>2.833333333333333</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="26">
         <v>1.249916162021774E-3</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="26">
         <v>1.249916162021774E-3</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="26">
         <v>1.249916162021774E-3</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="83">
         <f t="shared" si="0"/>
         <v>1.4117647058823531E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="33">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="80">
         <v>3</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="26">
         <v>1.126503943210122E-3</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="26">
         <v>1.126503943210122E-3</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="26">
         <v>1.126503943210122E-3</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="83">
         <f t="shared" si="0"/>
         <v>1.3333333333333334E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="33">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="80">
         <v>3.166666666666667</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="26">
         <v>1.004937807352029E-3</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="26">
         <v>1.004937807352029E-3</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="26">
         <v>1.004937807352029E-3</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="83">
         <f t="shared" si="0"/>
         <v>1.2631578947368421E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="33">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="80">
         <v>3.333333333333333</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="26">
         <v>8.8494084200446254E-4</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="26">
         <v>8.8494084200446254E-4</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="26">
         <v>8.8494084200446254E-4</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="83">
         <f t="shared" si="0"/>
         <v>1.2000000000000002E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B24" s="33">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="80">
         <v>3.5</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="26">
         <v>7.6628887995163256E-4</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="26">
         <v>7.6628887995163256E-4</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="26">
         <v>7.6628887995163256E-4</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="83">
         <f t="shared" si="0"/>
         <v>1.142857142857143E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="33">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="80">
         <v>3.6</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="26">
         <v>6.9566559299993457E-4</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="26">
         <v>6.9566559299993457E-4</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="26">
         <v>6.9566559299993457E-4</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="I25" s="36">
+      <c r="F25" s="82"/>
+      <c r="I25" s="83">
         <f t="shared" si="0"/>
         <v>1.1111111111111112E-4</v>
       </c>
@@ -2125,2177 +2837,2501 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" style="39" customWidth="1"/>
+    <col min="2" max="9" width="10.6640625" style="39"/>
+    <col min="10" max="10" width="11.73046875" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="39"/>
+    <col min="12" max="12" width="16.86328125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="15" style="39" customWidth="1"/>
+    <col min="15" max="15" width="19.73046875" style="39" customWidth="1"/>
+    <col min="16" max="16" width="22.796875" style="39" customWidth="1"/>
+    <col min="17" max="17" width="20.265625" style="39" customWidth="1"/>
+    <col min="18" max="18" width="10.86328125" style="39" customWidth="1"/>
+    <col min="19" max="19" width="19.46484375" style="39" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="39" customWidth="1"/>
+    <col min="21" max="21" width="11.73046875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="10.6640625" style="39"/>
+    <col min="28" max="28" width="15.6640625" style="39" customWidth="1"/>
+    <col min="29" max="29" width="21.3984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.3984375" style="39" customWidth="1"/>
+    <col min="31" max="31" width="29.9296875" style="39" customWidth="1"/>
+    <col min="32" max="16384" width="10.6640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="39">
         <v>2E-3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="M1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A2" s="25">
         <v>0.08</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="26">
         <f t="shared" ref="B2:F11" si="0">($G2/5)*SQRT(5)</f>
         <v>2.6832815729997479E-3</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="26">
         <f t="shared" si="0"/>
         <v>2.6832815729997479E-3</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="26">
         <f t="shared" si="0"/>
         <v>2.6832815729997479E-3</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="26">
         <f t="shared" si="0"/>
         <v>2.6832815729997479E-3</v>
       </c>
-      <c r="F2" s="57">
-        <f t="shared" si="0"/>
+      <c r="F2" s="26">
+        <f>($G2/5)*SQRT(5)</f>
         <v>2.6832815729997479E-3</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="84">
         <f t="shared" ref="H2:H24" si="1">($I2/A2)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="39">
         <v>2E-3</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="L2" s="2">
+      <c r="J2" s="85"/>
+      <c r="L2" s="25">
         <v>0.08</v>
       </c>
-      <c r="M2" s="57">
-        <f t="shared" ref="M2:Q11" si="2">($T2/5)*SQRT(5)</f>
+      <c r="M2" s="26">
+        <f t="shared" ref="M2:Q11" si="2">($U2/5)*SQRT(5)</f>
         <v>1.3863621460498696E-2</v>
       </c>
-      <c r="N2" s="57">
+      <c r="N2" s="26">
         <f t="shared" si="2"/>
         <v>1.3863621460498696E-2</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="26">
         <f t="shared" si="2"/>
         <v>1.3863621460498696E-2</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="26">
         <f t="shared" si="2"/>
         <v>1.3863621460498696E-2</v>
       </c>
-      <c r="Q2" s="57">
+      <c r="Q2" s="27">
         <f t="shared" si="2"/>
         <v>1.3863621460498696E-2</v>
       </c>
-      <c r="R2" s="57">
+      <c r="S2" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="S2" s="55">
-        <f t="shared" ref="S2:S24" si="3">($I2/L2)</f>
+      <c r="T2" s="26">
+        <f t="shared" ref="T2:T24" si="3">($I2/L2)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="T2" s="58">
-        <f t="shared" ref="T2:T24" si="4">R2+S2</f>
+      <c r="U2" s="35">
+        <f t="shared" ref="U2:U24" si="4">S2+T2</f>
         <v>3.1E-2</v>
       </c>
-      <c r="U2" s="55">
-        <f>SQRT(M2^2+N2^2+O2^2+P2^2+Q2^2)</f>
-        <v>3.1E-2</v>
-      </c>
-      <c r="V2" s="54"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
+      <c r="V2" s="86"/>
+      <c r="AB2" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2" s="94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A3" s="25">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="26">
         <f t="shared" si="0"/>
         <v>2.6282268690082755E-3</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="26">
         <f t="shared" si="0"/>
         <v>2.6282268690082755E-3</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="26">
         <f t="shared" si="0"/>
         <v>2.6282268690082755E-3</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="26">
         <f t="shared" si="0"/>
         <v>2.6282268690082755E-3</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="26">
         <f t="shared" si="0"/>
         <v>2.6282268690082755E-3</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="26">
         <f t="shared" ref="G3:G24" si="5">(0.6 - (A3 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
         <v>5.8768939393939387E-3</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="84">
         <f t="shared" si="1"/>
         <v>1.1999999999999978E-2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="25">
         <v>0.16666666666666699</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="26">
         <f t="shared" si="2"/>
         <v>7.9947900150077605E-3</v>
       </c>
-      <c r="N3" s="57">
+      <c r="N3" s="26">
         <f t="shared" si="2"/>
         <v>7.9947900150077605E-3</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="26">
         <f t="shared" si="2"/>
         <v>7.9947900150077605E-3</v>
       </c>
-      <c r="P3" s="57">
+      <c r="P3" s="26">
         <f t="shared" si="2"/>
         <v>7.9947900150077605E-3</v>
       </c>
-      <c r="Q3" s="57">
+      <c r="Q3" s="27">
         <f t="shared" si="2"/>
         <v>7.9947900150077605E-3</v>
       </c>
-      <c r="R3" s="57">
-        <f t="shared" ref="R3:R24" si="6">(0.6 - (L3 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
+      <c r="S3" s="34">
+        <f t="shared" ref="S3:S24" si="6">(0.6 - (L3 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
         <v>5.8768939393939387E-3</v>
       </c>
-      <c r="S3" s="55">
+      <c r="T3" s="26">
         <f t="shared" si="3"/>
         <v>1.1999999999999978E-2</v>
       </c>
-      <c r="T3" s="58">
+      <c r="U3" s="35">
         <f t="shared" si="4"/>
         <v>1.7876893939393915E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
+      <c r="AB3" s="100">
+        <v>0.08</v>
+      </c>
+      <c r="AC3" s="95">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD3" s="95">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AE3" s="96">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AF3" s="39">
+        <f>AE3/SQRT(5)</f>
+        <v>1.3863621460498696E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A4" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="26">
         <f t="shared" si="0"/>
         <v>2.5223524382554448E-3</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="26">
         <f t="shared" si="0"/>
         <v>2.5223524382554448E-3</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="26">
         <f t="shared" si="0"/>
         <v>2.5223524382554448E-3</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="26">
         <f t="shared" si="0"/>
         <v>2.5223524382554448E-3</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="26">
         <f t="shared" si="0"/>
         <v>2.5223524382554448E-3</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="26">
         <f t="shared" si="5"/>
         <v>5.6401515151515147E-3</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="84">
         <f t="shared" si="1"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="26">
         <f t="shared" si="2"/>
         <v>5.2056340112551927E-3</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="26">
         <f t="shared" si="2"/>
         <v>5.2056340112551927E-3</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="26">
         <f t="shared" si="2"/>
         <v>5.2056340112551927E-3</v>
       </c>
-      <c r="P4" s="57">
+      <c r="P4" s="26">
         <f t="shared" si="2"/>
         <v>5.2056340112551927E-3</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="Q4" s="27">
         <f t="shared" si="2"/>
         <v>5.2056340112551927E-3</v>
       </c>
-      <c r="R4" s="57">
+      <c r="S4" s="34">
         <f t="shared" si="6"/>
         <v>5.6401515151515147E-3</v>
       </c>
-      <c r="S4" s="55">
+      <c r="T4" s="26">
         <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="T4" s="58">
+      <c r="U4" s="35">
         <f t="shared" si="4"/>
         <v>1.1640151515151515E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+      <c r="AB4" s="25">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AC4" s="97">
+        <v>5.8768939393939387E-3</v>
+      </c>
+      <c r="AD4" s="97">
+        <v>1.1999999999999978E-2</v>
+      </c>
+      <c r="AE4" s="98">
+        <v>1.7876893939393915E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A5" s="25">
         <v>0.5</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="26">
         <f t="shared" si="0"/>
         <v>2.4164780075026137E-3</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="26">
         <f t="shared" si="0"/>
         <v>2.4164780075026137E-3</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="26">
         <f t="shared" si="0"/>
         <v>2.4164780075026137E-3</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="26">
         <f t="shared" si="0"/>
         <v>2.4164780075026137E-3</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="26">
         <f t="shared" si="0"/>
         <v>2.4164780075026137E-3</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="26">
         <f t="shared" si="5"/>
         <v>5.4034090909090907E-3</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="84">
         <f t="shared" si="1"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="25">
         <v>0.5</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="26">
         <f t="shared" si="2"/>
         <v>4.2053323895024459E-3</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="26">
         <f t="shared" si="2"/>
         <v>4.2053323895024459E-3</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="26">
         <f t="shared" si="2"/>
         <v>4.2053323895024459E-3</v>
       </c>
-      <c r="P5" s="57">
+      <c r="P5" s="26">
         <f t="shared" si="2"/>
         <v>4.2053323895024459E-3</v>
       </c>
-      <c r="Q5" s="57">
+      <c r="Q5" s="27">
         <f t="shared" si="2"/>
         <v>4.2053323895024459E-3</v>
       </c>
-      <c r="R5" s="57">
+      <c r="S5" s="34">
         <f t="shared" si="6"/>
         <v>5.4034090909090907E-3</v>
       </c>
-      <c r="S5" s="55">
+      <c r="T5" s="26">
         <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="T5" s="58">
+      <c r="U5" s="35">
         <f t="shared" si="4"/>
         <v>9.4034090909090907E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+      <c r="AB5" s="100">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC5" s="95">
+        <v>5.6401515151515147E-3</v>
+      </c>
+      <c r="AD5" s="95">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE5" s="96">
+        <v>1.1640151515151515E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A6" s="25">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="26">
         <f t="shared" si="0"/>
         <v>2.3106035767497825E-3</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="26">
         <f t="shared" si="0"/>
         <v>2.3106035767497825E-3</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="26">
         <f t="shared" si="0"/>
         <v>2.3106035767497825E-3</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="26">
         <f t="shared" si="0"/>
         <v>2.3106035767497825E-3</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="26">
         <f t="shared" si="0"/>
         <v>2.3106035767497825E-3</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="26">
         <f t="shared" si="5"/>
         <v>5.1666666666666658E-3</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="84">
         <f t="shared" si="1"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="25">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="26">
         <f t="shared" si="2"/>
         <v>3.6522443632496563E-3</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="26">
         <f t="shared" si="2"/>
         <v>3.6522443632496563E-3</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="26">
         <f t="shared" si="2"/>
         <v>3.6522443632496563E-3</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="26">
         <f t="shared" si="2"/>
         <v>3.6522443632496563E-3</v>
       </c>
-      <c r="Q6" s="57">
+      <c r="Q6" s="27">
         <f t="shared" si="2"/>
         <v>3.6522443632496563E-3</v>
       </c>
-      <c r="R6" s="57">
+      <c r="S6" s="34">
         <f t="shared" si="6"/>
         <v>5.1666666666666658E-3</v>
       </c>
-      <c r="S6" s="55">
+      <c r="T6" s="26">
         <f t="shared" si="3"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T6" s="58">
+      <c r="U6" s="35">
         <f t="shared" si="4"/>
         <v>8.1666666666666658E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+      <c r="AB6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AC6" s="97">
+        <v>5.4034090909090907E-3</v>
+      </c>
+      <c r="AD6" s="97">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AE6" s="98">
+        <v>9.4034090909090907E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A7" s="25">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="26">
         <f t="shared" si="0"/>
         <v>2.2047291459969518E-3</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="26">
         <f t="shared" si="0"/>
         <v>2.2047291459969518E-3</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="26">
         <f t="shared" si="0"/>
         <v>2.2047291459969518E-3</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="26">
         <f t="shared" si="0"/>
         <v>2.2047291459969518E-3</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="26">
         <f t="shared" si="0"/>
         <v>2.2047291459969518E-3</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="26">
         <f t="shared" si="5"/>
         <v>4.9299242424242417E-3</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="84">
         <f t="shared" si="1"/>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="25">
         <v>0.83333333333333337</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="26">
         <f t="shared" si="2"/>
         <v>3.2780417751968509E-3</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="26">
         <f t="shared" si="2"/>
         <v>3.2780417751968509E-3</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="26">
         <f t="shared" si="2"/>
         <v>3.2780417751968509E-3</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="26">
         <f t="shared" si="2"/>
         <v>3.2780417751968509E-3</v>
       </c>
-      <c r="Q7" s="57">
+      <c r="Q7" s="27">
         <f t="shared" si="2"/>
         <v>3.2780417751968509E-3</v>
       </c>
-      <c r="R7" s="57">
+      <c r="S7" s="34">
         <f t="shared" si="6"/>
         <v>4.9299242424242417E-3</v>
       </c>
-      <c r="S7" s="55">
+      <c r="T7" s="26">
         <f t="shared" si="3"/>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="T7" s="58">
+      <c r="U7" s="35">
         <f t="shared" si="4"/>
         <v>7.329924242424242E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+      <c r="AB7" s="100">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC7" s="95">
+        <v>5.1666666666666658E-3</v>
+      </c>
+      <c r="AD7" s="95">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE7" s="96">
+        <v>8.1666666666666658E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="26">
         <f t="shared" si="0"/>
         <v>2.0988547152441207E-3</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="26">
         <f t="shared" si="0"/>
         <v>2.0988547152441207E-3</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="26">
         <f t="shared" si="0"/>
         <v>2.0988547152441207E-3</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="26">
         <f t="shared" si="0"/>
         <v>2.0988547152441207E-3</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="26">
         <f t="shared" si="0"/>
         <v>2.0988547152441207E-3</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="26">
         <f t="shared" si="5"/>
         <v>4.6931818181818177E-3</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="84">
         <f t="shared" si="1"/>
         <v>2E-3</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="25">
         <v>1</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="26">
         <f t="shared" si="2"/>
         <v>2.9932819062440364E-3</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="26">
         <f t="shared" si="2"/>
         <v>2.9932819062440364E-3</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="26">
         <f t="shared" si="2"/>
         <v>2.9932819062440364E-3</v>
       </c>
-      <c r="P8" s="57">
+      <c r="P8" s="26">
         <f t="shared" si="2"/>
         <v>2.9932819062440364E-3</v>
       </c>
-      <c r="Q8" s="57">
+      <c r="Q8" s="27">
         <f t="shared" si="2"/>
         <v>2.9932819062440364E-3</v>
       </c>
-      <c r="R8" s="57">
+      <c r="S8" s="34">
         <f t="shared" si="6"/>
         <v>4.6931818181818177E-3</v>
       </c>
-      <c r="S8" s="55">
+      <c r="T8" s="26">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="T8" s="58">
+      <c r="U8" s="35">
         <f t="shared" si="4"/>
         <v>6.6931818181818177E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
+      <c r="AB8" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AC8" s="97">
+        <v>4.9299242424242417E-3</v>
+      </c>
+      <c r="AD8" s="97">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AE8" s="98">
+        <v>7.329924242424242E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A9" s="25">
         <v>1.166666666666667</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="26">
         <f t="shared" si="0"/>
         <v>1.9929802844912896E-3</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="26">
         <f t="shared" si="0"/>
         <v>1.9929802844912896E-3</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="26">
         <f t="shared" si="0"/>
         <v>1.9929802844912896E-3</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="26">
         <f t="shared" si="0"/>
         <v>1.9929802844912896E-3</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="26">
         <f t="shared" si="0"/>
         <v>1.9929802844912896E-3</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="26">
         <f t="shared" si="5"/>
         <v>4.4564393939393928E-3</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="84">
         <f t="shared" si="1"/>
         <v>1.714285714285714E-3</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="25">
         <v>1.166666666666667</v>
       </c>
-      <c r="M9" s="57">
+      <c r="M9" s="26">
         <f t="shared" si="2"/>
         <v>2.7596321624912172E-3</v>
       </c>
-      <c r="N9" s="57">
+      <c r="N9" s="26">
         <f t="shared" si="2"/>
         <v>2.7596321624912172E-3</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="26">
         <f t="shared" si="2"/>
         <v>2.7596321624912172E-3</v>
       </c>
-      <c r="P9" s="57">
+      <c r="P9" s="26">
         <f t="shared" si="2"/>
         <v>2.7596321624912172E-3</v>
       </c>
-      <c r="Q9" s="57">
+      <c r="Q9" s="27">
         <f t="shared" si="2"/>
         <v>2.7596321624912172E-3</v>
       </c>
-      <c r="R9" s="57">
+      <c r="S9" s="34">
         <f t="shared" si="6"/>
         <v>4.4564393939393928E-3</v>
       </c>
-      <c r="S9" s="55">
+      <c r="T9" s="26">
         <f t="shared" si="3"/>
         <v>1.714285714285714E-3</v>
       </c>
-      <c r="T9" s="58">
+      <c r="U9" s="35">
         <f t="shared" si="4"/>
         <v>6.170725108225107E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+      <c r="AB9" s="100">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="95">
+        <v>4.6931818181818177E-3</v>
+      </c>
+      <c r="AD9" s="95">
+        <v>2E-3</v>
+      </c>
+      <c r="AE9" s="96">
+        <v>6.6931818181818177E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A10" s="25">
         <v>1.333333333333333</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="26">
         <f t="shared" si="0"/>
         <v>1.8871058537384591E-3</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="26">
         <f t="shared" si="0"/>
         <v>1.8871058537384591E-3</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="26">
         <f t="shared" si="0"/>
         <v>1.8871058537384591E-3</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="26">
         <f t="shared" si="0"/>
         <v>1.8871058537384591E-3</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="26">
         <f t="shared" si="0"/>
         <v>1.8871058537384591E-3</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="26">
         <f t="shared" si="5"/>
         <v>4.2196969696969696E-3</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="84">
         <f t="shared" si="1"/>
         <v>1.5000000000000005E-3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="25">
         <v>1.333333333333333</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="26">
         <f t="shared" si="2"/>
         <v>2.5579262469883962E-3</v>
       </c>
-      <c r="N10" s="57">
+      <c r="N10" s="26">
         <f t="shared" si="2"/>
         <v>2.5579262469883962E-3</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="26">
         <f t="shared" si="2"/>
         <v>2.5579262469883962E-3</v>
       </c>
-      <c r="P10" s="57">
+      <c r="P10" s="26">
         <f t="shared" si="2"/>
         <v>2.5579262469883962E-3</v>
       </c>
-      <c r="Q10" s="57">
+      <c r="Q10" s="27">
         <f t="shared" si="2"/>
         <v>2.5579262469883962E-3</v>
       </c>
-      <c r="R10" s="57">
+      <c r="S10" s="34">
         <f t="shared" si="6"/>
         <v>4.2196969696969696E-3</v>
       </c>
-      <c r="S10" s="55">
+      <c r="T10" s="26">
         <f t="shared" si="3"/>
         <v>1.5000000000000005E-3</v>
       </c>
-      <c r="T10" s="58">
+      <c r="U10" s="35">
         <f t="shared" si="4"/>
         <v>5.7196969696969701E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
+      <c r="AB10" s="25">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AC10" s="97">
+        <v>4.4564393939393928E-3</v>
+      </c>
+      <c r="AD10" s="97">
+        <v>1.714285714285714E-3</v>
+      </c>
+      <c r="AE10" s="98">
+        <v>6.170725108225107E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A11" s="25">
         <v>1.5</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="26">
         <f t="shared" si="0"/>
         <v>1.7812314229856282E-3</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="26">
         <f t="shared" si="0"/>
         <v>1.7812314229856282E-3</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="26">
         <f t="shared" si="0"/>
         <v>1.7812314229856282E-3</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="26">
         <f t="shared" si="0"/>
         <v>1.7812314229856282E-3</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="26">
         <f t="shared" si="0"/>
         <v>1.7812314229856282E-3</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="26">
         <f t="shared" si="5"/>
         <v>3.9829545454545456E-3</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="84">
         <f t="shared" si="1"/>
         <v>1.3333333333333333E-3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="25">
         <v>1.5</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="26">
         <f t="shared" si="2"/>
         <v>2.377516216985572E-3</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="26">
         <f t="shared" si="2"/>
         <v>2.377516216985572E-3</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="26">
         <f t="shared" si="2"/>
         <v>2.377516216985572E-3</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="26">
         <f t="shared" si="2"/>
         <v>2.377516216985572E-3</v>
       </c>
-      <c r="Q11" s="57">
+      <c r="Q11" s="27">
         <f t="shared" si="2"/>
         <v>2.377516216985572E-3</v>
       </c>
-      <c r="R11" s="57">
+      <c r="S11" s="34">
         <f t="shared" si="6"/>
         <v>3.9829545454545456E-3</v>
       </c>
-      <c r="S11" s="55">
+      <c r="T11" s="26">
         <f t="shared" si="3"/>
         <v>1.3333333333333333E-3</v>
       </c>
-      <c r="T11" s="58">
+      <c r="U11" s="35">
         <f t="shared" si="4"/>
         <v>5.3162878787878787E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+      <c r="AB11" s="100">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AC11" s="95">
+        <v>4.2196969696969696E-3</v>
+      </c>
+      <c r="AD11" s="95">
+        <v>1.5000000000000005E-3</v>
+      </c>
+      <c r="AE11" s="96">
+        <v>5.7196969696969701E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A12" s="25">
         <v>1.666666666666667</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="26">
         <f t="shared" ref="B12:F24" si="7">($G12/5)*SQRT(5)</f>
         <v>1.675356992232797E-3</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="26">
         <f t="shared" si="7"/>
         <v>1.675356992232797E-3</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="26">
         <f t="shared" si="7"/>
         <v>1.675356992232797E-3</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="26">
         <f t="shared" si="7"/>
         <v>1.675356992232797E-3</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="26">
         <f t="shared" si="7"/>
         <v>1.675356992232797E-3</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="26">
         <f t="shared" si="5"/>
         <v>3.7462121212121207E-3</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="84">
         <f t="shared" si="1"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="25">
         <v>1.666666666666667</v>
       </c>
-      <c r="M12" s="57">
-        <f t="shared" ref="M12:Q24" si="8">($T12/5)*SQRT(5)</f>
+      <c r="M12" s="26">
+        <f t="shared" ref="M12:Q24" si="8">($U12/5)*SQRT(5)</f>
         <v>2.2120133068327464E-3</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="26">
         <f t="shared" si="8"/>
         <v>2.2120133068327464E-3</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="26">
         <f t="shared" si="8"/>
         <v>2.2120133068327464E-3</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="26">
         <f t="shared" si="8"/>
         <v>2.2120133068327464E-3</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="27">
         <f t="shared" si="8"/>
         <v>2.2120133068327464E-3</v>
       </c>
-      <c r="R12" s="57">
+      <c r="S12" s="34">
         <f t="shared" si="6"/>
         <v>3.7462121212121207E-3</v>
       </c>
-      <c r="S12" s="55">
+      <c r="T12" s="26">
         <f t="shared" si="3"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="T12" s="58">
+      <c r="U12" s="35">
         <f t="shared" si="4"/>
         <v>4.9462121212121204E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
+      <c r="AB12" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AC12" s="97">
+        <v>3.9829545454545456E-3</v>
+      </c>
+      <c r="AD12" s="97">
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="AE12" s="98">
+        <v>5.3162878787878787E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A13" s="25">
         <v>1.833333333333333</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="26">
         <f t="shared" si="7"/>
         <v>1.5694825614799663E-3</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="26">
         <f t="shared" si="7"/>
         <v>1.5694825614799663E-3</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="26">
         <f t="shared" si="7"/>
         <v>1.5694825614799663E-3</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="26">
         <f t="shared" si="7"/>
         <v>1.5694825614799663E-3</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="26">
         <f t="shared" si="7"/>
         <v>1.5694825614799663E-3</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="26">
         <f t="shared" si="5"/>
         <v>3.5094696969696971E-3</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="84">
         <f t="shared" si="1"/>
         <v>1.0909090909090912E-3</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="25">
         <v>1.833333333333333</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="26">
         <f t="shared" si="8"/>
         <v>2.0573519383890117E-3</v>
       </c>
-      <c r="N13" s="57">
+      <c r="N13" s="26">
         <f t="shared" si="8"/>
         <v>2.0573519383890117E-3</v>
       </c>
-      <c r="O13" s="57">
+      <c r="O13" s="26">
         <f t="shared" si="8"/>
         <v>2.0573519383890117E-3</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="26">
         <f t="shared" si="8"/>
         <v>2.0573519383890117E-3</v>
       </c>
-      <c r="Q13" s="57">
+      <c r="Q13" s="27">
         <f t="shared" si="8"/>
         <v>2.0573519383890117E-3</v>
       </c>
-      <c r="R13" s="57">
+      <c r="S13" s="34">
         <f t="shared" si="6"/>
         <v>3.5094696969696971E-3</v>
       </c>
-      <c r="S13" s="55">
+      <c r="T13" s="26">
         <f t="shared" si="3"/>
         <v>1.0909090909090912E-3</v>
       </c>
-      <c r="T13" s="58">
+      <c r="U13" s="35">
         <f t="shared" si="4"/>
         <v>4.6003787878787887E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
+      <c r="AB13" s="100">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AC13" s="95">
+        <v>3.7462121212121207E-3</v>
+      </c>
+      <c r="AD13" s="95">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AE13" s="96">
+        <v>4.9462121212121204E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A14" s="25">
         <v>2</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="26">
         <f t="shared" si="7"/>
         <v>1.4636081307271352E-3</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="26">
         <f t="shared" si="7"/>
         <v>1.4636081307271352E-3</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="26">
         <f t="shared" si="7"/>
         <v>1.4636081307271352E-3</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="26">
         <f t="shared" si="7"/>
         <v>1.4636081307271352E-3</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="26">
         <f t="shared" si="7"/>
         <v>1.4636081307271352E-3</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="26">
         <f t="shared" si="5"/>
         <v>3.2727272727272726E-3</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="84">
         <f t="shared" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="25">
         <v>2</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="26">
         <f t="shared" si="8"/>
         <v>1.910821726227093E-3</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="26">
         <f t="shared" si="8"/>
         <v>1.910821726227093E-3</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="26">
         <f t="shared" si="8"/>
         <v>1.910821726227093E-3</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="26">
         <f t="shared" si="8"/>
         <v>1.910821726227093E-3</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="27">
         <f t="shared" si="8"/>
         <v>1.910821726227093E-3</v>
       </c>
-      <c r="R14" s="57">
+      <c r="S14" s="34">
         <f t="shared" si="6"/>
         <v>3.2727272727272726E-3</v>
       </c>
-      <c r="S14" s="55">
+      <c r="T14" s="26">
         <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
-      <c r="T14" s="58">
+      <c r="U14" s="35">
         <f t="shared" si="4"/>
         <v>4.2727272727272727E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+      <c r="AB14" s="25">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="AC14" s="97">
+        <v>3.5094696969696971E-3</v>
+      </c>
+      <c r="AD14" s="97">
+        <v>1.0909090909090912E-3</v>
+      </c>
+      <c r="AE14" s="98">
+        <v>4.6003787878787887E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A15" s="25">
         <v>2.166666666666667</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="26">
         <f t="shared" si="7"/>
         <v>1.3577336999743039E-3</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="26">
         <f t="shared" si="7"/>
         <v>1.3577336999743039E-3</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="26">
         <f t="shared" si="7"/>
         <v>1.3577336999743039E-3</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="26">
         <f t="shared" si="7"/>
         <v>1.3577336999743039E-3</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="26">
         <f t="shared" si="7"/>
         <v>1.3577336999743039E-3</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="26">
         <f t="shared" si="5"/>
         <v>3.0359848484848477E-3</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="84">
         <f t="shared" si="1"/>
         <v>9.2307692307692295E-4</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="25">
         <v>2.166666666666667</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="26">
         <f t="shared" si="8"/>
         <v>1.7705462496665728E-3</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="26">
         <f t="shared" si="8"/>
         <v>1.7705462496665728E-3</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="26">
         <f t="shared" si="8"/>
         <v>1.7705462496665728E-3</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="26">
         <f t="shared" si="8"/>
         <v>1.7705462496665728E-3</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="27">
         <f t="shared" si="8"/>
         <v>1.7705462496665728E-3</v>
       </c>
-      <c r="R15" s="57">
+      <c r="S15" s="34">
         <f t="shared" si="6"/>
         <v>3.0359848484848477E-3</v>
       </c>
-      <c r="S15" s="55">
+      <c r="T15" s="26">
         <f t="shared" si="3"/>
         <v>9.2307692307692295E-4</v>
       </c>
-      <c r="T15" s="58">
+      <c r="U15" s="35">
         <f t="shared" si="4"/>
         <v>3.9590617715617709E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
+      <c r="AB15" s="100">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="95">
+        <v>3.2727272727272726E-3</v>
+      </c>
+      <c r="AD15" s="95">
+        <v>1E-3</v>
+      </c>
+      <c r="AE15" s="96">
+        <v>4.2727272727272727E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A16" s="25">
         <v>2.333333333333333</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="26">
         <f t="shared" si="7"/>
         <v>1.2518592692214734E-3</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="26">
         <f t="shared" si="7"/>
         <v>1.2518592692214734E-3</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="26">
         <f t="shared" si="7"/>
         <v>1.2518592692214734E-3</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="26">
         <f t="shared" si="7"/>
         <v>1.2518592692214734E-3</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="26">
         <f t="shared" si="7"/>
         <v>1.2518592692214734E-3</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="26">
         <f t="shared" si="5"/>
         <v>2.7992424242424246E-3</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="84">
         <f t="shared" si="1"/>
         <v>8.5714285714285732E-4</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="25">
         <v>2.333333333333333</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="26">
         <f t="shared" si="8"/>
         <v>1.6351852082214374E-3</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="26">
         <f t="shared" si="8"/>
         <v>1.6351852082214374E-3</v>
       </c>
-      <c r="O16" s="57">
+      <c r="O16" s="26">
         <f t="shared" si="8"/>
         <v>1.6351852082214374E-3</v>
       </c>
-      <c r="P16" s="57">
+      <c r="P16" s="26">
         <f t="shared" si="8"/>
         <v>1.6351852082214374E-3</v>
       </c>
-      <c r="Q16" s="57">
+      <c r="Q16" s="27">
         <f t="shared" si="8"/>
         <v>1.6351852082214374E-3</v>
       </c>
-      <c r="R16" s="57">
+      <c r="S16" s="34">
         <f t="shared" si="6"/>
         <v>2.7992424242424246E-3</v>
       </c>
-      <c r="S16" s="55">
+      <c r="T16" s="26">
         <f t="shared" si="3"/>
         <v>8.5714285714285732E-4</v>
       </c>
-      <c r="T16" s="58">
+      <c r="U16" s="35">
         <f t="shared" si="4"/>
         <v>3.6563852813852821E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
+      <c r="AB16" s="25">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="AC16" s="97">
+        <v>3.0359848484848477E-3</v>
+      </c>
+      <c r="AD16" s="97">
+        <v>9.2307692307692295E-4</v>
+      </c>
+      <c r="AE16" s="98">
+        <v>3.9590617715617709E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A17" s="25">
         <v>2.5</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="26">
         <f t="shared" si="7"/>
         <v>1.145984838468642E-3</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="26">
         <f t="shared" si="7"/>
         <v>1.145984838468642E-3</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="26">
         <f t="shared" si="7"/>
         <v>1.145984838468642E-3</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="26">
         <f t="shared" si="7"/>
         <v>1.145984838468642E-3</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="26">
         <f t="shared" si="7"/>
         <v>1.145984838468642E-3</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="26">
         <f t="shared" si="5"/>
         <v>2.5624999999999997E-3</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="84">
         <f t="shared" si="1"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="25">
         <v>2.5</v>
       </c>
-      <c r="M17" s="57">
+      <c r="M17" s="26">
         <f t="shared" si="8"/>
         <v>1.5037557148686084E-3</v>
       </c>
-      <c r="N17" s="57">
+      <c r="N17" s="26">
         <f t="shared" si="8"/>
         <v>1.5037557148686084E-3</v>
       </c>
-      <c r="O17" s="57">
+      <c r="O17" s="26">
         <f t="shared" si="8"/>
         <v>1.5037557148686084E-3</v>
       </c>
-      <c r="P17" s="57">
+      <c r="P17" s="26">
         <f t="shared" si="8"/>
         <v>1.5037557148686084E-3</v>
       </c>
-      <c r="Q17" s="57">
+      <c r="Q17" s="27">
         <f t="shared" si="8"/>
         <v>1.5037557148686084E-3</v>
       </c>
-      <c r="R17" s="57">
+      <c r="S17" s="34">
         <f t="shared" si="6"/>
         <v>2.5624999999999997E-3</v>
       </c>
-      <c r="S17" s="55">
+      <c r="T17" s="26">
         <f t="shared" si="3"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="T17" s="58">
+      <c r="U17" s="35">
         <f t="shared" si="4"/>
         <v>3.3624999999999996E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+      <c r="AB17" s="100">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="AC17" s="95">
+        <v>2.7992424242424246E-3</v>
+      </c>
+      <c r="AD17" s="95">
+        <v>8.5714285714285732E-4</v>
+      </c>
+      <c r="AE17" s="96">
+        <v>3.6563852813852821E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A18" s="25">
         <v>2.666666666666667</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="26">
         <f t="shared" si="7"/>
         <v>1.0401104077158113E-3</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="26">
         <f t="shared" si="7"/>
         <v>1.0401104077158113E-3</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="26">
         <f t="shared" si="7"/>
         <v>1.0401104077158113E-3</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="26">
         <f t="shared" si="7"/>
         <v>1.0401104077158113E-3</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="26">
         <f t="shared" si="7"/>
         <v>1.0401104077158113E-3</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="26">
         <f t="shared" si="5"/>
         <v>2.3257575757575756E-3</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="84">
         <f t="shared" si="1"/>
         <v>7.4999999999999991E-4</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="25">
         <v>2.666666666666667</v>
       </c>
-      <c r="M18" s="57">
+      <c r="M18" s="26">
         <f t="shared" si="8"/>
         <v>1.3755206043407795E-3</v>
       </c>
-      <c r="N18" s="57">
+      <c r="N18" s="26">
         <f t="shared" si="8"/>
         <v>1.3755206043407795E-3</v>
       </c>
-      <c r="O18" s="57">
+      <c r="O18" s="26">
         <f t="shared" si="8"/>
         <v>1.3755206043407795E-3</v>
       </c>
-      <c r="P18" s="57">
+      <c r="P18" s="26">
         <f t="shared" si="8"/>
         <v>1.3755206043407795E-3</v>
       </c>
-      <c r="Q18" s="57">
+      <c r="Q18" s="27">
         <f t="shared" si="8"/>
         <v>1.3755206043407795E-3</v>
       </c>
-      <c r="R18" s="57">
+      <c r="S18" s="34">
         <f t="shared" si="6"/>
         <v>2.3257575757575756E-3</v>
       </c>
-      <c r="S18" s="55">
+      <c r="T18" s="26">
         <f t="shared" si="3"/>
         <v>7.4999999999999991E-4</v>
       </c>
-      <c r="T18" s="58">
+      <c r="U18" s="35">
         <f t="shared" si="4"/>
         <v>3.0757575757575754E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
+      <c r="AB18" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="AC18" s="97">
+        <v>2.5624999999999997E-3</v>
+      </c>
+      <c r="AD18" s="97">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AE18" s="98">
+        <v>3.3624999999999996E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A19" s="25">
         <v>2.833333333333333</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="26">
         <f t="shared" si="7"/>
         <v>9.3423597696298041E-4</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="26">
         <f t="shared" si="7"/>
         <v>9.3423597696298041E-4</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="26">
         <f t="shared" si="7"/>
         <v>9.3423597696298041E-4</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="26">
         <f t="shared" si="7"/>
         <v>9.3423597696298041E-4</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="26">
         <f t="shared" si="7"/>
         <v>9.3423597696298041E-4</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="26">
         <f t="shared" si="5"/>
         <v>2.0890151515151516E-3</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="84">
         <f t="shared" si="1"/>
         <v>7.0588235294117652E-4</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="25">
         <v>2.833333333333333</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="26">
         <f t="shared" si="8"/>
         <v>1.249916162021774E-3</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N19" s="26">
         <f t="shared" si="8"/>
         <v>1.249916162021774E-3</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="26">
         <f t="shared" si="8"/>
         <v>1.249916162021774E-3</v>
       </c>
-      <c r="P19" s="57">
+      <c r="P19" s="26">
         <f t="shared" si="8"/>
         <v>1.249916162021774E-3</v>
       </c>
-      <c r="Q19" s="57">
+      <c r="Q19" s="27">
         <f t="shared" si="8"/>
         <v>1.249916162021774E-3</v>
       </c>
-      <c r="R19" s="57">
+      <c r="S19" s="34">
         <f t="shared" si="6"/>
         <v>2.0890151515151516E-3</v>
       </c>
-      <c r="S19" s="55">
+      <c r="T19" s="26">
         <f t="shared" si="3"/>
         <v>7.0588235294117652E-4</v>
       </c>
-      <c r="T19" s="58">
+      <c r="U19" s="35">
         <f t="shared" si="4"/>
         <v>2.794897504456328E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
+      <c r="AB19" s="100">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="AC19" s="95">
+        <v>2.3257575757575756E-3</v>
+      </c>
+      <c r="AD19" s="95">
+        <v>7.4999999999999991E-4</v>
+      </c>
+      <c r="AE19" s="96">
+        <v>3.0757575757575754E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A20" s="25">
         <v>3</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="26">
         <f t="shared" si="7"/>
         <v>8.2836154621014938E-4</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="26">
         <f t="shared" si="7"/>
         <v>8.2836154621014938E-4</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="26">
         <f t="shared" si="7"/>
         <v>8.2836154621014938E-4</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="26">
         <f t="shared" si="7"/>
         <v>8.2836154621014938E-4</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="26">
         <f t="shared" si="7"/>
         <v>8.2836154621014938E-4</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="26">
         <f t="shared" si="5"/>
         <v>1.8522727272727274E-3</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="84">
         <f t="shared" si="1"/>
         <v>6.6666666666666664E-4</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="25">
         <v>3</v>
       </c>
-      <c r="M20" s="57">
+      <c r="M20" s="26">
         <f t="shared" si="8"/>
         <v>1.1265039432101216E-3</v>
       </c>
-      <c r="N20" s="57">
+      <c r="N20" s="26">
         <f t="shared" si="8"/>
         <v>1.1265039432101216E-3</v>
       </c>
-      <c r="O20" s="57">
+      <c r="O20" s="26">
         <f t="shared" si="8"/>
         <v>1.1265039432101216E-3</v>
       </c>
-      <c r="P20" s="57">
+      <c r="P20" s="26">
         <f t="shared" si="8"/>
         <v>1.1265039432101216E-3</v>
       </c>
-      <c r="Q20" s="57">
+      <c r="Q20" s="27">
         <f t="shared" si="8"/>
         <v>1.1265039432101216E-3</v>
       </c>
-      <c r="R20" s="57">
+      <c r="S20" s="34">
         <f t="shared" si="6"/>
         <v>1.8522727272727274E-3</v>
       </c>
-      <c r="S20" s="55">
+      <c r="T20" s="26">
         <f t="shared" si="3"/>
         <v>6.6666666666666664E-4</v>
       </c>
-      <c r="T20" s="58">
+      <c r="U20" s="35">
         <f t="shared" si="4"/>
         <v>2.5189393939393941E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
+      <c r="AB20" s="25">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="AC20" s="97">
+        <v>2.0890151515151516E-3</v>
+      </c>
+      <c r="AD20" s="97">
+        <v>7.0588235294117652E-4</v>
+      </c>
+      <c r="AE20" s="98">
+        <v>2.794897504456328E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A21" s="25">
         <v>3.166666666666667</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="26">
         <f t="shared" si="7"/>
         <v>7.2248711545731825E-4</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="26">
         <f t="shared" si="7"/>
         <v>7.2248711545731825E-4</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="26">
         <f t="shared" si="7"/>
         <v>7.2248711545731825E-4</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="26">
         <f t="shared" si="7"/>
         <v>7.2248711545731825E-4</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="26">
         <f t="shared" si="7"/>
         <v>7.2248711545731825E-4</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="26">
         <f t="shared" si="5"/>
         <v>1.6155303030303025E-3</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="84">
         <f t="shared" si="1"/>
         <v>6.3157894736842106E-4</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="25">
         <v>3.166666666666667</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="26">
         <f t="shared" si="8"/>
         <v>1.0049378073520286E-3</v>
       </c>
-      <c r="N21" s="57">
+      <c r="N21" s="26">
         <f t="shared" si="8"/>
         <v>1.0049378073520286E-3</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="26">
         <f t="shared" si="8"/>
         <v>1.0049378073520286E-3</v>
       </c>
-      <c r="P21" s="57">
+      <c r="P21" s="26">
         <f t="shared" si="8"/>
         <v>1.0049378073520286E-3</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="Q21" s="27">
         <f t="shared" si="8"/>
         <v>1.0049378073520286E-3</v>
       </c>
-      <c r="R21" s="57">
+      <c r="S21" s="34">
         <f t="shared" si="6"/>
         <v>1.6155303030303025E-3</v>
       </c>
-      <c r="S21" s="55">
+      <c r="T21" s="26">
         <f t="shared" si="3"/>
         <v>6.3157894736842106E-4</v>
       </c>
-      <c r="T21" s="58">
+      <c r="U21" s="35">
         <f t="shared" si="4"/>
         <v>2.2471092503987236E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
+      <c r="AB21" s="100">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="95">
+        <v>1.8522727272727274E-3</v>
+      </c>
+      <c r="AD21" s="95">
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="AE21" s="96">
+        <v>2.5189393939393941E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A22" s="25">
         <v>3.333333333333333</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="26">
         <f t="shared" si="7"/>
         <v>6.1661268470448766E-4</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="26">
         <f t="shared" si="7"/>
         <v>6.1661268470448766E-4</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="26">
         <f t="shared" si="7"/>
         <v>6.1661268470448766E-4</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="26">
         <f t="shared" si="7"/>
         <v>6.1661268470448766E-4</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="26">
         <f t="shared" si="7"/>
         <v>6.1661268470448766E-4</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="26">
         <f t="shared" si="5"/>
         <v>1.3787878787878793E-3</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="84">
         <f t="shared" si="1"/>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="25">
         <v>3.333333333333333</v>
       </c>
-      <c r="M22" s="57">
+      <c r="M22" s="26">
         <f t="shared" si="8"/>
         <v>8.8494084200446254E-4</v>
       </c>
-      <c r="N22" s="57">
+      <c r="N22" s="26">
         <f t="shared" si="8"/>
         <v>8.8494084200446254E-4</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="26">
         <f t="shared" si="8"/>
         <v>8.8494084200446254E-4</v>
       </c>
-      <c r="P22" s="57">
+      <c r="P22" s="26">
         <f t="shared" si="8"/>
         <v>8.8494084200446254E-4</v>
       </c>
-      <c r="Q22" s="57">
+      <c r="Q22" s="27">
         <f t="shared" si="8"/>
         <v>8.8494084200446254E-4</v>
       </c>
-      <c r="R22" s="57">
+      <c r="S22" s="34">
         <f t="shared" si="6"/>
         <v>1.3787878787878793E-3</v>
       </c>
-      <c r="S22" s="55">
+      <c r="T22" s="26">
         <f t="shared" si="3"/>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="T22" s="58">
+      <c r="U22" s="35">
         <f t="shared" si="4"/>
         <v>1.9787878787878794E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
+      <c r="AB22" s="25">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="AC22" s="97">
+        <v>1.6155303030303025E-3</v>
+      </c>
+      <c r="AD22" s="97">
+        <v>6.3157894736842106E-4</v>
+      </c>
+      <c r="AE22" s="98">
+        <v>2.2471092503987236E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A23" s="25">
         <v>3.5</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="26">
         <f t="shared" si="7"/>
         <v>5.1073825395165653E-4</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="26">
         <f t="shared" si="7"/>
         <v>5.1073825395165653E-4</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="26">
         <f t="shared" si="7"/>
         <v>5.1073825395165653E-4</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="26">
         <f t="shared" si="7"/>
         <v>5.1073825395165653E-4</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="26">
         <f t="shared" si="7"/>
         <v>5.1073825395165653E-4</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="26">
         <f t="shared" si="5"/>
         <v>1.1420454545454544E-3</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="84">
         <f t="shared" si="1"/>
         <v>5.7142857142857147E-4</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="25">
         <v>3.5</v>
       </c>
-      <c r="M23" s="57">
+      <c r="M23" s="26">
         <f t="shared" si="8"/>
         <v>7.6628887995163256E-4</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N23" s="26">
         <f t="shared" si="8"/>
         <v>7.6628887995163256E-4</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O23" s="26">
         <f t="shared" si="8"/>
         <v>7.6628887995163256E-4</v>
       </c>
-      <c r="P23" s="57">
+      <c r="P23" s="26">
         <f t="shared" si="8"/>
         <v>7.6628887995163256E-4</v>
       </c>
-      <c r="Q23" s="57">
+      <c r="Q23" s="27">
         <f t="shared" si="8"/>
         <v>7.6628887995163256E-4</v>
       </c>
-      <c r="R23" s="57">
+      <c r="S23" s="34">
         <f t="shared" si="6"/>
         <v>1.1420454545454544E-3</v>
       </c>
-      <c r="S23" s="55">
+      <c r="T23" s="26">
         <f t="shared" si="3"/>
         <v>5.7142857142857147E-4</v>
       </c>
-      <c r="T23" s="58">
+      <c r="U23" s="35">
         <f t="shared" si="4"/>
         <v>1.7134740259740259E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
+      <c r="AB23" s="100">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="AC23" s="95">
+        <v>1.3787878787878793E-3</v>
+      </c>
+      <c r="AD23" s="95">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="AE23" s="96">
+        <v>1.9787878787878794E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A24" s="25">
         <v>3.6</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="26">
         <f t="shared" si="7"/>
         <v>4.4721359549995785E-4</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="26">
         <f t="shared" si="7"/>
         <v>4.4721359549995785E-4</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="26">
         <f t="shared" si="7"/>
         <v>4.4721359549995785E-4</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="26">
         <f t="shared" si="7"/>
         <v>4.4721359549995785E-4</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="26">
         <f t="shared" si="7"/>
         <v>4.4721359549995785E-4</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="26">
         <f t="shared" si="5"/>
         <v>9.999999999999998E-4</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="84">
         <f t="shared" si="1"/>
         <v>5.5555555555555556E-4</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="28">
         <v>3.6</v>
       </c>
-      <c r="M24" s="57">
+      <c r="M24" s="29">
         <f t="shared" si="8"/>
         <v>6.9566559299993457E-4</v>
       </c>
-      <c r="N24" s="57">
+      <c r="N24" s="29">
         <f t="shared" si="8"/>
         <v>6.9566559299993457E-4</v>
       </c>
-      <c r="O24" s="57">
+      <c r="O24" s="29">
         <f t="shared" si="8"/>
         <v>6.9566559299993457E-4</v>
       </c>
-      <c r="P24" s="57">
+      <c r="P24" s="29">
         <f t="shared" si="8"/>
         <v>6.9566559299993457E-4</v>
       </c>
-      <c r="Q24" s="57">
+      <c r="Q24" s="30">
         <f t="shared" si="8"/>
         <v>6.9566559299993457E-4</v>
       </c>
-      <c r="R24" s="57">
+      <c r="S24" s="36">
         <f t="shared" si="6"/>
         <v>9.999999999999998E-4</v>
       </c>
-      <c r="S24" s="55">
+      <c r="T24" s="29">
         <f t="shared" si="3"/>
         <v>5.5555555555555556E-4</v>
       </c>
-      <c r="T24" s="58">
+      <c r="U24" s="37">
         <f t="shared" si="4"/>
         <v>1.5555555555555553E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+      <c r="AB24" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="AC24" s="97">
+        <v>1.1420454545454544E-3</v>
+      </c>
+      <c r="AD24" s="97">
+        <v>5.7142857142857147E-4</v>
+      </c>
+      <c r="AE24" s="98">
+        <v>1.7134740259740259E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="AB25" s="100">
+        <v>3.6</v>
+      </c>
+      <c r="AC25" s="95">
+        <v>9.999999999999998E-4</v>
+      </c>
+      <c r="AD25" s="95">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="AE25" s="96">
+        <v>1.5555555555555553E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G42" s="87">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="87">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="I42" s="35">
+      <c r="I42" s="87">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="87">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="87">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="87">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="87">
         <v>6.3E-3</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="87">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="25">
         <v>0.16666666666666671</v>
       </c>
-      <c r="B44" s="35">
+      <c r="B44" s="87">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="87">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="87">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="87">
         <v>2.3E-3</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="87">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="87">
         <v>2.8E-3</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="87">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="87">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="87">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="87">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="25">
         <v>0.5</v>
       </c>
-      <c r="B46" s="35">
+      <c r="B46" s="87">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="87">
         <v>1.4E-3</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="87">
         <v>3.8E-3</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="87">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I46" s="35">
+      <c r="I46" s="87">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="25">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B47" s="35">
+      <c r="B47" s="87">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="87">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="87">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="H47" s="35">
+      <c r="H47" s="87">
         <v>4.3E-3</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="87">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="25">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B48" s="35">
+      <c r="B48" s="87">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="87">
         <v>2.3E-3</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="87">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="87">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="87">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="25">
         <v>1</v>
       </c>
-      <c r="B49" s="35">
+      <c r="B49" s="87">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="87">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="87">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="H49" s="35">
+      <c r="H49" s="87">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="I49" s="35">
+      <c r="I49" s="87">
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="25">
         <v>1.166666666666667</v>
       </c>
-      <c r="B50" s="35">
+      <c r="B50" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="87">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="87">
         <v>1.5E-3</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="87">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="I50" s="35">
+      <c r="I50" s="87">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="25">
         <v>1.333333333333333</v>
       </c>
-      <c r="B51" s="35">
+      <c r="B51" s="87">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="87">
         <v>4.3E-3</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="87">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="H51" s="35">
+      <c r="H51" s="87">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="87">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="25">
         <v>1.5</v>
       </c>
-      <c r="B52" s="35">
+      <c r="B52" s="87">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="87">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G52" s="35">
+      <c r="G52" s="87">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H52" s="87">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="87">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="25">
         <v>1.666666666666667</v>
       </c>
-      <c r="B53" s="35">
+      <c r="B53" s="87">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="87">
         <v>6.6E-3</v>
       </c>
-      <c r="G53" s="35">
+      <c r="G53" s="87">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H53" s="35">
+      <c r="H53" s="87">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="I53" s="35">
+      <c r="I53" s="87">
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="25">
         <v>1.833333333333333</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="87">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="87">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G54" s="35">
+      <c r="G54" s="87">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="H54" s="35">
+      <c r="H54" s="87">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="I54" s="35">
+      <c r="I54" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="25">
         <v>2</v>
       </c>
-      <c r="B55" s="35">
+      <c r="B55" s="87">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="87">
         <v>1.9E-3</v>
       </c>
-      <c r="G55" s="35">
+      <c r="G55" s="87">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="H55" s="35">
+      <c r="H55" s="87">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I55" s="35">
+      <c r="I55" s="87">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="25">
         <v>2.166666666666667</v>
       </c>
-      <c r="B56" s="35">
+      <c r="B56" s="87">
         <v>6.6E-3</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="87">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="87">
         <v>2.3E-3</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="87">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I56" s="87">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="25">
         <v>2.333333333333333</v>
       </c>
-      <c r="B57" s="35">
+      <c r="B57" s="87">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="87">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G57" s="35">
+      <c r="G57" s="87">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="H57" s="35">
+      <c r="H57" s="87">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="I57" s="35">
+      <c r="I57" s="87">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="25">
         <v>2.5</v>
       </c>
-      <c r="B58" s="35">
+      <c r="B58" s="87">
         <v>3.8E-3</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="87">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="G58" s="35">
+      <c r="G58" s="87">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="H58" s="35">
+      <c r="H58" s="87">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="I58" s="35">
+      <c r="I58" s="87">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="25">
         <v>2.666666666666667</v>
       </c>
-      <c r="B59" s="35">
+      <c r="B59" s="87">
         <v>2.3E-3</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="87">
         <v>1E-3</v>
       </c>
-      <c r="G59" s="35">
+      <c r="G59" s="87">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="H59" s="35">
+      <c r="H59" s="87">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I59" s="35">
+      <c r="I59" s="87">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="25">
         <v>2.833333333333333</v>
       </c>
-      <c r="B60" s="35">
+      <c r="B60" s="87">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C60" s="35">
+      <c r="C60" s="87">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="G60" s="35">
+      <c r="G60" s="87">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="H60" s="35">
+      <c r="H60" s="87">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="I60" s="35">
+      <c r="I60" s="87">
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="25">
         <v>3</v>
       </c>
-      <c r="B61" s="35">
+      <c r="B61" s="87">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="87">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="G61" s="35">
+      <c r="G61" s="87">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="H61" s="35">
+      <c r="H61" s="87">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="I61" s="35">
+      <c r="I61" s="87">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="25">
         <v>3.166666666666667</v>
       </c>
-      <c r="B62" s="35">
+      <c r="B62" s="87">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="87">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G62" s="35">
+      <c r="G62" s="87">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="87">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="I62" s="35">
+      <c r="I62" s="87">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="25">
         <v>3.333333333333333</v>
       </c>
-      <c r="B63" s="35">
+      <c r="B63" s="87">
         <v>6.6E-3</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="87">
         <v>5.3E-3</v>
       </c>
-      <c r="G63" s="35">
+      <c r="G63" s="87">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="H63" s="35">
+      <c r="H63" s="87">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="I63" s="35">
+      <c r="I63" s="87">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" s="25">
         <v>3.5</v>
       </c>
-      <c r="B64" s="35">
+      <c r="B64" s="87">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="87">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="87">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="87">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="87">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="25">
         <v>3.6</v>
       </c>
-      <c r="B65" s="35">
+      <c r="B65" s="87">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="87">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:F26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="105" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4304,10 +5340,26 @@
     <col min="3" max="3" width="12.796875" customWidth="1"/>
     <col min="4" max="4" width="16.796875" customWidth="1"/>
     <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.73046875" customWidth="1"/>
+    <col min="8" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="14.53125" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" customWidth="1"/>
+    <col min="13" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>40</v>
       </c>
@@ -4317,106 +5369,259 @@
       <c r="E2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>42</v>
       </c>
       <c r="C3">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="14">
         <v>0.02</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E8" si="0">(C3*D3)/100</f>
         <v>5.0000000000000004E-8</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="16">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3">
+        <v>350</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>1.8</v>
+      </c>
+      <c r="S3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="14">
         <v>0.02</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="1">
+        <f>7.5*10^(-5)</f>
+        <v>7.5000000000000007E-5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4">
+        <v>700</v>
+      </c>
+      <c r="N4">
+        <v>60</v>
+      </c>
+      <c r="O4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5">
         <v>35000000</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="14">
         <v>0.02</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6">
         <v>70000000</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="14">
         <v>0.02</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7">
         <v>233.15</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="14">
         <v>0.02</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>4.6630000000000005E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="17">
+        <f>M2*I3</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="N7" s="21">
+        <f>(J9*O2/100)*N2</f>
+        <v>1.2500000000000001E-8</v>
+      </c>
+      <c r="O7" s="8">
+        <f>K3*O2</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8">
         <v>233.15</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="14">
         <v>0.02</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>4.6630000000000005E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="I8" s="19">
+        <f>I3</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="J8" s="20">
+        <f>J4</f>
+        <v>7.5000000000000007E-5</v>
+      </c>
+      <c r="K8" s="20">
+        <f>K3</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="17">
+        <f>M3*I3</f>
+        <v>-3.5E-4</v>
+      </c>
+      <c r="N8" s="21">
+        <f>(J9*O3/100)*N3</f>
+        <v>4.4999999999999998E-7</v>
+      </c>
+      <c r="O8" s="8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9">
         <v>8.3140000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="J9" s="20">
+        <f>J8/60</f>
+        <v>1.2500000000000001E-6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="17">
+        <f>M4*I3</f>
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="N9" s="21">
+        <f>(J9*O4/100)*N4</f>
+        <v>2.7E-6</v>
+      </c>
+      <c r="O9" s="8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>48</v>
       </c>
@@ -4424,12 +5629,12 @@
         <f>(C5*C4)/(C9*C7)</f>
         <v>45.140110000515371</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="15">
         <f>SQRT(((C4/(C9*C7))*E5)^2+((C5/(C9*C7))*E4)^2+((C5*C4/(C9*C7^2))*E7)^2)</f>
         <v>1.5636992796028121E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>49</v>
       </c>
@@ -4437,12 +5642,16 @@
         <f>(C6*C4)/(C9*C8)</f>
         <v>90.280220001030742</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="15">
         <f>SQRT((C4/(C9*C8)*E6)^2+((C6/(C9*C8))*E4)^2+(C6*C4/(C9*C8^2)*E8)^2)</f>
         <v>3.1273985592056242E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="P11" s="7">
+        <f>O9</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -4455,7 +5664,7 @@
         <v>1.5636992796028122E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -4467,8 +5676,20 @@
         <f>SQRT(((C3/(C9*C8))*E6)^2+((C6/(C9*C8))*E3)^2+((C6*C3/(C9*C8^2))*E8)^2)</f>
         <v>3.1273985592056245E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>52</v>
       </c>
@@ -4476,8 +5697,40 @@
         <f>2.01568/1000</f>
         <v>2.0156800000000002E-3</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="20">
+        <f>(M7*O2)/100</f>
+        <v>-1E-8</v>
+      </c>
+      <c r="N14" s="20">
+        <f>J4/60</f>
+        <v>1.2500000000000001E-6</v>
+      </c>
+      <c r="O14">
+        <f>(O7*(O2/60))/100</f>
+        <v>3.3333333333333334E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="L15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15">
+        <f>(M8*O2)/100</f>
+        <v>-3.4999999999999999E-6</v>
+      </c>
+      <c r="N15" s="20">
+        <f>N14*10</f>
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="O15" s="20">
+        <f>(O8*(O3/60))/100</f>
+        <v>6.0000000000000008E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>53</v>
       </c>
@@ -4490,8 +5743,23 @@
       <c r="E16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="20">
+        <f>((M9*(O4/60))/100)</f>
+        <v>-4.2000000000000006E-7</v>
+      </c>
+      <c r="N16" s="20">
+        <f>J9*60</f>
+        <v>7.5000000000000007E-5</v>
+      </c>
+      <c r="O16" s="20">
+        <f>(O9*(O4/60))/100</f>
+        <v>1.2000000000000002E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -4511,8 +5779,14 @@
         <f>SQRT(((C14/C3)*D12)^2+(C14*C12/(C3^2)*E3)^2)</f>
         <v>1.4558082708134216E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="M17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -4532,8 +5806,11 @@
         <f>SQRT(((C14/C3)*D13)^2+(C14*C13/(C3^2)*E3)^2)</f>
         <v>2.9116165416268432E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>59</v>
       </c>
@@ -4541,7 +5818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>61</v>
       </c>
@@ -4554,7 +5831,7 @@
         <v>8.1402499390172448E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -4567,7 +5844,7 @@
         <v>8.1382156393630848E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F26" t="s">
         <v>63</v>
       </c>

--- a/excel_template/ConfigurationTemplate.xlsx
+++ b/excel_template/ConfigurationTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\OneDrive\Dokumenter\Masterprosjekt\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB0E284-3CCF-4AE5-88EB-A48494FC7403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B39AF-26CE-4E68-B175-2FAC003E4E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="942" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="942" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRS_config" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
   <si>
     <t>Table 1: HRS configuration</t>
   </si>
@@ -246,12 +246,6 @@
     <t>Years since calibration</t>
   </si>
   <si>
-    <t>If YES - set uncertinty u_std(x)</t>
-  </si>
-  <si>
-    <t>if NO - set uncertainty - u_std(x)</t>
-  </si>
-  <si>
     <t>per bar</t>
   </si>
   <si>
@@ -331,6 +325,18 @@
   </si>
   <si>
     <t>Total expected relative uncertainty</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>if NO - set uncertainty</t>
+  </si>
+  <si>
+    <t>If YES - set uncertainty</t>
+  </si>
+  <si>
+    <t>kg/min per °C</t>
   </si>
 </sst>
 </file>
@@ -346,7 +352,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.00000000\ %"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,14 +396,28 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -746,7 +766,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="10" applyFill="1"/>
@@ -785,46 +805,7 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="12" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="12" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="12" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -837,27 +818,67 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="14" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="14" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="12" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="12" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="12" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="20 % – uthevingsfarge 1" xfId="3" builtinId="30"/>
@@ -1269,10 +1290,10 @@
       <xdr:rowOff>94924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>136085</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>315246</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>62168</xdr:rowOff>
+      <xdr:rowOff>62167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1679,355 +1700,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="59" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="38.265625" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="4.53125" customWidth="1"/>
-    <col min="7" max="7" width="22.1328125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="2.3984375" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.73046875" customWidth="1"/>
     <col min="9" max="9" width="6.265625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="2.73046875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
     <row r="2" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="2:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B5" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B7" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="68">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="69">
+        <v>0.02</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B8" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="51">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I7" s="50" t="s">
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="74">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="I8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J8" s="75">
         <v>0.02</v>
       </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="53" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B9" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="57">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="58">
-        <v>0.02</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="10"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B10" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="39"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="40" t="s">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="62" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="92" t="s">
+    <row r="12" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="65" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="84">
+        <v>0.02</v>
+      </c>
+      <c r="I12" s="85"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B13" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="65">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E13" s="57">
+        <v>1</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="89"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B14" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="91">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="E14" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="67">
-        <v>0.02</v>
-      </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="69" t="s">
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="56"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B15" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="48">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E13" s="40">
-        <v>1</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="71">
-        <v>0.02</v>
-      </c>
-      <c r="I13" s="72"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="74">
-        <v>-9.9999999999999995E-7</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="40">
+      <c r="D15" s="57">
         <f>7.5*10^(-5)</f>
         <v>7.5000000000000007E-5</v>
       </c>
-      <c r="E15" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="E15" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="94"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2036,8 +2039,8 @@
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2046,7 +2049,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:D25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2057,17 +2060,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="39"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="23" t="s">
         <v>27</v>
       </c>
@@ -2079,7 +2082,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="39"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2091,7 +2094,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="39"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="25">
         <v>0.16666666666666671</v>
       </c>
@@ -2103,7 +2106,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="25">
         <v>0.33333333333333331</v>
       </c>
@@ -2115,7 +2118,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="39"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="25">
         <v>0.5</v>
       </c>
@@ -2127,7 +2130,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="39"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="25">
         <v>0.66666666666666663</v>
       </c>
@@ -2139,7 +2142,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="39"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -2151,7 +2154,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="39"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="25">
         <v>1</v>
       </c>
@@ -2163,7 +2166,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="25">
         <v>1.166666666666667</v>
       </c>
@@ -2175,7 +2178,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="39"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="25">
         <v>1.333333333333333</v>
       </c>
@@ -2187,7 +2190,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="39"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="25">
         <v>1.5</v>
       </c>
@@ -2199,7 +2202,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="25">
         <v>1.666666666666667</v>
       </c>
@@ -2211,7 +2214,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="25">
         <v>1.833333333333333</v>
       </c>
@@ -2223,7 +2226,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="39"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="25">
         <v>2</v>
       </c>
@@ -2235,7 +2238,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="39"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="25">
         <v>2.166666666666667</v>
       </c>
@@ -2247,7 +2250,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="39"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="25">
         <v>2.333333333333333</v>
       </c>
@@ -2259,7 +2262,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="39"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="25">
         <v>2.5</v>
       </c>
@@ -2271,7 +2274,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="39"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="25">
         <v>2.666666666666667</v>
       </c>
@@ -2283,7 +2286,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="39"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="25">
         <v>2.833333333333333</v>
       </c>
@@ -2295,7 +2298,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="39"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="25">
         <v>3</v>
       </c>
@@ -2307,7 +2310,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="39"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="25">
         <v>3.166666666666667</v>
       </c>
@@ -2319,7 +2322,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="39"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="25">
         <v>3.333333333333333</v>
       </c>
@@ -2331,7 +2334,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="39"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="25">
         <v>3.5</v>
       </c>
@@ -2343,7 +2346,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="39"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="25">
         <v>3.6</v>
       </c>
@@ -2367,33 +2370,33 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:XFD1048576"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="24.73046875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="30.265625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="41.59765625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="38" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="11.3984375" style="39"/>
+    <col min="1" max="1" width="11.3984375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="24.73046875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="30.265625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="41.59765625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="38" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="11.3984375" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="F1" s="39" t="s">
+      <c r="C1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -2405,12 +2408,12 @@
       <c r="E2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="80">
+      <c r="B3" s="41">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C3" s="26">
@@ -2422,17 +2425,17 @@
       <c r="E3" s="26">
         <v>1.38636214604987E-2</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <f>(0.024)/60</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="44">
         <f t="shared" ref="I3:I25" si="0">($H$3/B3)</f>
         <v>4.8000000000000004E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="80">
+      <c r="B4" s="41">
         <v>0.16666666666666699</v>
       </c>
       <c r="C4" s="26">
@@ -2444,13 +2447,13 @@
       <c r="E4" s="26">
         <v>7.9947900150077605E-3</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="44">
         <f t="shared" si="0"/>
         <v>2.3999999999999955E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="80">
+      <c r="B5" s="41">
         <v>0.33333333333333331</v>
       </c>
       <c r="C5" s="26">
@@ -2462,13 +2465,13 @@
       <c r="E5" s="26">
         <v>5.2056340112551927E-3</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="44">
         <f t="shared" si="0"/>
         <v>1.2000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="80">
+      <c r="B6" s="41">
         <v>0.5</v>
       </c>
       <c r="C6" s="26">
@@ -2480,13 +2483,13 @@
       <c r="E6" s="26">
         <v>4.2053323895024459E-3</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="44">
         <f t="shared" si="0"/>
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="80">
+      <c r="B7" s="41">
         <v>0.66666666666666663</v>
       </c>
       <c r="C7" s="26">
@@ -2498,13 +2501,13 @@
       <c r="E7" s="26">
         <v>3.6522443632496559E-3</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="44">
         <f t="shared" si="0"/>
         <v>6.0000000000000006E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="80">
+      <c r="B8" s="41">
         <v>0.83333333333333337</v>
       </c>
       <c r="C8" s="26">
@@ -2516,13 +2519,13 @@
       <c r="E8" s="26">
         <v>3.2780417751968509E-3</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="44">
         <f t="shared" si="0"/>
         <v>4.8000000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="80">
+      <c r="B9" s="41">
         <v>1</v>
       </c>
       <c r="C9" s="26">
@@ -2534,13 +2537,13 @@
       <c r="E9" s="26">
         <v>2.993281906244036E-3</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="44">
         <f t="shared" si="0"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="80">
+      <c r="B10" s="41">
         <v>1.166666666666667</v>
       </c>
       <c r="C10" s="26">
@@ -2552,13 +2555,13 @@
       <c r="E10" s="26">
         <v>2.7596321624912168E-3</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="44">
         <f t="shared" si="0"/>
         <v>3.428571428571428E-4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="80">
+      <c r="B11" s="41">
         <v>1.333333333333333</v>
       </c>
       <c r="C11" s="26">
@@ -2570,13 +2573,13 @@
       <c r="E11" s="26">
         <v>2.5579262469883962E-3</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>3.0000000000000008E-4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="80">
+      <c r="B12" s="41">
         <v>1.5</v>
       </c>
       <c r="C12" s="26">
@@ -2588,13 +2591,13 @@
       <c r="E12" s="26">
         <v>2.377516216985572E-3</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="44">
         <f t="shared" si="0"/>
         <v>2.6666666666666668E-4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="80">
+      <c r="B13" s="41">
         <v>1.666666666666667</v>
       </c>
       <c r="C13" s="26">
@@ -2606,13 +2609,13 @@
       <c r="E13" s="26">
         <v>2.2120133068327459E-3</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="44">
         <f t="shared" si="0"/>
         <v>2.3999999999999998E-4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="80">
+      <c r="B14" s="41">
         <v>1.833333333333333</v>
       </c>
       <c r="C14" s="26">
@@ -2624,13 +2627,13 @@
       <c r="E14" s="26">
         <v>2.0573519383890121E-3</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="44">
         <f t="shared" si="0"/>
         <v>2.1818181818181824E-4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="80">
+      <c r="B15" s="41">
         <v>2</v>
       </c>
       <c r="C15" s="26">
@@ -2642,13 +2645,13 @@
       <c r="E15" s="26">
         <v>1.910821726227093E-3</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="44">
         <f t="shared" si="0"/>
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="80">
+      <c r="B16" s="41">
         <v>2.166666666666667</v>
       </c>
       <c r="C16" s="26">
@@ -2660,13 +2663,13 @@
       <c r="E16" s="26">
         <v>1.770546249666573E-3</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="44">
         <f t="shared" si="0"/>
         <v>1.8461538461538461E-4</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="80">
+      <c r="B17" s="41">
         <v>2.333333333333333</v>
       </c>
       <c r="C17" s="26">
@@ -2678,13 +2681,13 @@
       <c r="E17" s="26">
         <v>1.635185208221437E-3</v>
       </c>
-      <c r="I17" s="83">
+      <c r="I17" s="44">
         <f t="shared" si="0"/>
         <v>1.7142857142857145E-4</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="80">
+      <c r="B18" s="41">
         <v>2.5</v>
       </c>
       <c r="C18" s="26">
@@ -2696,13 +2699,13 @@
       <c r="E18" s="26">
         <v>1.503755714868608E-3</v>
       </c>
-      <c r="I18" s="83">
+      <c r="I18" s="44">
         <f t="shared" si="0"/>
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="80">
+      <c r="B19" s="41">
         <v>2.666666666666667</v>
       </c>
       <c r="C19" s="26">
@@ -2714,14 +2717,14 @@
       <c r="E19" s="26">
         <v>1.37552060434078E-3</v>
       </c>
-      <c r="F19" s="81"/>
-      <c r="I19" s="83">
+      <c r="F19" s="42"/>
+      <c r="I19" s="44">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="80">
+      <c r="B20" s="41">
         <v>2.833333333333333</v>
       </c>
       <c r="C20" s="26">
@@ -2733,13 +2736,13 @@
       <c r="E20" s="26">
         <v>1.249916162021774E-3</v>
       </c>
-      <c r="I20" s="83">
+      <c r="I20" s="44">
         <f t="shared" si="0"/>
         <v>1.4117647058823531E-4</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="80">
+      <c r="B21" s="41">
         <v>3</v>
       </c>
       <c r="C21" s="26">
@@ -2751,13 +2754,13 @@
       <c r="E21" s="26">
         <v>1.126503943210122E-3</v>
       </c>
-      <c r="I21" s="83">
+      <c r="I21" s="44">
         <f t="shared" si="0"/>
         <v>1.3333333333333334E-4</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="80">
+      <c r="B22" s="41">
         <v>3.166666666666667</v>
       </c>
       <c r="C22" s="26">
@@ -2769,13 +2772,13 @@
       <c r="E22" s="26">
         <v>1.004937807352029E-3</v>
       </c>
-      <c r="I22" s="83">
+      <c r="I22" s="44">
         <f t="shared" si="0"/>
         <v>1.2631578947368421E-4</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="80">
+      <c r="B23" s="41">
         <v>3.333333333333333</v>
       </c>
       <c r="C23" s="26">
@@ -2787,13 +2790,13 @@
       <c r="E23" s="26">
         <v>8.8494084200446254E-4</v>
       </c>
-      <c r="I23" s="83">
+      <c r="I23" s="44">
         <f t="shared" si="0"/>
         <v>1.2000000000000002E-4</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="80">
+      <c r="B24" s="41">
         <v>3.5</v>
       </c>
       <c r="C24" s="26">
@@ -2805,13 +2808,13 @@
       <c r="E24" s="26">
         <v>7.6628887995163256E-4</v>
       </c>
-      <c r="I24" s="83">
+      <c r="I24" s="44">
         <f t="shared" si="0"/>
         <v>1.142857142857143E-4</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="80">
+      <c r="B25" s="41">
         <v>3.6</v>
       </c>
       <c r="C25" s="26">
@@ -2823,8 +2826,8 @@
       <c r="E25" s="26">
         <v>6.9566559299993457E-4</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="I25" s="83">
+      <c r="F25" s="43"/>
+      <c r="I25" s="44">
         <f t="shared" si="0"/>
         <v>1.1111111111111112E-4</v>
       </c>
@@ -2837,84 +2840,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView showGridLines="0" topLeftCell="Z1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" style="39" customWidth="1"/>
-    <col min="2" max="9" width="10.6640625" style="39"/>
-    <col min="10" max="10" width="11.73046875" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="39"/>
-    <col min="12" max="12" width="16.86328125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="17.796875" style="39" customWidth="1"/>
-    <col min="14" max="14" width="15" style="39" customWidth="1"/>
-    <col min="15" max="15" width="19.73046875" style="39" customWidth="1"/>
-    <col min="16" max="16" width="22.796875" style="39" customWidth="1"/>
-    <col min="17" max="17" width="20.265625" style="39" customWidth="1"/>
-    <col min="18" max="18" width="10.86328125" style="39" customWidth="1"/>
-    <col min="19" max="19" width="19.46484375" style="39" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" style="39" customWidth="1"/>
-    <col min="21" max="21" width="11.73046875" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="10.6640625" style="39"/>
-    <col min="28" max="28" width="15.6640625" style="39" customWidth="1"/>
-    <col min="29" max="29" width="21.3984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.3984375" style="39" customWidth="1"/>
-    <col min="31" max="31" width="29.9296875" style="39" customWidth="1"/>
-    <col min="32" max="16384" width="10.6640625" style="39"/>
+    <col min="1" max="1" width="15.1328125" style="38" customWidth="1"/>
+    <col min="2" max="9" width="10.6640625" style="38"/>
+    <col min="10" max="10" width="11.73046875" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="38"/>
+    <col min="12" max="12" width="16.86328125" style="38" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="38" customWidth="1"/>
+    <col min="14" max="14" width="15" style="38" customWidth="1"/>
+    <col min="15" max="15" width="19.73046875" style="38" customWidth="1"/>
+    <col min="16" max="16" width="22.796875" style="38" customWidth="1"/>
+    <col min="17" max="17" width="20.265625" style="38" customWidth="1"/>
+    <col min="18" max="18" width="10.86328125" style="38" customWidth="1"/>
+    <col min="19" max="19" width="19.46484375" style="38" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="38" customWidth="1"/>
+    <col min="21" max="21" width="11.73046875" style="38" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="10.6640625" style="38"/>
+    <col min="28" max="28" width="15.6640625" style="38" customWidth="1"/>
+    <col min="29" max="29" width="21.3984375" style="38" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.3984375" style="38" customWidth="1"/>
+    <col min="31" max="31" width="29.9296875" style="38" customWidth="1"/>
+    <col min="32" max="16384" width="10.6640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="39">
+      <c r="I1" s="38">
         <v>2E-3</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>27</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="Q1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="S1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="32" t="s">
         <v>89</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="32" t="s">
-        <v>91</v>
       </c>
       <c r="U1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A2" s="25">
         <v>0.08</v>
       </c>
@@ -2941,14 +2944,14 @@
       <c r="G2" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H2" s="84">
+      <c r="H2" s="45">
         <f t="shared" ref="H2:H24" si="1">($I2/A2)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="38">
         <v>2E-3</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="46"/>
       <c r="L2" s="25">
         <v>0.08</v>
       </c>
@@ -2983,21 +2986,21 @@
         <f t="shared" ref="U2:U24" si="4">S2+T2</f>
         <v>3.1E-2</v>
       </c>
-      <c r="V2" s="86"/>
-      <c r="AB2" s="99" t="s">
+      <c r="V2" s="47"/>
+      <c r="AB2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD2" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE2" s="94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AC2" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" s="25">
         <v>0.16666666666666699</v>
       </c>
@@ -3025,11 +3028,11 @@
         <f t="shared" ref="G3:G24" si="5">(0.6 - (A3 - 0.08) * (0.6 - 0.1) / (3.6 - 0.08))/100</f>
         <v>5.8768939393939387E-3</v>
       </c>
-      <c r="H3" s="84">
+      <c r="H3" s="45">
         <f t="shared" si="1"/>
         <v>1.1999999999999978E-2</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>2E-3</v>
       </c>
       <c r="L3" s="25">
@@ -3067,24 +3070,27 @@
         <f t="shared" si="4"/>
         <v>1.7876893939393915E-2</v>
       </c>
-      <c r="AB3" s="100">
+      <c r="AB3" s="54">
         <v>0.08</v>
       </c>
-      <c r="AC3" s="95">
+      <c r="AC3" s="50">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AD3" s="95">
+      <c r="AD3" s="50">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE3" s="96">
+      <c r="AE3" s="51">
         <v>3.1E-2</v>
       </c>
-      <c r="AF3" s="39">
-        <f>AE3/SQRT(5)</f>
-        <v>1.3863621460498696E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AH3" s="38">
+        <f>AB3*AI3</f>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="AI3" s="38">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A4" s="25">
         <v>0.33333333333333331</v>
       </c>
@@ -3112,11 +3118,11 @@
         <f t="shared" si="5"/>
         <v>5.6401515151515147E-3</v>
       </c>
-      <c r="H4" s="84">
+      <c r="H4" s="45">
         <f t="shared" si="1"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="38">
         <v>2E-3</v>
       </c>
       <c r="L4" s="25">
@@ -3157,17 +3163,17 @@
       <c r="AB4" s="25">
         <v>0.16666666666666699</v>
       </c>
-      <c r="AC4" s="97">
+      <c r="AC4" s="26">
         <v>5.8768939393939387E-3</v>
       </c>
-      <c r="AD4" s="97">
+      <c r="AD4" s="26">
         <v>1.1999999999999978E-2</v>
       </c>
-      <c r="AE4" s="98">
+      <c r="AE4" s="52">
         <v>1.7876893939393915E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A5" s="25">
         <v>0.5</v>
       </c>
@@ -3195,11 +3201,11 @@
         <f t="shared" si="5"/>
         <v>5.4034090909090907E-3</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="45">
         <f t="shared" si="1"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="38">
         <v>2E-3</v>
       </c>
       <c r="L5" s="25">
@@ -3237,20 +3243,20 @@
         <f t="shared" si="4"/>
         <v>9.4034090909090907E-3</v>
       </c>
-      <c r="AB5" s="100">
+      <c r="AB5" s="54">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC5" s="95">
+      <c r="AC5" s="50">
         <v>5.6401515151515147E-3</v>
       </c>
-      <c r="AD5" s="95">
+      <c r="AD5" s="50">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AE5" s="96">
+      <c r="AE5" s="51">
         <v>1.1640151515151515E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A6" s="25">
         <v>0.66666666666666663</v>
       </c>
@@ -3278,11 +3284,11 @@
         <f t="shared" si="5"/>
         <v>5.1666666666666658E-3</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="45">
         <f t="shared" si="1"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <v>2E-3</v>
       </c>
       <c r="L6" s="25">
@@ -3323,17 +3329,17 @@
       <c r="AB6" s="25">
         <v>0.5</v>
       </c>
-      <c r="AC6" s="97">
+      <c r="AC6" s="26">
         <v>5.4034090909090907E-3</v>
       </c>
-      <c r="AD6" s="97">
+      <c r="AD6" s="26">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AE6" s="98">
+      <c r="AE6" s="52">
         <v>9.4034090909090907E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A7" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -3361,11 +3367,11 @@
         <f t="shared" si="5"/>
         <v>4.9299242424242417E-3</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="45">
         <f t="shared" si="1"/>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="38">
         <v>2E-3</v>
       </c>
       <c r="L7" s="25">
@@ -3403,20 +3409,20 @@
         <f t="shared" si="4"/>
         <v>7.329924242424242E-3</v>
       </c>
-      <c r="AB7" s="100">
+      <c r="AB7" s="54">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC7" s="95">
+      <c r="AC7" s="50">
         <v>5.1666666666666658E-3</v>
       </c>
-      <c r="AD7" s="95">
+      <c r="AD7" s="50">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AE7" s="96">
+      <c r="AE7" s="51">
         <v>8.1666666666666658E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A8" s="25">
         <v>1</v>
       </c>
@@ -3444,11 +3450,11 @@
         <f t="shared" si="5"/>
         <v>4.6931818181818177E-3</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="45">
         <f t="shared" si="1"/>
         <v>2E-3</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <v>2E-3</v>
       </c>
       <c r="L8" s="25">
@@ -3489,17 +3495,17 @@
       <c r="AB8" s="25">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AC8" s="97">
+      <c r="AC8" s="26">
         <v>4.9299242424242417E-3</v>
       </c>
-      <c r="AD8" s="97">
+      <c r="AD8" s="26">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="AE8" s="98">
+      <c r="AE8" s="52">
         <v>7.329924242424242E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A9" s="25">
         <v>1.166666666666667</v>
       </c>
@@ -3527,11 +3533,11 @@
         <f t="shared" si="5"/>
         <v>4.4564393939393928E-3</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="45">
         <f t="shared" si="1"/>
         <v>1.714285714285714E-3</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="38">
         <v>2E-3</v>
       </c>
       <c r="L9" s="25">
@@ -3569,20 +3575,20 @@
         <f t="shared" si="4"/>
         <v>6.170725108225107E-3</v>
       </c>
-      <c r="AB9" s="100">
+      <c r="AB9" s="54">
         <v>1</v>
       </c>
-      <c r="AC9" s="95">
+      <c r="AC9" s="50">
         <v>4.6931818181818177E-3</v>
       </c>
-      <c r="AD9" s="95">
+      <c r="AD9" s="50">
         <v>2E-3</v>
       </c>
-      <c r="AE9" s="96">
+      <c r="AE9" s="51">
         <v>6.6931818181818177E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A10" s="25">
         <v>1.333333333333333</v>
       </c>
@@ -3610,11 +3616,11 @@
         <f t="shared" si="5"/>
         <v>4.2196969696969696E-3</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="45">
         <f t="shared" si="1"/>
         <v>1.5000000000000005E-3</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="38">
         <v>2E-3</v>
       </c>
       <c r="L10" s="25">
@@ -3655,17 +3661,17 @@
       <c r="AB10" s="25">
         <v>1.166666666666667</v>
       </c>
-      <c r="AC10" s="97">
+      <c r="AC10" s="26">
         <v>4.4564393939393928E-3</v>
       </c>
-      <c r="AD10" s="97">
+      <c r="AD10" s="26">
         <v>1.714285714285714E-3</v>
       </c>
-      <c r="AE10" s="98">
+      <c r="AE10" s="52">
         <v>6.170725108225107E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A11" s="25">
         <v>1.5</v>
       </c>
@@ -3693,11 +3699,11 @@
         <f t="shared" si="5"/>
         <v>3.9829545454545456E-3</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="45">
         <f t="shared" si="1"/>
         <v>1.3333333333333333E-3</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="38">
         <v>2E-3</v>
       </c>
       <c r="L11" s="25">
@@ -3735,20 +3741,20 @@
         <f t="shared" si="4"/>
         <v>5.3162878787878787E-3</v>
       </c>
-      <c r="AB11" s="100">
+      <c r="AB11" s="54">
         <v>1.333333333333333</v>
       </c>
-      <c r="AC11" s="95">
+      <c r="AC11" s="50">
         <v>4.2196969696969696E-3</v>
       </c>
-      <c r="AD11" s="95">
+      <c r="AD11" s="50">
         <v>1.5000000000000005E-3</v>
       </c>
-      <c r="AE11" s="96">
+      <c r="AE11" s="51">
         <v>5.7196969696969701E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A12" s="25">
         <v>1.666666666666667</v>
       </c>
@@ -3776,11 +3782,11 @@
         <f t="shared" si="5"/>
         <v>3.7462121212121207E-3</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="45">
         <f t="shared" si="1"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="38">
         <v>2E-3</v>
       </c>
       <c r="L12" s="25">
@@ -3821,17 +3827,17 @@
       <c r="AB12" s="25">
         <v>1.5</v>
       </c>
-      <c r="AC12" s="97">
+      <c r="AC12" s="26">
         <v>3.9829545454545456E-3</v>
       </c>
-      <c r="AD12" s="97">
+      <c r="AD12" s="26">
         <v>1.3333333333333333E-3</v>
       </c>
-      <c r="AE12" s="98">
+      <c r="AE12" s="52">
         <v>5.3162878787878787E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A13" s="25">
         <v>1.833333333333333</v>
       </c>
@@ -3859,11 +3865,11 @@
         <f t="shared" si="5"/>
         <v>3.5094696969696971E-3</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="45">
         <f t="shared" si="1"/>
         <v>1.0909090909090912E-3</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="38">
         <v>2E-3</v>
       </c>
       <c r="L13" s="25">
@@ -3901,20 +3907,20 @@
         <f t="shared" si="4"/>
         <v>4.6003787878787887E-3</v>
       </c>
-      <c r="AB13" s="100">
+      <c r="AB13" s="54">
         <v>1.666666666666667</v>
       </c>
-      <c r="AC13" s="95">
+      <c r="AC13" s="50">
         <v>3.7462121212121207E-3</v>
       </c>
-      <c r="AD13" s="95">
+      <c r="AD13" s="50">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AE13" s="96">
+      <c r="AE13" s="51">
         <v>4.9462121212121204E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A14" s="25">
         <v>2</v>
       </c>
@@ -3942,11 +3948,11 @@
         <f t="shared" si="5"/>
         <v>3.2727272727272726E-3</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="45">
         <f t="shared" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="38">
         <v>2E-3</v>
       </c>
       <c r="L14" s="25">
@@ -3987,17 +3993,17 @@
       <c r="AB14" s="25">
         <v>1.833333333333333</v>
       </c>
-      <c r="AC14" s="97">
+      <c r="AC14" s="26">
         <v>3.5094696969696971E-3</v>
       </c>
-      <c r="AD14" s="97">
+      <c r="AD14" s="26">
         <v>1.0909090909090912E-3</v>
       </c>
-      <c r="AE14" s="98">
+      <c r="AE14" s="52">
         <v>4.6003787878787887E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
         <v>2.166666666666667</v>
       </c>
@@ -4025,11 +4031,11 @@
         <f t="shared" si="5"/>
         <v>3.0359848484848477E-3</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="45">
         <f t="shared" si="1"/>
         <v>9.2307692307692295E-4</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="38">
         <v>2E-3</v>
       </c>
       <c r="L15" s="25">
@@ -4067,20 +4073,20 @@
         <f t="shared" si="4"/>
         <v>3.9590617715617709E-3</v>
       </c>
-      <c r="AB15" s="100">
+      <c r="AB15" s="54">
         <v>2</v>
       </c>
-      <c r="AC15" s="95">
+      <c r="AC15" s="50">
         <v>3.2727272727272726E-3</v>
       </c>
-      <c r="AD15" s="95">
+      <c r="AD15" s="50">
         <v>1E-3</v>
       </c>
-      <c r="AE15" s="96">
+      <c r="AE15" s="51">
         <v>4.2727272727272727E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A16" s="25">
         <v>2.333333333333333</v>
       </c>
@@ -4108,11 +4114,11 @@
         <f t="shared" si="5"/>
         <v>2.7992424242424246E-3</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="45">
         <f t="shared" si="1"/>
         <v>8.5714285714285732E-4</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="38">
         <v>2E-3</v>
       </c>
       <c r="L16" s="25">
@@ -4153,13 +4159,13 @@
       <c r="AB16" s="25">
         <v>2.166666666666667</v>
       </c>
-      <c r="AC16" s="97">
+      <c r="AC16" s="26">
         <v>3.0359848484848477E-3</v>
       </c>
-      <c r="AD16" s="97">
+      <c r="AD16" s="26">
         <v>9.2307692307692295E-4</v>
       </c>
-      <c r="AE16" s="98">
+      <c r="AE16" s="52">
         <v>3.9590617715617709E-3</v>
       </c>
     </row>
@@ -4191,11 +4197,11 @@
         <f t="shared" si="5"/>
         <v>2.5624999999999997E-3</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="45">
         <f t="shared" si="1"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="38">
         <v>2E-3</v>
       </c>
       <c r="L17" s="25">
@@ -4233,16 +4239,16 @@
         <f t="shared" si="4"/>
         <v>3.3624999999999996E-3</v>
       </c>
-      <c r="AB17" s="100">
+      <c r="AB17" s="54">
         <v>2.333333333333333</v>
       </c>
-      <c r="AC17" s="95">
+      <c r="AC17" s="50">
         <v>2.7992424242424246E-3</v>
       </c>
-      <c r="AD17" s="95">
+      <c r="AD17" s="50">
         <v>8.5714285714285732E-4</v>
       </c>
-      <c r="AE17" s="96">
+      <c r="AE17" s="51">
         <v>3.6563852813852821E-3</v>
       </c>
     </row>
@@ -4274,11 +4280,11 @@
         <f t="shared" si="5"/>
         <v>2.3257575757575756E-3</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="45">
         <f t="shared" si="1"/>
         <v>7.4999999999999991E-4</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="38">
         <v>2E-3</v>
       </c>
       <c r="L18" s="25">
@@ -4319,13 +4325,13 @@
       <c r="AB18" s="25">
         <v>2.5</v>
       </c>
-      <c r="AC18" s="97">
+      <c r="AC18" s="26">
         <v>2.5624999999999997E-3</v>
       </c>
-      <c r="AD18" s="97">
+      <c r="AD18" s="26">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="AE18" s="98">
+      <c r="AE18" s="52">
         <v>3.3624999999999996E-3</v>
       </c>
     </row>
@@ -4357,11 +4363,11 @@
         <f t="shared" si="5"/>
         <v>2.0890151515151516E-3</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="45">
         <f t="shared" si="1"/>
         <v>7.0588235294117652E-4</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="38">
         <v>2E-3</v>
       </c>
       <c r="L19" s="25">
@@ -4399,16 +4405,16 @@
         <f t="shared" si="4"/>
         <v>2.794897504456328E-3</v>
       </c>
-      <c r="AB19" s="100">
+      <c r="AB19" s="54">
         <v>2.666666666666667</v>
       </c>
-      <c r="AC19" s="95">
+      <c r="AC19" s="50">
         <v>2.3257575757575756E-3</v>
       </c>
-      <c r="AD19" s="95">
+      <c r="AD19" s="50">
         <v>7.4999999999999991E-4</v>
       </c>
-      <c r="AE19" s="96">
+      <c r="AE19" s="51">
         <v>3.0757575757575754E-3</v>
       </c>
     </row>
@@ -4440,11 +4446,11 @@
         <f t="shared" si="5"/>
         <v>1.8522727272727274E-3</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="45">
         <f t="shared" si="1"/>
         <v>6.6666666666666664E-4</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="38">
         <v>2E-3</v>
       </c>
       <c r="L20" s="25">
@@ -4485,13 +4491,13 @@
       <c r="AB20" s="25">
         <v>2.833333333333333</v>
       </c>
-      <c r="AC20" s="97">
+      <c r="AC20" s="26">
         <v>2.0890151515151516E-3</v>
       </c>
-      <c r="AD20" s="97">
+      <c r="AD20" s="26">
         <v>7.0588235294117652E-4</v>
       </c>
-      <c r="AE20" s="98">
+      <c r="AE20" s="52">
         <v>2.794897504456328E-3</v>
       </c>
     </row>
@@ -4523,11 +4529,11 @@
         <f t="shared" si="5"/>
         <v>1.6155303030303025E-3</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="45">
         <f t="shared" si="1"/>
         <v>6.3157894736842106E-4</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="38">
         <v>2E-3</v>
       </c>
       <c r="L21" s="25">
@@ -4565,16 +4571,16 @@
         <f t="shared" si="4"/>
         <v>2.2471092503987236E-3</v>
       </c>
-      <c r="AB21" s="100">
+      <c r="AB21" s="54">
         <v>3</v>
       </c>
-      <c r="AC21" s="95">
+      <c r="AC21" s="50">
         <v>1.8522727272727274E-3</v>
       </c>
-      <c r="AD21" s="95">
+      <c r="AD21" s="50">
         <v>6.6666666666666664E-4</v>
       </c>
-      <c r="AE21" s="96">
+      <c r="AE21" s="51">
         <v>2.5189393939393941E-3</v>
       </c>
     </row>
@@ -4606,11 +4612,11 @@
         <f t="shared" si="5"/>
         <v>1.3787878787878793E-3</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="45">
         <f t="shared" si="1"/>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="38">
         <v>2E-3</v>
       </c>
       <c r="L22" s="25">
@@ -4651,13 +4657,13 @@
       <c r="AB22" s="25">
         <v>3.166666666666667</v>
       </c>
-      <c r="AC22" s="97">
+      <c r="AC22" s="26">
         <v>1.6155303030303025E-3</v>
       </c>
-      <c r="AD22" s="97">
+      <c r="AD22" s="26">
         <v>6.3157894736842106E-4</v>
       </c>
-      <c r="AE22" s="98">
+      <c r="AE22" s="52">
         <v>2.2471092503987236E-3</v>
       </c>
     </row>
@@ -4689,11 +4695,11 @@
         <f t="shared" si="5"/>
         <v>1.1420454545454544E-3</v>
       </c>
-      <c r="H23" s="84">
+      <c r="H23" s="45">
         <f t="shared" si="1"/>
         <v>5.7142857142857147E-4</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="38">
         <v>2E-3</v>
       </c>
       <c r="L23" s="25">
@@ -4731,16 +4737,16 @@
         <f t="shared" si="4"/>
         <v>1.7134740259740259E-3</v>
       </c>
-      <c r="AB23" s="100">
+      <c r="AB23" s="54">
         <v>3.333333333333333</v>
       </c>
-      <c r="AC23" s="95">
+      <c r="AC23" s="50">
         <v>1.3787878787878793E-3</v>
       </c>
-      <c r="AD23" s="95">
+      <c r="AD23" s="50">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="AE23" s="96">
+      <c r="AE23" s="51">
         <v>1.9787878787878794E-3</v>
       </c>
     </row>
@@ -4772,11 +4778,11 @@
         <f t="shared" si="5"/>
         <v>9.999999999999998E-4</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="45">
         <f t="shared" si="1"/>
         <v>5.5555555555555556E-4</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="38">
         <v>2E-3</v>
       </c>
       <c r="L24" s="28">
@@ -4817,32 +4823,32 @@
       <c r="AB24" s="25">
         <v>3.5</v>
       </c>
-      <c r="AC24" s="97">
+      <c r="AC24" s="26">
         <v>1.1420454545454544E-3</v>
       </c>
-      <c r="AD24" s="97">
+      <c r="AD24" s="26">
         <v>5.7142857142857147E-4</v>
       </c>
-      <c r="AE24" s="98">
+      <c r="AE24" s="52">
         <v>1.7134740259740259E-3</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="AB25" s="100">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="AB25" s="54">
         <v>3.6</v>
       </c>
-      <c r="AC25" s="95">
+      <c r="AC25" s="50">
         <v>9.999999999999998E-4</v>
       </c>
-      <c r="AD25" s="95">
+      <c r="AD25" s="50">
         <v>5.5555555555555556E-4</v>
       </c>
-      <c r="AE25" s="96">
+      <c r="AE25" s="51">
         <v>1.5555555555555553E-3</v>
       </c>
     </row>
@@ -4856,13 +4862,13 @@
       <c r="C42" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="87">
+      <c r="G42" s="48">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H42" s="87">
+      <c r="H42" s="48">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="I42" s="87">
+      <c r="I42" s="48">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -4870,19 +4876,19 @@
       <c r="A43" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B43" s="87">
+      <c r="B43" s="48">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="C43" s="87">
+      <c r="C43" s="48">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="G43" s="87">
+      <c r="G43" s="48">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H43" s="87">
+      <c r="H43" s="48">
         <v>6.3E-3</v>
       </c>
-      <c r="I43" s="87">
+      <c r="I43" s="48">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
@@ -4890,19 +4896,19 @@
       <c r="A44" s="25">
         <v>0.16666666666666671</v>
       </c>
-      <c r="B44" s="87">
+      <c r="B44" s="48">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="C44" s="87">
+      <c r="C44" s="48">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="G44" s="87">
+      <c r="G44" s="48">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="H44" s="87">
+      <c r="H44" s="48">
         <v>2.3E-3</v>
       </c>
-      <c r="I44" s="87">
+      <c r="I44" s="48">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
@@ -4910,19 +4916,19 @@
       <c r="A45" s="25">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B45" s="87">
+      <c r="B45" s="48">
         <v>2.8E-3</v>
       </c>
-      <c r="C45" s="87">
+      <c r="C45" s="48">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G45" s="87">
+      <c r="G45" s="48">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="H45" s="87">
+      <c r="H45" s="48">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="I45" s="87">
+      <c r="I45" s="48">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
@@ -4930,19 +4936,19 @@
       <c r="A46" s="25">
         <v>0.5</v>
       </c>
-      <c r="B46" s="87">
+      <c r="B46" s="48">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="C46" s="87">
+      <c r="C46" s="48">
         <v>1.4E-3</v>
       </c>
-      <c r="G46" s="87">
+      <c r="G46" s="48">
         <v>3.8E-3</v>
       </c>
-      <c r="H46" s="87">
+      <c r="H46" s="48">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I46" s="87">
+      <c r="I46" s="48">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -4950,19 +4956,19 @@
       <c r="A47" s="25">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B47" s="87">
+      <c r="B47" s="48">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="C47" s="87">
+      <c r="C47" s="48">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="G47" s="87">
+      <c r="G47" s="48">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="H47" s="87">
+      <c r="H47" s="48">
         <v>4.3E-3</v>
       </c>
-      <c r="I47" s="87">
+      <c r="I47" s="48">
         <v>1.8E-3</v>
       </c>
     </row>
@@ -4970,19 +4976,19 @@
       <c r="A48" s="25">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B48" s="87">
+      <c r="B48" s="48">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C48" s="87">
+      <c r="C48" s="48">
         <v>2.3E-3</v>
       </c>
-      <c r="G48" s="87">
+      <c r="G48" s="48">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="H48" s="87">
+      <c r="H48" s="48">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="I48" s="87">
+      <c r="I48" s="48">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
@@ -4990,19 +4996,19 @@
       <c r="A49" s="25">
         <v>1</v>
       </c>
-      <c r="B49" s="87">
+      <c r="B49" s="48">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C49" s="87">
+      <c r="C49" s="48">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="G49" s="87">
+      <c r="G49" s="48">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="H49" s="87">
+      <c r="H49" s="48">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="I49" s="87">
+      <c r="I49" s="48">
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
@@ -5010,19 +5016,19 @@
       <c r="A50" s="25">
         <v>1.166666666666667</v>
       </c>
-      <c r="B50" s="87">
+      <c r="B50" s="48">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="C50" s="87">
+      <c r="C50" s="48">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="G50" s="87">
+      <c r="G50" s="48">
         <v>1.5E-3</v>
       </c>
-      <c r="H50" s="87">
+      <c r="H50" s="48">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="I50" s="87">
+      <c r="I50" s="48">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
@@ -5030,19 +5036,19 @@
       <c r="A51" s="25">
         <v>1.333333333333333</v>
       </c>
-      <c r="B51" s="87">
+      <c r="B51" s="48">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C51" s="87">
+      <c r="C51" s="48">
         <v>4.3E-3</v>
       </c>
-      <c r="G51" s="87">
+      <c r="G51" s="48">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="H51" s="87">
+      <c r="H51" s="48">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I51" s="87">
+      <c r="I51" s="48">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
@@ -5050,19 +5056,19 @@
       <c r="A52" s="25">
         <v>1.5</v>
       </c>
-      <c r="B52" s="87">
+      <c r="B52" s="48">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="C52" s="87">
+      <c r="C52" s="48">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G52" s="87">
+      <c r="G52" s="48">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="H52" s="87">
+      <c r="H52" s="48">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="I52" s="87">
+      <c r="I52" s="48">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
@@ -5070,19 +5076,19 @@
       <c r="A53" s="25">
         <v>1.666666666666667</v>
       </c>
-      <c r="B53" s="87">
+      <c r="B53" s="48">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C53" s="87">
+      <c r="C53" s="48">
         <v>6.6E-3</v>
       </c>
-      <c r="G53" s="87">
+      <c r="G53" s="48">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H53" s="87">
+      <c r="H53" s="48">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="I53" s="87">
+      <c r="I53" s="48">
         <v>1.9E-3</v>
       </c>
     </row>
@@ -5090,19 +5096,19 @@
       <c r="A54" s="25">
         <v>1.833333333333333</v>
       </c>
-      <c r="B54" s="87">
+      <c r="B54" s="48">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="48">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G54" s="87">
+      <c r="G54" s="48">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="H54" s="87">
+      <c r="H54" s="48">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="I54" s="87">
+      <c r="I54" s="48">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
@@ -5110,19 +5116,19 @@
       <c r="A55" s="25">
         <v>2</v>
       </c>
-      <c r="B55" s="87">
+      <c r="B55" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C55" s="87">
+      <c r="C55" s="48">
         <v>1.9E-3</v>
       </c>
-      <c r="G55" s="87">
+      <c r="G55" s="48">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="H55" s="87">
+      <c r="H55" s="48">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I55" s="87">
+      <c r="I55" s="48">
         <v>4.3E-3</v>
       </c>
     </row>
@@ -5130,19 +5136,19 @@
       <c r="A56" s="25">
         <v>2.166666666666667</v>
       </c>
-      <c r="B56" s="87">
+      <c r="B56" s="48">
         <v>6.6E-3</v>
       </c>
-      <c r="C56" s="87">
+      <c r="C56" s="48">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="G56" s="87">
+      <c r="G56" s="48">
         <v>2.3E-3</v>
       </c>
-      <c r="H56" s="87">
+      <c r="H56" s="48">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="I56" s="87">
+      <c r="I56" s="48">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
@@ -5150,19 +5156,19 @@
       <c r="A57" s="25">
         <v>2.333333333333333</v>
       </c>
-      <c r="B57" s="87">
+      <c r="B57" s="48">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="C57" s="87">
+      <c r="C57" s="48">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G57" s="87">
+      <c r="G57" s="48">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="H57" s="87">
+      <c r="H57" s="48">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="I57" s="87">
+      <c r="I57" s="48">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -5170,19 +5176,19 @@
       <c r="A58" s="25">
         <v>2.5</v>
       </c>
-      <c r="B58" s="87">
+      <c r="B58" s="48">
         <v>3.8E-3</v>
       </c>
-      <c r="C58" s="87">
+      <c r="C58" s="48">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="G58" s="87">
+      <c r="G58" s="48">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="H58" s="87">
+      <c r="H58" s="48">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="I58" s="87">
+      <c r="I58" s="48">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
@@ -5190,19 +5196,19 @@
       <c r="A59" s="25">
         <v>2.666666666666667</v>
       </c>
-      <c r="B59" s="87">
+      <c r="B59" s="48">
         <v>2.3E-3</v>
       </c>
-      <c r="C59" s="87">
+      <c r="C59" s="48">
         <v>1E-3</v>
       </c>
-      <c r="G59" s="87">
+      <c r="G59" s="48">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="H59" s="87">
+      <c r="H59" s="48">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I59" s="87">
+      <c r="I59" s="48">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
@@ -5210,19 +5216,19 @@
       <c r="A60" s="25">
         <v>2.833333333333333</v>
       </c>
-      <c r="B60" s="87">
+      <c r="B60" s="48">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C60" s="87">
+      <c r="C60" s="48">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="G60" s="87">
+      <c r="G60" s="48">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="H60" s="87">
+      <c r="H60" s="48">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="I60" s="87">
+      <c r="I60" s="48">
         <v>2.8E-3</v>
       </c>
     </row>
@@ -5230,19 +5236,19 @@
       <c r="A61" s="25">
         <v>3</v>
       </c>
-      <c r="B61" s="87">
+      <c r="B61" s="48">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="C61" s="87">
+      <c r="C61" s="48">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="G61" s="87">
+      <c r="G61" s="48">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="H61" s="87">
+      <c r="H61" s="48">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="I61" s="87">
+      <c r="I61" s="48">
         <v>4.3E-3</v>
       </c>
     </row>
@@ -5250,19 +5256,19 @@
       <c r="A62" s="25">
         <v>3.166666666666667</v>
       </c>
-      <c r="B62" s="87">
+      <c r="B62" s="48">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="C62" s="87">
+      <c r="C62" s="48">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G62" s="87">
+      <c r="G62" s="48">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="H62" s="87">
+      <c r="H62" s="48">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="I62" s="87">
+      <c r="I62" s="48">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
@@ -5270,19 +5276,19 @@
       <c r="A63" s="25">
         <v>3.333333333333333</v>
       </c>
-      <c r="B63" s="87">
+      <c r="B63" s="48">
         <v>6.6E-3</v>
       </c>
-      <c r="C63" s="87">
+      <c r="C63" s="48">
         <v>5.3E-3</v>
       </c>
-      <c r="G63" s="87">
+      <c r="G63" s="48">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="H63" s="87">
+      <c r="H63" s="48">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="I63" s="87">
+      <c r="I63" s="48">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
@@ -5290,19 +5296,19 @@
       <c r="A64" s="25">
         <v>3.5</v>
       </c>
-      <c r="B64" s="87">
+      <c r="B64" s="48">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="C64" s="87">
+      <c r="C64" s="48">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G64" s="87">
+      <c r="G64" s="48">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="H64" s="87">
+      <c r="H64" s="48">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="I64" s="87">
+      <c r="I64" s="48">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
@@ -5310,10 +5316,10 @@
       <c r="A65" s="25">
         <v>3.6</v>
       </c>
-      <c r="B65" s="87">
+      <c r="B65" s="48">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C65" s="87">
+      <c r="C65" s="48">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -5330,8 +5336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5350,13 +5356,13 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.45">
       <c r="M1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
         <v>74</v>
-      </c>
-      <c r="O1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.45">
@@ -5370,16 +5376,16 @@
         <v>41</v>
       </c>
       <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -5391,10 +5397,10 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T2" s="18">
         <v>1</v>
@@ -5415,7 +5421,7 @@
         <v>5.0000000000000004E-8</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3" s="16">
         <v>-9.9999999999999995E-7</v>
@@ -5424,7 +5430,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M3">
         <v>350</v>
@@ -5436,7 +5442,7 @@
         <v>1.8</v>
       </c>
       <c r="S3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.45">
@@ -5454,14 +5460,14 @@
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J4" s="1">
         <f>7.5*10^(-5)</f>
         <v>7.5000000000000007E-5</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M4">
         <v>700</v>
@@ -5488,10 +5494,10 @@
         <v>7000</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
         <v>37</v>
@@ -5512,13 +5518,13 @@
         <v>14000</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
         <v>67</v>
@@ -5539,7 +5545,7 @@
         <v>4.6630000000000005E-2</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M7" s="17">
         <f>M2*I3</f>
@@ -5581,7 +5587,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M8" s="17">
         <f>M3*I3</f>
@@ -5607,7 +5613,7 @@
         <v>1.2500000000000001E-6</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M9" s="17">
         <f>M4*I3</f>
@@ -5680,13 +5686,13 @@
         <v>41</v>
       </c>
       <c r="M13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" t="s">
         <v>93</v>
-      </c>
-      <c r="N13" t="s">
-        <v>94</v>
-      </c>
-      <c r="O13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.45">
@@ -5698,7 +5704,7 @@
         <v>2.0156800000000002E-3</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M14" s="20">
         <f>(M7*O2)/100</f>
@@ -5715,7 +5721,7 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M15">
         <f>(M8*O2)/100</f>
@@ -5744,7 +5750,7 @@
         <v>56</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" s="20">
         <f>((M9*(O4/60))/100)</f>
@@ -5780,10 +5786,10 @@
         <v>1.4558082708134216E-2</v>
       </c>
       <c r="M17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
@@ -5807,7 +5813,7 @@
         <v>2.9116165416268432E-2</v>
       </c>
       <c r="O18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
